--- a/Pdf_scraping_python/Licencni_prijmy/datalicence.xlsx
+++ b/Pdf_scraping_python/Licencni_prijmy/datalicence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beata\OneDrive\Dokumenty\IT\Digitální akademie Czechitas\Projekt_DA_patenty\Patenty_BI\Pdf_scraping_python\Licencni_prijmy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beata\OneDrive\Dokumenty\IT\Digitální akademie Czechitas\Projekt_DA_patenty\Patenty_BI_zal\Pdf_scraping_python\Licencni_prijmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81AC695-E5B2-4BBA-8223-4C4E5D59D25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82B8658-1938-4E55-ABF0-B0E5368832FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prehled" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data_licencni_prijmy!$A$1:$E$256</definedName>
-    <definedName name="_xlcn.WorksheetConnection_dataAE" hidden="1">data_licencni_prijmy!$A:$E</definedName>
+    <definedName name="_xlcn.WorksheetConnection_dataAE1" hidden="1">data_licencni_prijmy!$A:$E</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
-    <pivotCache cacheId="7" r:id="rId5"/>
-    <pivotCache cacheId="12" r:id="rId6"/>
+    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="15" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -68,7 +68,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dataAE"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dataAE1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1551,7 +1551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -1563,8 +1563,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1579,11 +1577,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1622,7 +1646,143 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Beata Motyková" refreshedDate="45609.499475810182" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0E772BD3-29FF-4AA2-B06C-49DF7A1511B2}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Beata Motyková" refreshedDate="45610.542723148152" refreshedVersion="8" recordCount="257" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E258" sheet="data_licencni_prijmy"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Nazev podsloĹľky" numFmtId="0">
+      <sharedItems count="25">
+        <s v="01_AMU"/>
+        <s v="02_AVU"/>
+        <s v="03_CVUT"/>
+        <s v="04_CZU"/>
+        <s v="05_JAMU"/>
+        <s v="06_JU"/>
+        <s v="07_MU"/>
+        <s v="08_MENDELU"/>
+        <s v="09_OU"/>
+        <s v="10_SU"/>
+        <s v="11_TUL"/>
+        <s v="12_UHK"/>
+        <s v="14_UK"/>
+        <s v="15_UP"/>
+        <s v="16_UPCE"/>
+        <s v="18_VETUNI"/>
+        <s v="19_VSB-TUO"/>
+        <s v="20_VSE"/>
+        <s v="21_VSCHT"/>
+        <s v="22_VSPJ"/>
+        <s v="23_VSTE"/>
+        <s v="24_UMPRUM"/>
+        <s v="25_VUT"/>
+        <s v="26_ZCU"/>
+        <s v="17_UTB" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nazev souboru" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Matching Line" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CASTKA" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6301"/>
+    </cacheField>
+    <cacheField name="ROK" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2023" count="11">
+        <n v="2013"/>
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Beata Motyková" refreshedDate="45610.542723379629" refreshedVersion="8" recordCount="267" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E268" sheet="data_licencni_prijmy"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Nazev podsloĹľky" numFmtId="0">
+      <sharedItems count="25">
+        <s v="01_AMU"/>
+        <s v="02_AVU"/>
+        <s v="03_CVUT"/>
+        <s v="04_CZU"/>
+        <s v="05_JAMU"/>
+        <s v="06_JU"/>
+        <s v="07_MU"/>
+        <s v="08_MENDELU"/>
+        <s v="09_OU"/>
+        <s v="10_SU"/>
+        <s v="11_TUL"/>
+        <s v="12_UHK"/>
+        <s v="14_UK"/>
+        <s v="15_UP"/>
+        <s v="16_UPCE"/>
+        <s v="18_VETUNI"/>
+        <s v="19_VSB-TUO"/>
+        <s v="20_VSE"/>
+        <s v="21_VSCHT"/>
+        <s v="22_VSPJ"/>
+        <s v="23_VSTE"/>
+        <s v="24_UMPRUM"/>
+        <s v="25_VUT"/>
+        <s v="26_ZCU"/>
+        <s v="17_UTB"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nazev souboru" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Matching Line" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CASTKA" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6301"/>
+    </cacheField>
+    <cacheField name="ROK" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2023" count="11">
+        <n v="2013"/>
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Beata Motyková" refreshedDate="45610.543894907409" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0E772BD3-29FF-4AA2-B06C-49DF7A1511B2}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
     <cacheField name="[Range].[Nazev podsloĹľky].[Nazev podsloĹľky]" caption="Nazev podsloĹľky" numFmtId="0" level="1">
@@ -1744,144 +1904,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Beata Motyková" refreshedDate="45609.513090740744" refreshedVersion="8" recordCount="267" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E268" sheet="data_licencni_prijmy"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Nazev podsloĹľky" numFmtId="0">
-      <sharedItems count="25">
-        <s v="01_AMU"/>
-        <s v="02_AVU"/>
-        <s v="03_CVUT"/>
-        <s v="04_CZU"/>
-        <s v="05_JAMU"/>
-        <s v="06_JU"/>
-        <s v="07_MU"/>
-        <s v="08_MENDELU"/>
-        <s v="09_OU"/>
-        <s v="10_SU"/>
-        <s v="11_TUL"/>
-        <s v="12_UHK"/>
-        <s v="14_UK"/>
-        <s v="15_UP"/>
-        <s v="16_UPCE"/>
-        <s v="18_VETUNI"/>
-        <s v="19_VSB-TUO"/>
-        <s v="20_VSE"/>
-        <s v="21_VSCHT"/>
-        <s v="22_VSPJ"/>
-        <s v="23_VSTE"/>
-        <s v="24_UMPRUM"/>
-        <s v="25_VUT"/>
-        <s v="26_ZCU"/>
-        <s v="17_UTB"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Nazev souboru" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Matching Line" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CASTKA" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6301"/>
-    </cacheField>
-    <cacheField name="ROK" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2023" count="11">
-        <n v="2013"/>
-        <n v="2014"/>
-        <n v="2015"/>
-        <n v="2016"/>
-        <n v="2017"/>
-        <n v="2018"/>
-        <n v="2019"/>
-        <n v="2020"/>
-        <n v="2021"/>
-        <n v="2022"/>
-        <n v="2023"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Beata Motyková" refreshedDate="45609.513090740744" refreshedVersion="8" recordCount="257" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E258" sheet="data_licencni_prijmy"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Nazev podsloĹľky" numFmtId="0">
-      <sharedItems count="25">
-        <s v="01_AMU"/>
-        <s v="02_AVU"/>
-        <s v="03_CVUT"/>
-        <s v="04_CZU"/>
-        <s v="05_JAMU"/>
-        <s v="06_JU"/>
-        <s v="07_MU"/>
-        <s v="08_MENDELU"/>
-        <s v="09_OU"/>
-        <s v="10_SU"/>
-        <s v="11_TUL"/>
-        <s v="12_UHK"/>
-        <s v="14_UK"/>
-        <s v="15_UP"/>
-        <s v="16_UPCE"/>
-        <s v="18_VETUNI"/>
-        <s v="19_VSB-TUO"/>
-        <s v="20_VSE"/>
-        <s v="21_VSCHT"/>
-        <s v="22_VSPJ"/>
-        <s v="23_VSTE"/>
-        <s v="24_UMPRUM"/>
-        <s v="25_VUT"/>
-        <s v="26_ZCU"/>
-        <s v="17_UTB" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Nazev souboru" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Matching Line" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CASTKA" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6301"/>
-    </cacheField>
-    <cacheField name="ROK" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2023" count="11">
-        <n v="2013"/>
-        <n v="2014"/>
-        <n v="2015"/>
-        <n v="2016"/>
-        <n v="2017"/>
-        <n v="2018"/>
-        <n v="2019"/>
-        <n v="2020"/>
-        <n v="2021"/>
-        <n v="2022"/>
-        <n v="2023"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="267">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="257">
   <r>
     <x v="0"/>
     <s v="04_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2013.pdf"/>
@@ -3681,6 +3705,1810 @@
     <n v="2737"/>
     <x v="10"/>
   </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="267">
+  <r>
+    <x v="0"/>
+    <s v="04_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2013.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)68 68"/>
+    <n v="68"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="05_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2014.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)18 329 347"/>
+    <n v="347"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="06_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2015.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)9 469 478"/>
+    <n v="478"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="07_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2016.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)25 248 273"/>
+    <n v="273"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="08_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2017.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)42 826 868"/>
+    <n v="868"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="09_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2018.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)11 256 267"/>
+    <n v="267"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="10_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2019.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)83 180 263"/>
+    <n v="263"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="11_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2020.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)23 692 716"/>
+    <n v="716"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="12_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2021.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)11 858 869"/>
+    <n v="869"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="13_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2022.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)11,31525 773,96701 785"/>
+    <n v="785"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="14_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2023.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)7 1 262 1 269"/>
+    <n v="1269"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="vz_o_hospodareni_2013_final.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="vz_o_hospodareni_avu_2014_final.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="vz_o_hospodareni_avu_2015_final.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="vz_o_hospodareni_2016_komplet.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="vz_o_hospodareni_2017_avu_komplet.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="vz_o_hospodareni_2018_avu_final_komplet.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="VZ-o-hospodareni_AVU_2019_komplet_final.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="vz_o_hospodareni_2020_kompet_final1.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="VZ-o-hospodareni-2021_s_prilohami.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="Vyrocni_zprava_hospodareni_AVU_2023-1.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)      0"/>
+    <n v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="20230721-vyrocni-zprava-o-hospodareni-za-rok-2017.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 648 1203 1 851"/>
+    <n v="1851"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="20190717-vyrocni-zprava-o-hospodareni-za-rok-2018.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 447 1 724 2 171"/>
+    <n v="2171"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="20200709-vyrocni-zprava-o-hospodareni-za-rok-2019.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 116 1 111 1 227"/>
+    <n v="1227"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="2980"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <n v="4498"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="20231106-vyrocni-zprava-o-hospodareni-za-rok-2022.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="4413"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="20240711-vyrocni-zprava-o-hospodareni-za-rok-2023.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="4733"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="vzh2013-web.pdf"/>
+    <s v="ď€ą  pĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="vzh-2014-czu.pdf"/>
+    <s v="ď€ą  pĹ™Ă­jmy z licenÄŤnĂ­ch smluv  216 14 230"/>
+    <n v="230"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="20"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="zprava-hospodareni-2017.pdf"/>
+    <s v="pĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 16 16"/>
+    <n v="16"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="vz-o-hospodareni-2018-web.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 19 53 72"/>
+    <n v="72"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="vz-o-hospodareni-2019-web.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv(2)110 110"/>
+    <n v="110"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="vz-o-hospodareni-czu-2020.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0"/>
+    <n v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="vzoh-2021-czu-web.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0"/>
+    <n v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="vyrocni-zprava-o-hospodareni-czu-za-rok-2022.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 56 0 56"/>
+    <n v="56"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="czu-vz-o-hospodareni-2023-online.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv Â  20 20"/>
+    <n v="20"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="2013.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)      0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="2016.pdf"/>
+    <s v="v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)    0"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="2017.pdf"/>
+    <s v="v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0,00"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="2020.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv      0"/>
+    <n v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="JAMU_VZOH_2021_final.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0"/>
+    <n v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Vyrocni_zprava_o_hospodaen_JU_za_rok_2013_final.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 45,63 8,00 53,63"/>
+    <n v="53"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="JU_Vron_zprva_o_hospodaen_2014_final.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 113,14 0,00 113,14"/>
+    <n v="113"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Vyrocni_zprava_o_hospodaen_JU_za_rok_2015_final.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0,00 65,89 65,89"/>
+    <n v="65"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="Vyrocni_zprava_o_hospodaen_JU_za_rok_2016.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 62 62"/>
+    <n v="62"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="VZOH_2017.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 56 56"/>
+    <n v="56"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="VZOH_2018_20190626_final.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 260 0 260"/>
+    <n v="260"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="VZOH_2019_20200629_final.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 104 104"/>
+    <n v="104"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="vzoh-2020_25_06_2021_komplet.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="289"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="vzoh_ju_za_rok_2021_titulka_podeps.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="72"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="vzoh-2022.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="84"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <n v="5387"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="MU_VZoH_2014.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 173 173"/>
+    <n v="173"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="VZoH_2015.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 398 0 398"/>
+    <n v="398"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="mu-vzoh-2016.pdf"/>
+    <s v="A.1 vÂ tom: pĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 770 â€“ 770"/>
+    <n v="770"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="mu-vzh-2017.pdf"/>
+    <s v="A.1 vÂ tom: pĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 1Â 915 9 1Â 924"/>
+    <n v="1924"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="mu-vzh2018-sazba-hot4.pdf"/>
+    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 431 431"/>
+    <n v="431"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="mu_vzh2019.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 518 984 1Â 502"/>
+    <n v="1502"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="mu-vzh2020-komplet.pdf"/>
+    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 600 4429 5Â 029"/>
+    <n v="5029"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="muni-vzh2021-final.pdf"/>
+    <s v="A.1 v tom: PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 21 1Â 504 1Â 525"/>
+    <n v="1525"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="muni-vzh2022-final.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 3Â 328 3Â 328"/>
+    <n v="3328"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="muni-vzh2023.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 48 1Â 779 1Â 828"/>
+    <n v="1828"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <n v="1990"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <n v="2547"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="VZH_2016_MENDELU_FINAL_komplet_word_vz5.5.2017_-_PDF.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  2.109 0 2 109"/>
+    <n v="2109"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="VZH_2017_MENDELU_vcetne_vyroku_auditora_schvaleno_AS,_SR,_finalni_PDF.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  2465  0 2 465"/>
+    <n v="2465"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="VZH_2018_MENDELU_k_podpisu_podpis.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  2 236    2 236"/>
+    <n v="2236"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="VZH_FINAL_2019.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 2 065 0 2 065"/>
+    <n v="2065"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <n v="2259"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <n v="2350"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="VZH_MENDELU_2022_s_obalkou_FINAL.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 2Â 382 2Â 382"/>
+    <n v="2382"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="VZH_MENDELU_2023_ISBN_978-80-7509-983-9_web.pdf"/>
+    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2)3Â 525 3Â 525"/>
+    <n v="3525"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="hospodareni_2014.pdf"/>
+    <s v="tis. KÄŤ ÄŚ.Ĺ™. VybranĂ© ÄŤinnosti  VĂ˝nosy za r. 2014   HlavnĂ­ ÄŤinnost DoplĹkovĂˇ ÄŤinnost Celkem A Transfer znalostĂ­ 0 2 268 2 268 A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0 A.2  pĹ™Ă­jmy ze smluvnĂ­ho vĂ˝zkumu (3) 0 1 656 1 656 A.3  placenĂ©"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="hospodareni_2016.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0 0"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="hospodareni_2017.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0 0"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="hospodareni_2018.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0 0"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="hospodareni_2019.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0 0"/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="hospodareni_2020.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 2 2"/>
+    <n v="2"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="hospodareni_2021.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 1 1"/>
+    <n v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="hospodareni_2022.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 187 187"/>
+    <n v="187"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="hospodareni_2023.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 226 226"/>
+    <n v="226"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="vz-hospodareni-2013.pdf"/>
+    <s v="v tom:PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="vz-hospodareni-2014.pdf"/>
+    <s v="vÂ tom:PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="vz-hospodareni-2015.pdf"/>
+    <s v="vÂ tom:PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="vz-hospodareni-2016.pdf"/>
+    <s v="vÂ tom:pĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="vz-hospodareni-2017.pdf"/>
+    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="vz-hospodareni-2018.pdf"/>
+    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="vz-hospodareni-2019.pdf"/>
+    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2020.pdf"/>
+    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="VZoH_2021_online_SU.pdf"/>
+    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <n v="149"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="vyrocni_zprava_o_hospodareni_za_rok_2023.pdf"/>
+    <s v="A.1 pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 120 0 120"/>
+    <n v="120"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2014.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 6 301 6 301"/>
+    <n v="6301"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2015.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  1 489  0 1 489"/>
+    <n v="1489"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2016.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  1.732 0 1. 732"/>
+    <n v="1732"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2017.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  1.831 0 1.831"/>
+    <n v="1831"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2018.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 971 971"/>
+    <n v="971"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2019.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  612 0 612"/>
+    <n v="612"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2020.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 836 0 836"/>
+    <n v="836"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2021.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="1801"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="vyrocni-zprava-o-hospodareni-tul-na-rok-2022-fin.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="213"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <n v="1165"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2013.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2014.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2015.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2016.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2017.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 3 3"/>
+    <n v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-za-rok-2018.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 10 0 10"/>
+    <n v="10"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-za-rok-2019.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 130"/>
+    <n v="130"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2020.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 848 848"/>
+    <n v="848"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2021.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 39 39"/>
+    <n v="39"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-univerzity-hradec-kralove-za-rok-2022.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 30 0 30"/>
+    <n v="30"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="vyrocni-zprava-o-hospodareni-univerzity-hradec-kralove-za-rok-2023.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 851 851"/>
+    <n v="851"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-hosp2013.pdf"/>
+    <s v="v tom:PĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)503 672 1 175"/>
+    <n v="1175"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-vzh_uk_2014_4203.pdf"/>
+    <s v="v tom:PĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)100 126 226"/>
+    <n v="226"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-vzh_uk_2015_4790.pdf"/>
+    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)343 453 797"/>
+    <n v="797"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-vzh_uk_2016.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)632 552 1 185"/>
+    <n v="1185"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-uk_vzh_2017_text.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2) 308 52 360"/>
+    <n v="360"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-vzh_uk_2018_opravena_tab_6_na_radku_b.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)1 782 721 2 503"/>
+    <n v="2503"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-vzh_uk_2019.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)148 340 488"/>
+    <n v="488"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-vyrocni_zprava_o_hospodareni_uk_za_rok_2020___opr_s33.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)481 306 787"/>
+    <n v="787"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-vyrocni_zprava_o_hospodareni_uk__2021.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)662 376 1 038"/>
+    <n v="1038"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-vyrocni_zprava_o_hospodareni_uk_2022.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)171 534 705"/>
+    <n v="705"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="UK-8533-version1-vzh_uk_2023_korektura_4c_a_imprimatur.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)355 408 764"/>
+    <n v="764"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="VZ_hospodareni_2013.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 58 71 129"/>
+    <n v="129"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <n v="1968"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="VZ_hospodareni_2015.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 1 966  2 1 968"/>
+    <n v="1968"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="VZ_hospodareni_2016.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 738 0 738"/>
+    <n v="738"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="VZ_hospodareni_2017.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  12 0 12"/>
+    <n v="12"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="VZ_hospodareni_2018.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  108 2 632  2 740"/>
+    <n v="2740"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="VZ_hospodareni_2019.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 41 2 142  2 183"/>
+    <n v="2183"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="VZ_hospodareni_2020.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 227 1 398  1 625"/>
+    <n v="1625"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="vzh_2021.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 620 1 214  1 834"/>
+    <n v="1834"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="VZ_hospodareni_2022.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 740 1 336  2 076"/>
+    <n v="2076"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="VZ_hospodareni_2023.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2) 0 3 082  3 082"/>
+    <n v="382"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="o-hosp-2014.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 100 100"/>
+    <n v="100"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="vyrocni-zprava-o-hospodareni-2015.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="vyrocni-zprava-o-hospodareni-2016.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 50 50"/>
+    <n v="50"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="vyrocni_zprava_o_hospodareni-2017_111358.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 454 454"/>
+    <n v="454"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="vyrocni_zprava_o_hospodareni-2018_133126.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 637 637"/>
+    <n v="637"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="vyrocni_zprava_o_hospodareni-2019_148578.pdf"/>
+    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 117 117"/>
+    <n v="117"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <n v="299"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <n v="2503"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Vyrocni zprava o hospodareni UPCE 2022_79177.pdf"/>
+    <s v="A.1v_x0009_tom PĹ™Ă­jmy_x0009_z_x0009_licenÄŤnĂ­ch_x0009_smluv_x0009_(2) 0 830 830"/>
+    <n v="830"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="Vyrocni zprava o hospodareni UPCE 2023_web_98368.pdf"/>
+    <s v="A.1v_x0009_tom PĹ™Ă­jmy_x0009_z_x0009_licenÄŤnĂ­ch_x0009_smluv_x0009_(2) 0 2_x0009_458 2_x0009_458"/>
+    <n v="2458"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="vz_hospodareni_2013.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
+    <n v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="vyrocni-zprava-o-hospodareni-2014.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
+    <n v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="vzh_2015.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
+    <n v="5"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="vyrocni-zprava-o-hospodareni-2016.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 5 0 5"/>
+    <n v="5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="hosp_2017.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
+    <n v="5"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="_zprava_hospodareni_2018.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
+    <n v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="_zprava_hospodareni_2019.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="VZoH_2020_web.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 10 0 10"/>
+    <n v="10"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="_zprava_hospodareni_2021.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 0 0 0"/>
+    <n v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="web_zprava_hospodareni_2022.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 0 0 0"/>
+    <n v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="VETUNI_zprava_hospodareni_2023.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 0 0 0"/>
+    <n v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VZ_hospodareni_2013.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  1610  0 1 610"/>
+    <n v="1610"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VZ o hospodaĹ™enĂ­ 2014 VĹ B-TUO.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  56 0 56"/>
+    <n v="56"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VZ o hospodaĹ™enĂ­ 2015.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  544 0 544"/>
+    <n v="544"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VZ o hospodaĹ™enĂ­ 2016.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  200 0 200"/>
+    <n v="200"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VĹ B-TUO VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ 2017.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  500 0 500"/>
+    <n v="500"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VĂťROÄŚNĂŤ ZPRĂVA O HOSPODAĹENĂŤ 2018.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 414 0 414"/>
+    <n v="414"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VZ o hospodaĹ™enĂ­ 2019 finĂˇlnĂ­ verze.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 558 0 558"/>
+    <n v="558"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="2020_VĂťROÄŚNĂŤ ZPRĂVA O HOSPODĂRENĂŤ_4.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 1 092 1 092"/>
+    <n v="1092"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VĂťROÄŚNĂŤ ZPRĂVA VĹ B-TUO 2021.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 694 694"/>
+    <n v="694"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VĂťROÄŚNĂŤ ZPRĂVA O HOSPODAĹENĂŤ VĹ B-TUO 2022.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 530 530"/>
+    <n v="530"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ VĹ B-TUO za rok 2023.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 2 007 2 007"/>
+    <n v="2007"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="vyrocni-zprava-o-hospodareni-2013.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="vyrocni-zprava-o-hospodareni-2014.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="vyrocni-zprava-o-hospodareni-2015.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="vyrocni-zprava-o-hospodareni-2016.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="vyrocni-zprava-o-hospodareni-2017.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="vyrocni-zprava-o-hospodareni-2018.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="VZoH-VĹ E-2019.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="VZoH-VSE-2020b.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy  z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="VZoH-VSE-2021.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="VZoH-VSE-2022.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 19 19"/>
+    <n v="19"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="VZoH-VSE-2023.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
+    <n v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o ÄŤinnosti a hospodaĹ™enĂ­ za rok 2013.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 195 195"/>
+    <n v="195"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva 2014.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 25 25"/>
+    <n v="25"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <n v="10"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2017.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2018.pdf"/>
+    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2019.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2020.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 129 129"/>
+    <n v="129"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2021.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 371 371"/>
+    <n v="371"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2022.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 500 500"/>
+    <n v="500"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2023.pdf"/>
+    <s v="v tompĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 2 482 2 482"/>
+    <n v="2482"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Soubor tabulek pro vĂ˝roÄŤnĂ­ zprĂˇvu o hospodaĹ™enĂ­ za r.  2017 - VVĹ _final_02.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Soubor tabulek VZH VĹ PJ 2018 final pro MĹ MT.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="Soubor tabulek VZH VĹ PJ 2019 pro MĹ MT.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ VĹ PJ za rok 2020 vÄŤetnÄ› Souboru tabulek.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ VĹ PJ za rok 2021.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="17"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ VĹ PJ 2022_komplet.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="vzhvspj2023prowebpdf-79ee731c-c749-45ff-a808-866b43ca419d.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
+    <n v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="vyrocni_zprava_o_hospodareni_2013.pdf"/>
+    <s v="tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
+    <n v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Vyrocni_zprava_o_hospodareni_2014.pdf"/>
+    <s v="tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0"/>
+    <n v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Vyrocni_zprava_o_hospodareni_2015.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
+    <n v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="Vyrocni_zprava_o_hospodareni_2016.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="VZOH_2017.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0"/>
+    <n v="0"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="6_VZoH_2018.pdf"/>
+    <s v="v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)      0"/>
+    <n v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="VSTE_VZoH_2019.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0"/>
+    <n v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="vyrocni_zprava_o_hospodareni-2020.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv"/>
+    <n v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="04_vyrocni_zprava_o_hospodareni_2023.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv"/>
+    <n v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="vyrocni-zprava-o-hospodareni-pro-rok-2013.pdf"/>
+    <s v="vÂ tompĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 242 242"/>
+    <n v="242"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Vyrocni-zprava-VSUP-o-hospodareni-za-rok-2014.pdf"/>
+    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 318 0 318"/>
+    <n v="318"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Vyrocni-zprava-o-hospodareni-za-rok-2015.pdf"/>
+    <s v="vÂ tompĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 956 956"/>
+    <n v="956"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Vyrocni-zprava-o-hospodareni-za-rok-2016.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 533 533"/>
+    <n v="533"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Vyrocni-zprava-o-hospodareni-za-rok-2017.pdf"/>
+    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 1599 1 599"/>
+    <n v="1599"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Vyrocni-zprava-o-hospodareni-za-rok-2018.pdf"/>
+    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 1 572 1 572"/>
+    <n v="1572"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <m/>
+    <m/>
+    <n v="1039"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="Vyrocni-zprava-o-hospodareni-Vysoke-skoly-umeleckoprumyslove-v-Praze-za-rok-2020.pdf"/>
+    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 39"/>
+    <n v="39"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="VZ-hospodareni-umprum-2021-export-1-.pdf"/>
+    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 1702 1 702"/>
+    <n v="1702"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="VZ-hospodareni-umprum-2022-ex.pdf"/>
+    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 1040 1 040"/>
+    <n v="1040"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="VZ-hospodareni-UMPRUM-2023-ex.pdf"/>
+    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 88 88"/>
+    <n v="88"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="VZ 2013 2014-04-06 kv_2 (2)030112014.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 2 791  2 791"/>
+    <n v="2791"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva VUT v BrnÄ› o hospodaĹ™enĂ­ za rok 2014.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 1 018  1 018"/>
+    <n v="1018"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="VZoH 2015 final.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 1 986  1 986"/>
+    <n v="1986"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="VZoH 2016 VUT.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv    958 958"/>
+    <n v="958"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="VZoH 2017_VUT.pdf"/>
+    <s v="v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 955  419 1 374"/>
+    <n v="1374"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="VZoH 2018_VUT_vÄŤ.titulni.pdf"/>
+    <s v="v tom  PĹ™Ă­jmy  z licenÄŤnĂ­ch smluv  1 569  0 1 569"/>
+    <n v="1569"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <n v="3274"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="VZoH 2020_VUT_fin_komplet.pdf"/>
+    <s v="v tom :  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  3 818  0  3 818"/>
+    <n v="3818"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <n v="4061"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <m/>
+    <m/>
+    <n v="3177"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="VZoH 2023_VUT_final-k odesl.pdf"/>
+    <s v="v tom:   PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  12 057  0 12 057"/>
+    <n v="1257"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="03_VZ_hospodar_2013.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 313 0 313"/>
+    <n v="313"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <n v="4568"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="05_VZH_2015.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 2 201 50 2 251"/>
+    <n v="2251"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <n v="689"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="07_VZoH_2017_web.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 2106 2 106"/>
+    <n v="2106"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <n v="516"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <n v="207"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <n v="950"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="11_VZH_ZCU_2021.pdf"/>
+    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv"/>
+    <n v="533"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <n v="1667"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <m/>
+    <m/>
+    <n v="2737"/>
+    <x v="10"/>
+  </r>
   <r>
     <x v="24"/>
     <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ UTB za rok 2014.pdf"/>
@@ -3754,1812 +5582,195 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="257">
-  <r>
-    <x v="0"/>
-    <s v="04_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2013.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)68 68"/>
-    <n v="68"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="05_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2014.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)18 329 347"/>
-    <n v="347"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="06_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2015.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)9 469 478"/>
-    <n v="478"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="07_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2016.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)25 248 273"/>
-    <n v="273"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="08_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2017.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)42 826 868"/>
-    <n v="868"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="09_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2018.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)11 256 267"/>
-    <n v="267"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="10_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2019.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)83 180 263"/>
-    <n v="263"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="11_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2020.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)23 692 716"/>
-    <n v="716"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="12_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2021.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)11 858 869"/>
-    <n v="869"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="13_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2022.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)11,31525 773,96701 785"/>
-    <n v="785"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="14_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2023.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)7 1 262 1 269"/>
-    <n v="1269"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="vz_o_hospodareni_2013_final.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="vz_o_hospodareni_avu_2014_final.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
-    <n v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="vz_o_hospodareni_avu_2015_final.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
-    <n v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="vz_o_hospodareni_2016_komplet.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="vz_o_hospodareni_2017_avu_komplet.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
-    <n v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="vz_o_hospodareni_2018_avu_final_komplet.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
-    <n v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="VZ-o-hospodareni_AVU_2019_komplet_final.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
-    <n v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="vz_o_hospodareni_2020_kompet_final1.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="VZ-o-hospodareni-2021_s_prilohami.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Vyrocni_zprava_hospodareni_AVU_2023-1.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)      0"/>
-    <n v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="20230721-vyrocni-zprava-o-hospodareni-za-rok-2017.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 648 1203 1 851"/>
-    <n v="1851"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="20190717-vyrocni-zprava-o-hospodareni-za-rok-2018.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 447 1 724 2 171"/>
-    <n v="2171"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="20200709-vyrocni-zprava-o-hospodareni-za-rok-2019.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 116 1 111 1 227"/>
-    <n v="1227"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <n v="2980"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <m/>
-    <m/>
-    <n v="4498"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="20231106-vyrocni-zprava-o-hospodareni-za-rok-2022.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="4413"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="20240711-vyrocni-zprava-o-hospodareni-za-rok-2023.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="4733"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="vzh2013-web.pdf"/>
-    <s v="ď€ą  pĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="vzh-2014-czu.pdf"/>
-    <s v="ď€ą  pĹ™Ă­jmy z licenÄŤnĂ­ch smluv  216 14 230"/>
-    <n v="230"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="20"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="zprava-hospodareni-2017.pdf"/>
-    <s v="pĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 16 16"/>
-    <n v="16"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="vz-o-hospodareni-2018-web.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 19 53 72"/>
-    <n v="72"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="vz-o-hospodareni-2019-web.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv(2)110 110"/>
-    <n v="110"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="vz-o-hospodareni-czu-2020.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0"/>
-    <n v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="vzoh-2021-czu-web.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0"/>
-    <n v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="vyrocni-zprava-o-hospodareni-czu-za-rok-2022.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 56 0 56"/>
-    <n v="56"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="czu-vz-o-hospodareni-2023-online.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv Â  20 20"/>
-    <n v="20"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="2013.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)      0"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="2016.pdf"/>
-    <s v="v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)    0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="2017.pdf"/>
-    <s v="v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0,00"/>
-    <n v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="2020.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv      0"/>
-    <n v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="JAMU_VZOH_2021_final.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0"/>
-    <n v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Vyrocni_zprava_o_hospodaen_JU_za_rok_2013_final.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 45,63 8,00 53,63"/>
-    <n v="53"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="JU_Vron_zprva_o_hospodaen_2014_final.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 113,14 0,00 113,14"/>
-    <n v="113"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Vyrocni_zprava_o_hospodaen_JU_za_rok_2015_final.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0,00 65,89 65,89"/>
-    <n v="65"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Vyrocni_zprava_o_hospodaen_JU_za_rok_2016.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 62 62"/>
-    <n v="62"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="VZOH_2017.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 56 56"/>
-    <n v="56"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="VZOH_2018_20190626_final.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 260 0 260"/>
-    <n v="260"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="VZOH_2019_20200629_final.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 104 104"/>
-    <n v="104"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="vzoh-2020_25_06_2021_komplet.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="289"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="vzoh_ju_za_rok_2021_titulka_podeps.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="72"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="vzoh-2022.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="84"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <m/>
-    <m/>
-    <n v="5387"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="MU_VZoH_2014.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 173 173"/>
-    <n v="173"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="VZoH_2015.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 398 0 398"/>
-    <n v="398"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="mu-vzoh-2016.pdf"/>
-    <s v="A.1 vÂ tom: pĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 770 â€“ 770"/>
-    <n v="770"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="mu-vzh-2017.pdf"/>
-    <s v="A.1 vÂ tom: pĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 1Â 915 9 1Â 924"/>
-    <n v="1924"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="mu-vzh2018-sazba-hot4.pdf"/>
-    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 431 431"/>
-    <n v="431"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="mu_vzh2019.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 518 984 1Â 502"/>
-    <n v="1502"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="mu-vzh2020-komplet.pdf"/>
-    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 600 4429 5Â 029"/>
-    <n v="5029"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="muni-vzh2021-final.pdf"/>
-    <s v="A.1 v tom: PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 21 1Â 504 1Â 525"/>
-    <n v="1525"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="muni-vzh2022-final.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 3Â 328 3Â 328"/>
-    <n v="3328"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="muni-vzh2023.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 48 1Â 779 1Â 828"/>
-    <n v="1828"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <n v="1990"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <n v="2547"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="VZH_2016_MENDELU_FINAL_komplet_word_vz5.5.2017_-_PDF.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  2.109 0 2 109"/>
-    <n v="2109"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="VZH_2017_MENDELU_vcetne_vyroku_auditora_schvaleno_AS,_SR,_finalni_PDF.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  2465  0 2 465"/>
-    <n v="2465"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="VZH_2018_MENDELU_k_podpisu_podpis.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  2 236    2 236"/>
-    <n v="2236"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="VZH_FINAL_2019.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 2 065 0 2 065"/>
-    <n v="2065"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <n v="2259"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <m/>
-    <m/>
-    <n v="2350"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="VZH_MENDELU_2022_s_obalkou_FINAL.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 2Â 382 2Â 382"/>
-    <n v="2382"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="VZH_MENDELU_2023_ISBN_978-80-7509-983-9_web.pdf"/>
-    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2)3Â 525 3Â 525"/>
-    <n v="3525"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="hospodareni_2014.pdf"/>
-    <s v="tis. KÄŤ ÄŚ.Ĺ™. VybranĂ© ÄŤinnosti  VĂ˝nosy za r. 2014   HlavnĂ­ ÄŤinnost DoplĹkovĂˇ ÄŤinnost Celkem A Transfer znalostĂ­ 0 2 268 2 268 A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0 A.2  pĹ™Ă­jmy ze smluvnĂ­ho vĂ˝zkumu (3) 0 1 656 1 656 A.3  placenĂ©"/>
-    <n v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="hospodareni_2016.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0 0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="hospodareni_2017.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0 0"/>
-    <n v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="hospodareni_2018.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0 0"/>
-    <n v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="hospodareni_2019.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0 0"/>
-    <n v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="hospodareni_2020.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 2 2"/>
-    <n v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="hospodareni_2021.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 1 1"/>
-    <n v="1"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="hospodareni_2022.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 187 187"/>
-    <n v="187"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="hospodareni_2023.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 226 226"/>
-    <n v="226"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="vz-hospodareni-2013.pdf"/>
-    <s v="v tom:PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="vz-hospodareni-2014.pdf"/>
-    <s v="vÂ tom:PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="vz-hospodareni-2015.pdf"/>
-    <s v="vÂ tom:PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="vz-hospodareni-2016.pdf"/>
-    <s v="vÂ tom:pĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="vz-hospodareni-2017.pdf"/>
-    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="vz-hospodareni-2018.pdf"/>
-    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="vz-hospodareni-2019.pdf"/>
-    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2020.pdf"/>
-    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="VZoH_2021_online_SU.pdf"/>
-    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <m/>
-    <m/>
-    <n v="149"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="vyrocni_zprava_o_hospodareni_za_rok_2023.pdf"/>
-    <s v="A.1 pĹ™Ă­jmy z licenÄŤnĂ­ch smluv 120 0 120"/>
-    <n v="120"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2014.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 6 301 6 301"/>
-    <n v="6301"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2015.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  1 489  0 1 489"/>
-    <n v="1489"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2016.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  1.732 0 1. 732"/>
-    <n v="1732"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2017.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  1.831 0 1.831"/>
-    <n v="1831"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2018.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 971 971"/>
-    <n v="971"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2019.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  612 0 612"/>
-    <n v="612"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2020.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 836 0 836"/>
-    <n v="836"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="vyrocni-zprava-o-hospodareni-technicke-univerzity-v-liberci-za-rok-2021.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="1801"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="vyrocni-zprava-o-hospodareni-tul-na-rok-2022-fin.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="213"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <m/>
-    <m/>
-    <n v="1165"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2013.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2014.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0"/>
-    <n v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2015.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0"/>
-    <n v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2016.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2017.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 3 3"/>
-    <n v="3"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-za-rok-2018.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 10 0 10"/>
-    <n v="10"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-za-rok-2019.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 130"/>
-    <n v="130"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2020.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 848 848"/>
-    <n v="848"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-uhk-za-rok-2021.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 39 39"/>
-    <n v="39"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-univerzity-hradec-kralove-za-rok-2022.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 30 0 30"/>
-    <n v="30"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="vyrocni-zprava-o-hospodareni-univerzity-hradec-kralove-za-rok-2023.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 851 851"/>
-    <n v="851"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-hosp2013.pdf"/>
-    <s v="v tom:PĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)503 672 1 175"/>
-    <n v="1175"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-vzh_uk_2014_4203.pdf"/>
-    <s v="v tom:PĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)100 126 226"/>
-    <n v="226"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-vzh_uk_2015_4790.pdf"/>
-    <s v="v tom:pĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)343 453 797"/>
-    <n v="797"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-vzh_uk_2016.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)632 552 1 185"/>
-    <n v="1185"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-uk_vzh_2017_text.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2) 308 52 360"/>
-    <n v="360"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-vzh_uk_2018_opravena_tab_6_na_radku_b.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)1 782 721 2 503"/>
-    <n v="2503"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-vzh_uk_2019.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)148 340 488"/>
-    <n v="488"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-vyrocni_zprava_o_hospodareni_uk_za_rok_2020___opr_s33.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)481 306 787"/>
-    <n v="787"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-vyrocni_zprava_o_hospodareni_uk__2021.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)662 376 1 038"/>
-    <n v="1038"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-vyrocni_zprava_o_hospodareni_uk_2022.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)171 534 705"/>
-    <n v="705"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="UK-8533-version1-vzh_uk_2023_korektura_4c_a_imprimatur.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2)355 408 764"/>
-    <n v="764"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="VZ_hospodareni_2013.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 58 71 129"/>
-    <n v="129"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <m/>
-    <m/>
-    <n v="1968"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="VZ_hospodareni_2015.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 1 966  2 1 968"/>
-    <n v="1968"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="VZ_hospodareni_2016.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 738 0 738"/>
-    <n v="738"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="VZ_hospodareni_2017.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  12 0 12"/>
-    <n v="12"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="VZ_hospodareni_2018.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  108 2 632  2 740"/>
-    <n v="2740"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="VZ_hospodareni_2019.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 41 2 142  2 183"/>
-    <n v="2183"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="VZ_hospodareni_2020.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 227 1 398  1 625"/>
-    <n v="1625"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="vzh_2021.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 620 1 214  1 834"/>
-    <n v="1834"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="VZ_hospodareni_2022.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 740 1 336  2 076"/>
-    <n v="2076"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="VZ_hospodareni_2023.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv(2) 0 3 082  3 082"/>
-    <n v="382"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="o-hosp-2014.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 100 100"/>
-    <n v="100"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="vyrocni-zprava-o-hospodareni-2015.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
-    <n v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="vyrocni-zprava-o-hospodareni-2016.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 50 50"/>
-    <n v="50"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="vyrocni_zprava_o_hospodareni-2017_111358.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 454 454"/>
-    <n v="454"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="vyrocni_zprava_o_hospodareni-2018_133126.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 637 637"/>
-    <n v="637"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="vyrocni_zprava_o_hospodareni-2019_148578.pdf"/>
-    <s v="A.1 v tom pĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 117 117"/>
-    <n v="117"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <m/>
-    <m/>
-    <n v="299"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <m/>
-    <m/>
-    <n v="2503"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Vyrocni zprava o hospodareni UPCE 2022_79177.pdf"/>
-    <s v="A.1v_x0009_tom PĹ™Ă­jmy_x0009_z_x0009_licenÄŤnĂ­ch_x0009_smluv_x0009_(2) 0 830 830"/>
-    <n v="830"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Vyrocni zprava o hospodareni UPCE 2023_web_98368.pdf"/>
-    <s v="A.1v_x0009_tom PĹ™Ă­jmy_x0009_z_x0009_licenÄŤnĂ­ch_x0009_smluv_x0009_(2) 0 2_x0009_458 2_x0009_458"/>
-    <n v="2458"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="vz_hospodareni_2013.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
-    <n v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="vyrocni-zprava-o-hospodareni-2014.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
-    <n v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="vzh_2015.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
-    <n v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="vyrocni-zprava-o-hospodareni-2016.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 5 0 5"/>
-    <n v="5"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="hosp_2017.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
-    <n v="5"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="_zprava_hospodareni_2018.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 5 0 5"/>
-    <n v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="_zprava_hospodareni_2019.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
-    <n v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="VZoH_2020_web.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 10 0 10"/>
-    <n v="10"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="_zprava_hospodareni_2021.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 0 0 0"/>
-    <n v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="web_zprava_hospodareni_2022.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 0 0 0"/>
-    <n v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="VETUNI_zprava_hospodareni_2023.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 0 0 0"/>
-    <n v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VZ_hospodareni_2013.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  1610  0 1 610"/>
-    <n v="1610"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VZ o hospodaĹ™enĂ­ 2014 VĹ B-TUO.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  56 0 56"/>
-    <n v="56"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VZ o hospodaĹ™enĂ­ 2015.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  544 0 544"/>
-    <n v="544"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VZ o hospodaĹ™enĂ­ 2016.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  200 0 200"/>
-    <n v="200"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VĹ B-TUO VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ 2017.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  500 0 500"/>
-    <n v="500"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VĂťROÄŚNĂŤ ZPRĂVA O HOSPODAĹENĂŤ 2018.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 414 0 414"/>
-    <n v="414"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VZ o hospodaĹ™enĂ­ 2019 finĂˇlnĂ­ verze.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 558 0 558"/>
-    <n v="558"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="2020_VĂťROÄŚNĂŤ ZPRĂVA O HOSPODĂRENĂŤ_4.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 1 092 1 092"/>
-    <n v="1092"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VĂťROÄŚNĂŤ ZPRĂVA VĹ B-TUO 2021.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 694 694"/>
-    <n v="694"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VĂťROÄŚNĂŤ ZPRĂVA O HOSPODAĹENĂŤ VĹ B-TUO 2022.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 530 530"/>
-    <n v="530"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ VĹ B-TUO za rok 2023.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 2 007 2 007"/>
-    <n v="2007"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="vyrocni-zprava-o-hospodareni-2013.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="vyrocni-zprava-o-hospodareni-2014.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="vyrocni-zprava-o-hospodareni-2015.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="vyrocni-zprava-o-hospodareni-2016.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="vyrocni-zprava-o-hospodareni-2017.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="vyrocni-zprava-o-hospodareni-2018.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="VZoH-VĹ E-2019.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="VZoH-VSE-2020b.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy  z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="VZoH-VSE-2021.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="VZoH-VSE-2022.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 19 19"/>
-    <n v="19"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="VZoH-VSE-2023.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  0 0 0"/>
-    <n v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o ÄŤinnosti a hospodaĹ™enĂ­ za rok 2013.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 195 195"/>
-    <n v="195"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva 2014.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 25 25"/>
-    <n v="25"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <m/>
-    <m/>
-    <n v="10"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2017.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2018.pdf"/>
-    <s v="A.1 v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2019.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 0 0"/>
-    <n v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2020.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 129 129"/>
-    <n v="129"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2021.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 371 371"/>
-    <n v="371"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2022.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 500 500"/>
-    <n v="500"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ za rok 2023.pdf"/>
-    <s v="v tompĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 2 482 2 482"/>
-    <n v="2482"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Soubor tabulek pro vĂ˝roÄŤnĂ­ zprĂˇvu o hospodaĹ™enĂ­ za r.  2017 - VVĹ _final_02.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Soubor tabulek VZH VĹ PJ 2018 final pro MĹ MT.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Soubor tabulek VZH VĹ PJ 2019 pro MĹ MT.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0"/>
-    <n v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ VĹ PJ za rok 2020 vÄŤetnÄ› Souboru tabulek.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ VĹ PJ za rok 2021.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="17"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ VĹ PJ 2022_komplet.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="vzhvspj2023prowebpdf-79ee731c-c749-45ff-a808-866b43ca419d.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)"/>
-    <n v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="vyrocni_zprava_o_hospodareni_2013.pdf"/>
-    <s v="tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
-    <n v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Vyrocni_zprava_o_hospodareni_2014.pdf"/>
-    <s v="tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 0"/>
-    <n v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Vyrocni_zprava_o_hospodareni_2015.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0"/>
-    <n v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Vyrocni_zprava_o_hospodareni_2016.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0"/>
-    <n v="0"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="VZOH_2017.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0"/>
-    <n v="0"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="6_VZoH_2018.pdf"/>
-    <s v="v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)      0"/>
-    <n v="0"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="VSTE_VZoH_2019.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)     0"/>
-    <n v="0"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="vyrocni_zprava_o_hospodareni-2020.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv"/>
-    <n v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <m/>
-    <m/>
-    <n v="0"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="04_vyrocni_zprava_o_hospodareni_2023.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv"/>
-    <n v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="vyrocni-zprava-o-hospodareni-pro-rok-2013.pdf"/>
-    <s v="vÂ tompĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 242 242"/>
-    <n v="242"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Vyrocni-zprava-VSUP-o-hospodareni-za-rok-2014.pdf"/>
-    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 318 0 318"/>
-    <n v="318"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Vyrocni-zprava-o-hospodareni-za-rok-2015.pdf"/>
-    <s v="vÂ tompĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 956 956"/>
-    <n v="956"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Vyrocni-zprava-o-hospodareni-za-rok-2016.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 533 533"/>
-    <n v="533"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Vyrocni-zprava-o-hospodareni-za-rok-2017.pdf"/>
-    <s v="v tomPĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 1599 1 599"/>
-    <n v="1599"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Vyrocni-zprava-o-hospodareni-za-rok-2018.pdf"/>
-    <s v="vÂ tomPĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 1 572 1 572"/>
-    <n v="1572"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <m/>
-    <m/>
-    <n v="1039"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Vyrocni-zprava-o-hospodareni-Vysoke-skoly-umeleckoprumyslove-v-Praze-za-rok-2020.pdf"/>
-    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 39"/>
-    <n v="39"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="VZ-hospodareni-umprum-2021-export-1-.pdf"/>
-    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 1702 1 702"/>
-    <n v="1702"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="VZ-hospodareni-umprum-2022-ex.pdf"/>
-    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 1040 1 040"/>
-    <n v="1040"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="VZ-hospodareni-UMPRUM-2023-ex.pdf"/>
-    <s v="A.1 vÂ tom PĹ™Ă­jmy zÂ licenÄŤnĂ­ch smluv (2) 88 88"/>
-    <n v="88"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="VZ 2013 2014-04-06 kv_2 (2)030112014.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 2 791  2 791"/>
-    <n v="2791"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva VUT v BrnÄ› o hospodaĹ™enĂ­ za rok 2014.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2)  0 1 018  1 018"/>
-    <n v="1018"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="VZoH 2015 final.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 1 986  1 986"/>
-    <n v="1986"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="VZoH 2016 VUT.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv    958 958"/>
-    <n v="958"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="VZoH 2017_VUT.pdf"/>
-    <s v="v tom PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 955  419 1 374"/>
-    <n v="1374"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="VZoH 2018_VUT_vÄŤ.titulni.pdf"/>
-    <s v="v tom  PĹ™Ă­jmy  z licenÄŤnĂ­ch smluv  1 569  0 1 569"/>
-    <n v="1569"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <m/>
-    <m/>
-    <n v="3274"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="VZoH 2020_VUT_fin_komplet.pdf"/>
-    <s v="v tom :  PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  3 818  0  3 818"/>
-    <n v="3818"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <m/>
-    <m/>
-    <n v="4061"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <m/>
-    <m/>
-    <n v="3177"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="VZoH 2023_VUT_final-k odesl.pdf"/>
-    <s v="v tom:   PĹ™Ă­jmy z licenÄŤnĂ­ch smluv  12 057  0 12 057"/>
-    <n v="1257"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="03_VZ_hospodar_2013.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 313 0 313"/>
-    <n v="313"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <m/>
-    <m/>
-    <n v="4568"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="05_VZH_2015.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 2 201 50 2 251"/>
-    <n v="2251"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <m/>
-    <m/>
-    <n v="689"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="07_VZoH_2017_web.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv 0 2106 2 106"/>
-    <n v="2106"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <m/>
-    <m/>
-    <n v="516"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <m/>
-    <m/>
-    <n v="207"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <m/>
-    <m/>
-    <n v="950"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="11_VZH_ZCU_2021.pdf"/>
-    <s v="A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv"/>
-    <n v="533"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <m/>
-    <m/>
-    <n v="1667"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <m/>
-    <m/>
-    <n v="2737"/>
-    <x v="10"/>
-  </r>
-</pivotCacheRecords>
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="prehled 2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+  <location ref="P3:AB29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField name="Nazev podsloĹľky" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="26">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item m="1" x="24"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Nazev souboru" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Matching Line" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="CASTKA" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="ROK" axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="25">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="COUNTA of Nazev podsloĹľky" fld="0" subtotal="count" baseField="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="prehled" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="prehled" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="A3:L30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField name="Nazev podsloĹľky" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -5745,195 +5956,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="prehled 2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
-  <location ref="P3:AB29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField name="Nazev podsloĹľky" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="26">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item m="1" x="24"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Nazev souboru" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Matching Line" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="CASTKA" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="ROK" axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="25">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="COUNTA of Nazev podsloĹľky" fld="0" subtotal="count" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B932626-3438-4BDA-B18E-32EA7748F8A3}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B932626-3438-4BDA-B18E-32EA7748F8A3}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:M31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -6114,11 +6138,11 @@
     <dataField name="Sum of CASTKA" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
-            <x v="21"/>
+            <x v="2"/>
           </reference>
           <reference field="1" count="3" selected="0">
             <x v="1"/>
@@ -6128,11 +6152,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
-            <x v="2"/>
+            <x v="21"/>
           </reference>
           <reference field="1" count="3" selected="0">
             <x v="1"/>
@@ -6562,76 +6586,76 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>1</v>
-      </c>
-      <c r="F5" s="17">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1</v>
-      </c>
-      <c r="I5" s="17">
-        <v>1</v>
-      </c>
-      <c r="J5" s="17">
-        <v>1</v>
-      </c>
-      <c r="K5" s="17">
-        <v>1</v>
-      </c>
-      <c r="L5" s="18">
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1</v>
+      </c>
+      <c r="I5" s="15">
+        <v>1</v>
+      </c>
+      <c r="J5" s="15">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15">
+        <v>1</v>
+      </c>
+      <c r="L5" s="16">
         <v>10</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="16">
-        <v>1</v>
-      </c>
-      <c r="R5" s="17">
-        <v>1</v>
-      </c>
-      <c r="S5" s="17">
-        <v>1</v>
-      </c>
-      <c r="T5" s="17">
-        <v>1</v>
-      </c>
-      <c r="U5" s="17">
-        <v>1</v>
-      </c>
-      <c r="V5" s="17">
-        <v>1</v>
-      </c>
-      <c r="W5" s="17">
-        <v>1</v>
-      </c>
-      <c r="X5" s="17">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="17">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="17">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="17">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="18">
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="15">
+        <v>1</v>
+      </c>
+      <c r="S5" s="15">
+        <v>1</v>
+      </c>
+      <c r="T5" s="15">
+        <v>1</v>
+      </c>
+      <c r="U5" s="15">
+        <v>1</v>
+      </c>
+      <c r="V5" s="15">
+        <v>1</v>
+      </c>
+      <c r="W5" s="15">
+        <v>1</v>
+      </c>
+      <c r="X5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="16">
         <v>11</v>
       </c>
     </row>
@@ -6639,76 +6663,76 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="19">
-        <v>1</v>
-      </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="20">
-        <v>1</v>
-      </c>
-      <c r="F6" s="20">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20">
-        <v>1</v>
-      </c>
-      <c r="H6" s="20">
-        <v>1</v>
-      </c>
-      <c r="I6" s="20">
-        <v>1</v>
-      </c>
-      <c r="J6" s="20">
-        <v>1</v>
-      </c>
-      <c r="K6" s="20">
-        <v>1</v>
-      </c>
-      <c r="L6" s="21">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1</v>
+      </c>
+      <c r="L6" s="19">
         <v>10</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="19">
-        <v>1</v>
-      </c>
-      <c r="R6" s="20">
-        <v>1</v>
-      </c>
-      <c r="S6" s="20">
-        <v>1</v>
-      </c>
-      <c r="T6" s="20">
-        <v>1</v>
-      </c>
-      <c r="U6" s="20">
-        <v>1</v>
-      </c>
-      <c r="V6" s="20">
-        <v>1</v>
-      </c>
-      <c r="W6" s="20">
-        <v>1</v>
-      </c>
-      <c r="X6" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="21">
+      <c r="Q6" s="17">
+        <v>1</v>
+      </c>
+      <c r="R6" s="18">
+        <v>1</v>
+      </c>
+      <c r="S6" s="18">
+        <v>1</v>
+      </c>
+      <c r="T6" s="18">
+        <v>1</v>
+      </c>
+      <c r="U6" s="18">
+        <v>1</v>
+      </c>
+      <c r="V6" s="18">
+        <v>1</v>
+      </c>
+      <c r="W6" s="18">
+        <v>1</v>
+      </c>
+      <c r="X6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6716,74 +6740,74 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="20">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="20">
-        <v>1</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20">
-        <v>1</v>
-      </c>
-      <c r="H7" s="20">
-        <v>1</v>
-      </c>
-      <c r="I7" s="20">
-        <v>1</v>
-      </c>
-      <c r="J7" s="20">
-        <v>1</v>
-      </c>
-      <c r="K7" s="20">
-        <v>1</v>
-      </c>
-      <c r="L7" s="21">
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19">
         <v>10</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="20">
-        <v>1</v>
-      </c>
-      <c r="S7" s="20">
-        <v>1</v>
-      </c>
-      <c r="T7" s="20">
-        <v>1</v>
-      </c>
-      <c r="U7" s="20">
-        <v>1</v>
-      </c>
-      <c r="V7" s="20">
-        <v>1</v>
-      </c>
-      <c r="W7" s="20">
-        <v>1</v>
-      </c>
-      <c r="X7" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="21">
+      <c r="Q7" s="17"/>
+      <c r="R7" s="18">
+        <v>1</v>
+      </c>
+      <c r="S7" s="18">
+        <v>1</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18">
+        <v>1</v>
+      </c>
+      <c r="V7" s="18">
+        <v>1</v>
+      </c>
+      <c r="W7" s="18">
+        <v>1</v>
+      </c>
+      <c r="X7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="19">
         <v>10</v>
       </c>
     </row>
@@ -6791,76 +6815,76 @@
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20">
-        <v>1</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20">
-        <v>1</v>
-      </c>
-      <c r="I8" s="20">
-        <v>1</v>
-      </c>
-      <c r="J8" s="20">
-        <v>1</v>
-      </c>
-      <c r="K8" s="20">
-        <v>1</v>
-      </c>
-      <c r="L8" s="21">
+      <c r="B8" s="17">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="19">
         <v>10</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="19">
-        <v>1</v>
-      </c>
-      <c r="R8" s="20">
-        <v>1</v>
-      </c>
-      <c r="S8" s="20">
-        <v>1</v>
-      </c>
-      <c r="T8" s="20">
-        <v>1</v>
-      </c>
-      <c r="U8" s="20">
-        <v>1</v>
-      </c>
-      <c r="V8" s="20">
-        <v>1</v>
-      </c>
-      <c r="W8" s="20">
-        <v>1</v>
-      </c>
-      <c r="X8" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="21">
+      <c r="Q8" s="17">
+        <v>1</v>
+      </c>
+      <c r="R8" s="18">
+        <v>1</v>
+      </c>
+      <c r="S8" s="18">
+        <v>1</v>
+      </c>
+      <c r="T8" s="18">
+        <v>1</v>
+      </c>
+      <c r="U8" s="18">
+        <v>1</v>
+      </c>
+      <c r="V8" s="18">
+        <v>1</v>
+      </c>
+      <c r="W8" s="18">
+        <v>1</v>
+      </c>
+      <c r="X8" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6868,76 +6892,76 @@
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="19">
-        <v>1</v>
-      </c>
-      <c r="C9" s="20">
-        <v>1</v>
-      </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="20">
-        <v>1</v>
-      </c>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
-      <c r="G9" s="20">
-        <v>1</v>
-      </c>
-      <c r="H9" s="20">
-        <v>1</v>
-      </c>
-      <c r="I9" s="20">
-        <v>1</v>
-      </c>
-      <c r="J9" s="20">
-        <v>1</v>
-      </c>
-      <c r="K9" s="20">
-        <v>1</v>
-      </c>
-      <c r="L9" s="21">
+      <c r="B9" s="17">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1</v>
+      </c>
+      <c r="L9" s="19">
         <v>10</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="19">
-        <v>1</v>
-      </c>
-      <c r="R9" s="20">
-        <v>1</v>
-      </c>
-      <c r="S9" s="20">
-        <v>1</v>
-      </c>
-      <c r="T9" s="20">
-        <v>1</v>
-      </c>
-      <c r="U9" s="20">
-        <v>1</v>
-      </c>
-      <c r="V9" s="20">
-        <v>1</v>
-      </c>
-      <c r="W9" s="20">
-        <v>1</v>
-      </c>
-      <c r="X9" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="21">
+      <c r="Q9" s="17">
+        <v>1</v>
+      </c>
+      <c r="R9" s="18">
+        <v>1</v>
+      </c>
+      <c r="S9" s="18">
+        <v>1</v>
+      </c>
+      <c r="T9" s="18">
+        <v>1</v>
+      </c>
+      <c r="U9" s="18">
+        <v>1</v>
+      </c>
+      <c r="V9" s="18">
+        <v>1</v>
+      </c>
+      <c r="W9" s="18">
+        <v>1</v>
+      </c>
+      <c r="X9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="19">
         <v>11</v>
       </c>
     </row>
@@ -6945,76 +6969,76 @@
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="19">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20">
-        <v>1</v>
-      </c>
-      <c r="E10" s="20">
-        <v>1</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20">
-        <v>1</v>
-      </c>
-      <c r="I10" s="20">
-        <v>1</v>
-      </c>
-      <c r="J10" s="20">
-        <v>1</v>
-      </c>
-      <c r="K10" s="20">
-        <v>1</v>
-      </c>
-      <c r="L10" s="21">
+      <c r="B10" s="17">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1</v>
+      </c>
+      <c r="L10" s="19">
         <v>10</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="19">
-        <v>1</v>
-      </c>
-      <c r="R10" s="20">
-        <v>1</v>
-      </c>
-      <c r="S10" s="20">
-        <v>1</v>
-      </c>
-      <c r="T10" s="20">
-        <v>1</v>
-      </c>
-      <c r="U10" s="20">
-        <v>1</v>
-      </c>
-      <c r="V10" s="20">
-        <v>1</v>
-      </c>
-      <c r="W10" s="20">
-        <v>1</v>
-      </c>
-      <c r="X10" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="21">
+      <c r="Q10" s="17">
+        <v>1</v>
+      </c>
+      <c r="R10" s="18">
+        <v>1</v>
+      </c>
+      <c r="S10" s="18">
+        <v>1</v>
+      </c>
+      <c r="T10" s="18">
+        <v>1</v>
+      </c>
+      <c r="U10" s="18">
+        <v>1</v>
+      </c>
+      <c r="V10" s="18">
+        <v>1</v>
+      </c>
+      <c r="W10" s="18">
+        <v>1</v>
+      </c>
+      <c r="X10" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7022,74 +7046,74 @@
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="19">
-        <v>1</v>
-      </c>
-      <c r="C11" s="20">
-        <v>1</v>
-      </c>
-      <c r="D11" s="20">
-        <v>1</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1</v>
-      </c>
-      <c r="F11" s="20">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20">
-        <v>1</v>
-      </c>
-      <c r="I11" s="20">
-        <v>1</v>
-      </c>
-      <c r="J11" s="20">
-        <v>1</v>
-      </c>
-      <c r="K11" s="20">
-        <v>1</v>
-      </c>
-      <c r="L11" s="21">
+      <c r="B11" s="17">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
+      <c r="L11" s="19">
         <v>10</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="20">
-        <v>1</v>
-      </c>
-      <c r="S11" s="20">
-        <v>1</v>
-      </c>
-      <c r="T11" s="20">
-        <v>1</v>
-      </c>
-      <c r="U11" s="20">
-        <v>1</v>
-      </c>
-      <c r="V11" s="20">
-        <v>1</v>
-      </c>
-      <c r="W11" s="20">
-        <v>1</v>
-      </c>
-      <c r="X11" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="21">
+      <c r="Q11" s="17"/>
+      <c r="R11" s="18">
+        <v>1</v>
+      </c>
+      <c r="S11" s="18">
+        <v>1</v>
+      </c>
+      <c r="T11" s="18">
+        <v>1</v>
+      </c>
+      <c r="U11" s="18">
+        <v>1</v>
+      </c>
+      <c r="V11" s="18">
+        <v>1</v>
+      </c>
+      <c r="W11" s="18">
+        <v>1</v>
+      </c>
+      <c r="X11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="19">
         <v>10</v>
       </c>
     </row>
@@ -7097,74 +7121,74 @@
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19">
-        <v>1</v>
-      </c>
-      <c r="C12" s="20">
-        <v>1</v>
-      </c>
-      <c r="D12" s="20">
-        <v>1</v>
-      </c>
-      <c r="E12" s="20">
-        <v>1</v>
-      </c>
-      <c r="F12" s="20">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20">
-        <v>1</v>
-      </c>
-      <c r="I12" s="20">
-        <v>1</v>
-      </c>
-      <c r="J12" s="20">
-        <v>1</v>
-      </c>
-      <c r="K12" s="20">
-        <v>1</v>
-      </c>
-      <c r="L12" s="21">
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="19">
         <v>10</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="20">
-        <v>1</v>
-      </c>
-      <c r="S12" s="20">
-        <v>1</v>
-      </c>
-      <c r="T12" s="20">
-        <v>1</v>
-      </c>
-      <c r="U12" s="20">
-        <v>1</v>
-      </c>
-      <c r="V12" s="20">
-        <v>1</v>
-      </c>
-      <c r="W12" s="20">
-        <v>1</v>
-      </c>
-      <c r="X12" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="21">
+      <c r="Q12" s="17"/>
+      <c r="R12" s="18">
+        <v>1</v>
+      </c>
+      <c r="S12" s="18">
+        <v>1</v>
+      </c>
+      <c r="T12" s="18">
+        <v>1</v>
+      </c>
+      <c r="U12" s="18">
+        <v>1</v>
+      </c>
+      <c r="V12" s="18">
+        <v>1</v>
+      </c>
+      <c r="W12" s="18">
+        <v>1</v>
+      </c>
+      <c r="X12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="19">
         <v>10</v>
       </c>
     </row>
@@ -7172,74 +7196,74 @@
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19">
-        <v>1</v>
-      </c>
-      <c r="C13" s="20">
-        <v>1</v>
-      </c>
-      <c r="D13" s="20">
-        <v>1</v>
-      </c>
-      <c r="E13" s="20">
-        <v>1</v>
-      </c>
-      <c r="F13" s="20">
-        <v>1</v>
-      </c>
-      <c r="G13" s="20">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20">
-        <v>1</v>
-      </c>
-      <c r="I13" s="20">
-        <v>1</v>
-      </c>
-      <c r="J13" s="20">
-        <v>1</v>
-      </c>
-      <c r="K13" s="20">
-        <v>1</v>
-      </c>
-      <c r="L13" s="21">
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="19">
         <v>10</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="20">
-        <v>1</v>
-      </c>
-      <c r="S13" s="20">
-        <v>1</v>
-      </c>
-      <c r="T13" s="20">
-        <v>1</v>
-      </c>
-      <c r="U13" s="20">
-        <v>1</v>
-      </c>
-      <c r="V13" s="20">
-        <v>1</v>
-      </c>
-      <c r="W13" s="20">
-        <v>1</v>
-      </c>
-      <c r="X13" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="21">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="18">
+        <v>1</v>
+      </c>
+      <c r="S13" s="18">
+        <v>1</v>
+      </c>
+      <c r="T13" s="18">
+        <v>1</v>
+      </c>
+      <c r="U13" s="18">
+        <v>1</v>
+      </c>
+      <c r="V13" s="18">
+        <v>1</v>
+      </c>
+      <c r="W13" s="18">
+        <v>1</v>
+      </c>
+      <c r="X13" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="19">
         <v>10</v>
       </c>
     </row>
@@ -7247,76 +7271,76 @@
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="19">
-        <v>1</v>
-      </c>
-      <c r="C14" s="20">
-        <v>1</v>
-      </c>
-      <c r="D14" s="20">
-        <v>1</v>
-      </c>
-      <c r="E14" s="20">
-        <v>1</v>
-      </c>
-      <c r="F14" s="20">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20">
-        <v>1</v>
-      </c>
-      <c r="I14" s="20">
-        <v>1</v>
-      </c>
-      <c r="J14" s="20">
-        <v>1</v>
-      </c>
-      <c r="K14" s="20">
-        <v>1</v>
-      </c>
-      <c r="L14" s="21">
+      <c r="B14" s="17">
+        <v>1</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1</v>
+      </c>
+      <c r="L14" s="19">
         <v>10</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="19">
-        <v>1</v>
-      </c>
-      <c r="R14" s="20">
-        <v>1</v>
-      </c>
-      <c r="S14" s="20">
-        <v>1</v>
-      </c>
-      <c r="T14" s="20">
-        <v>1</v>
-      </c>
-      <c r="U14" s="20">
-        <v>1</v>
-      </c>
-      <c r="V14" s="20">
-        <v>1</v>
-      </c>
-      <c r="W14" s="20">
-        <v>1</v>
-      </c>
-      <c r="X14" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="21">
+      <c r="Q14" s="17">
+        <v>1</v>
+      </c>
+      <c r="R14" s="18">
+        <v>1</v>
+      </c>
+      <c r="S14" s="18">
+        <v>1</v>
+      </c>
+      <c r="T14" s="18">
+        <v>1</v>
+      </c>
+      <c r="U14" s="18">
+        <v>1</v>
+      </c>
+      <c r="V14" s="18">
+        <v>1</v>
+      </c>
+      <c r="W14" s="18">
+        <v>1</v>
+      </c>
+      <c r="X14" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7324,74 +7348,74 @@
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="19">
-        <v>1</v>
-      </c>
-      <c r="C15" s="20">
-        <v>1</v>
-      </c>
-      <c r="D15" s="20">
-        <v>1</v>
-      </c>
-      <c r="E15" s="20">
-        <v>1</v>
-      </c>
-      <c r="F15" s="20">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20">
-        <v>1</v>
-      </c>
-      <c r="I15" s="20">
-        <v>1</v>
-      </c>
-      <c r="J15" s="20">
-        <v>1</v>
-      </c>
-      <c r="K15" s="20">
-        <v>1</v>
-      </c>
-      <c r="L15" s="21">
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="19">
         <v>10</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="20">
-        <v>1</v>
-      </c>
-      <c r="S15" s="20">
-        <v>1</v>
-      </c>
-      <c r="T15" s="20">
-        <v>1</v>
-      </c>
-      <c r="U15" s="20">
-        <v>1</v>
-      </c>
-      <c r="V15" s="20">
-        <v>1</v>
-      </c>
-      <c r="W15" s="20">
-        <v>1</v>
-      </c>
-      <c r="X15" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="21">
+      <c r="Q15" s="17"/>
+      <c r="R15" s="18">
+        <v>1</v>
+      </c>
+      <c r="S15" s="18">
+        <v>1</v>
+      </c>
+      <c r="T15" s="18">
+        <v>1</v>
+      </c>
+      <c r="U15" s="18">
+        <v>1</v>
+      </c>
+      <c r="V15" s="18">
+        <v>1</v>
+      </c>
+      <c r="W15" s="18">
+        <v>1</v>
+      </c>
+      <c r="X15" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="19">
         <v>10</v>
       </c>
     </row>
@@ -7399,76 +7423,76 @@
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="19">
-        <v>1</v>
-      </c>
-      <c r="C16" s="20">
-        <v>1</v>
-      </c>
-      <c r="D16" s="20">
-        <v>1</v>
-      </c>
-      <c r="E16" s="20">
-        <v>1</v>
-      </c>
-      <c r="F16" s="20">
-        <v>1</v>
-      </c>
-      <c r="G16" s="20">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20">
-        <v>1</v>
-      </c>
-      <c r="I16" s="20">
-        <v>1</v>
-      </c>
-      <c r="J16" s="20">
-        <v>1</v>
-      </c>
-      <c r="K16" s="20">
-        <v>1</v>
-      </c>
-      <c r="L16" s="21">
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1</v>
+      </c>
+      <c r="L16" s="19">
         <v>10</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="19">
-        <v>1</v>
-      </c>
-      <c r="R16" s="20">
-        <v>1</v>
-      </c>
-      <c r="S16" s="20">
-        <v>1</v>
-      </c>
-      <c r="T16" s="20">
-        <v>1</v>
-      </c>
-      <c r="U16" s="20">
-        <v>1</v>
-      </c>
-      <c r="V16" s="20">
-        <v>1</v>
-      </c>
-      <c r="W16" s="20">
-        <v>1</v>
-      </c>
-      <c r="X16" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="21">
+      <c r="Q16" s="17">
+        <v>1</v>
+      </c>
+      <c r="R16" s="18">
+        <v>1</v>
+      </c>
+      <c r="S16" s="18">
+        <v>1</v>
+      </c>
+      <c r="T16" s="18">
+        <v>1</v>
+      </c>
+      <c r="U16" s="18">
+        <v>1</v>
+      </c>
+      <c r="V16" s="18">
+        <v>1</v>
+      </c>
+      <c r="W16" s="18">
+        <v>1</v>
+      </c>
+      <c r="X16" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7476,76 +7500,76 @@
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="19">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20">
-        <v>1</v>
-      </c>
-      <c r="D17" s="20">
-        <v>1</v>
-      </c>
-      <c r="E17" s="20">
-        <v>1</v>
-      </c>
-      <c r="F17" s="20">
-        <v>1</v>
-      </c>
-      <c r="G17" s="20">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20">
-        <v>1</v>
-      </c>
-      <c r="I17" s="20">
-        <v>1</v>
-      </c>
-      <c r="J17" s="20">
-        <v>1</v>
-      </c>
-      <c r="K17" s="20">
-        <v>1</v>
-      </c>
-      <c r="L17" s="21">
+      <c r="B17" s="17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1</v>
+      </c>
+      <c r="L17" s="19">
         <v>10</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="19">
-        <v>1</v>
-      </c>
-      <c r="R17" s="20">
-        <v>1</v>
-      </c>
-      <c r="S17" s="20">
-        <v>1</v>
-      </c>
-      <c r="T17" s="20">
-        <v>1</v>
-      </c>
-      <c r="U17" s="20">
-        <v>1</v>
-      </c>
-      <c r="V17" s="20">
-        <v>1</v>
-      </c>
-      <c r="W17" s="20">
-        <v>1</v>
-      </c>
-      <c r="X17" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="21">
+      <c r="Q17" s="17">
+        <v>1</v>
+      </c>
+      <c r="R17" s="18">
+        <v>1</v>
+      </c>
+      <c r="S17" s="18">
+        <v>1</v>
+      </c>
+      <c r="T17" s="18">
+        <v>1</v>
+      </c>
+      <c r="U17" s="18">
+        <v>1</v>
+      </c>
+      <c r="V17" s="18">
+        <v>1</v>
+      </c>
+      <c r="W17" s="18">
+        <v>1</v>
+      </c>
+      <c r="X17" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7553,76 +7577,76 @@
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19">
-        <v>1</v>
-      </c>
-      <c r="C18" s="20">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20">
-        <v>1</v>
-      </c>
-      <c r="E18" s="20">
-        <v>1</v>
-      </c>
-      <c r="F18" s="20">
-        <v>1</v>
-      </c>
-      <c r="G18" s="20">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1</v>
-      </c>
-      <c r="I18" s="20">
-        <v>1</v>
-      </c>
-      <c r="J18" s="20">
-        <v>1</v>
-      </c>
-      <c r="K18" s="20">
-        <v>1</v>
-      </c>
-      <c r="L18" s="21">
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="19">
         <v>10</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="19">
-        <v>1</v>
-      </c>
-      <c r="R18" s="20">
-        <v>1</v>
-      </c>
-      <c r="S18" s="20">
-        <v>1</v>
-      </c>
-      <c r="T18" s="20">
-        <v>1</v>
-      </c>
-      <c r="U18" s="20">
-        <v>1</v>
-      </c>
-      <c r="V18" s="20">
-        <v>1</v>
-      </c>
-      <c r="W18" s="20">
-        <v>1</v>
-      </c>
-      <c r="X18" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="21">
+      <c r="Q18" s="17">
+        <v>1</v>
+      </c>
+      <c r="R18" s="18">
+        <v>1</v>
+      </c>
+      <c r="S18" s="18">
+        <v>1</v>
+      </c>
+      <c r="T18" s="18">
+        <v>1</v>
+      </c>
+      <c r="U18" s="18">
+        <v>1</v>
+      </c>
+      <c r="V18" s="18">
+        <v>1</v>
+      </c>
+      <c r="W18" s="18">
+        <v>1</v>
+      </c>
+      <c r="X18" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7630,74 +7654,74 @@
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="20">
-        <v>1</v>
-      </c>
-      <c r="D19" s="20">
-        <v>1</v>
-      </c>
-      <c r="E19" s="20">
-        <v>1</v>
-      </c>
-      <c r="F19" s="20">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20">
-        <v>1</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1</v>
-      </c>
-      <c r="I19" s="20">
-        <v>1</v>
-      </c>
-      <c r="J19" s="20">
-        <v>1</v>
-      </c>
-      <c r="K19" s="20">
-        <v>1</v>
-      </c>
-      <c r="L19" s="21">
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+      <c r="L19" s="19">
         <v>10</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="20">
-        <v>1</v>
-      </c>
-      <c r="S19" s="20">
-        <v>1</v>
-      </c>
-      <c r="T19" s="20">
-        <v>1</v>
-      </c>
-      <c r="U19" s="20">
-        <v>1</v>
-      </c>
-      <c r="V19" s="20">
-        <v>1</v>
-      </c>
-      <c r="W19" s="20">
-        <v>1</v>
-      </c>
-      <c r="X19" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="21">
+      <c r="Q19" s="17"/>
+      <c r="R19" s="18">
+        <v>1</v>
+      </c>
+      <c r="S19" s="18">
+        <v>1</v>
+      </c>
+      <c r="T19" s="18">
+        <v>1</v>
+      </c>
+      <c r="U19" s="18">
+        <v>1</v>
+      </c>
+      <c r="V19" s="18">
+        <v>1</v>
+      </c>
+      <c r="W19" s="18">
+        <v>1</v>
+      </c>
+      <c r="X19" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="19">
         <v>10</v>
       </c>
     </row>
@@ -7705,76 +7729,76 @@
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="19">
-        <v>1</v>
-      </c>
-      <c r="C20" s="20">
-        <v>1</v>
-      </c>
-      <c r="D20" s="20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="20">
-        <v>1</v>
-      </c>
-      <c r="F20" s="20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="20">
-        <v>1</v>
-      </c>
-      <c r="J20" s="20">
-        <v>1</v>
-      </c>
-      <c r="K20" s="20">
-        <v>1</v>
-      </c>
-      <c r="L20" s="21">
+      <c r="B20" s="17">
+        <v>1</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1</v>
+      </c>
+      <c r="L20" s="19">
         <v>10</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="19">
-        <v>1</v>
-      </c>
-      <c r="R20" s="20">
-        <v>1</v>
-      </c>
-      <c r="S20" s="20">
-        <v>1</v>
-      </c>
-      <c r="T20" s="20">
-        <v>1</v>
-      </c>
-      <c r="U20" s="20">
-        <v>1</v>
-      </c>
-      <c r="V20" s="20">
-        <v>1</v>
-      </c>
-      <c r="W20" s="20">
-        <v>1</v>
-      </c>
-      <c r="X20" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="21">
+      <c r="Q20" s="17">
+        <v>1</v>
+      </c>
+      <c r="R20" s="18">
+        <v>1</v>
+      </c>
+      <c r="S20" s="18">
+        <v>1</v>
+      </c>
+      <c r="T20" s="18">
+        <v>1</v>
+      </c>
+      <c r="U20" s="18">
+        <v>1</v>
+      </c>
+      <c r="V20" s="18">
+        <v>1</v>
+      </c>
+      <c r="W20" s="18">
+        <v>1</v>
+      </c>
+      <c r="X20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7782,76 +7806,76 @@
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="19">
-        <v>1</v>
-      </c>
-      <c r="C21" s="20">
-        <v>1</v>
-      </c>
-      <c r="D21" s="20">
-        <v>1</v>
-      </c>
-      <c r="E21" s="20">
-        <v>1</v>
-      </c>
-      <c r="F21" s="20">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20">
-        <v>1</v>
-      </c>
-      <c r="I21" s="20">
-        <v>1</v>
-      </c>
-      <c r="J21" s="20">
-        <v>1</v>
-      </c>
-      <c r="K21" s="20">
-        <v>1</v>
-      </c>
-      <c r="L21" s="21">
+      <c r="B21" s="17">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
+      <c r="L21" s="19">
         <v>10</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="19">
-        <v>1</v>
-      </c>
-      <c r="R21" s="20">
-        <v>1</v>
-      </c>
-      <c r="S21" s="20">
-        <v>1</v>
-      </c>
-      <c r="T21" s="20">
-        <v>1</v>
-      </c>
-      <c r="U21" s="20">
-        <v>1</v>
-      </c>
-      <c r="V21" s="20">
-        <v>1</v>
-      </c>
-      <c r="W21" s="20">
-        <v>1</v>
-      </c>
-      <c r="X21" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="21">
+      <c r="Q21" s="17">
+        <v>1</v>
+      </c>
+      <c r="R21" s="18">
+        <v>1</v>
+      </c>
+      <c r="S21" s="18">
+        <v>1</v>
+      </c>
+      <c r="T21" s="18">
+        <v>1</v>
+      </c>
+      <c r="U21" s="18">
+        <v>1</v>
+      </c>
+      <c r="V21" s="18">
+        <v>1</v>
+      </c>
+      <c r="W21" s="18">
+        <v>1</v>
+      </c>
+      <c r="X21" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7859,76 +7883,76 @@
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="19">
-        <v>1</v>
-      </c>
-      <c r="C22" s="20">
-        <v>1</v>
-      </c>
-      <c r="D22" s="20">
-        <v>1</v>
-      </c>
-      <c r="E22" s="20">
-        <v>1</v>
-      </c>
-      <c r="F22" s="20">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20">
-        <v>1</v>
-      </c>
-      <c r="H22" s="20">
-        <v>1</v>
-      </c>
-      <c r="I22" s="20">
-        <v>1</v>
-      </c>
-      <c r="J22" s="20">
-        <v>1</v>
-      </c>
-      <c r="K22" s="20">
-        <v>1</v>
-      </c>
-      <c r="L22" s="21">
+      <c r="B22" s="17">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1</v>
+      </c>
+      <c r="K22" s="18">
+        <v>1</v>
+      </c>
+      <c r="L22" s="19">
         <v>10</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="19">
-        <v>1</v>
-      </c>
-      <c r="R22" s="20">
-        <v>1</v>
-      </c>
-      <c r="S22" s="20">
-        <v>1</v>
-      </c>
-      <c r="T22" s="20">
-        <v>1</v>
-      </c>
-      <c r="U22" s="20">
-        <v>1</v>
-      </c>
-      <c r="V22" s="20">
-        <v>1</v>
-      </c>
-      <c r="W22" s="20">
-        <v>1</v>
-      </c>
-      <c r="X22" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="21">
+      <c r="Q22" s="17">
+        <v>1</v>
+      </c>
+      <c r="R22" s="18">
+        <v>1</v>
+      </c>
+      <c r="S22" s="18">
+        <v>1</v>
+      </c>
+      <c r="T22" s="18">
+        <v>1</v>
+      </c>
+      <c r="U22" s="18">
+        <v>1</v>
+      </c>
+      <c r="V22" s="18">
+        <v>1</v>
+      </c>
+      <c r="W22" s="18">
+        <v>1</v>
+      </c>
+      <c r="X22" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7936,76 +7960,76 @@
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="19">
-        <v>1</v>
-      </c>
-      <c r="C23" s="20">
-        <v>1</v>
-      </c>
-      <c r="D23" s="20">
-        <v>1</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1</v>
-      </c>
-      <c r="F23" s="20">
-        <v>1</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1</v>
-      </c>
-      <c r="H23" s="20">
-        <v>1</v>
-      </c>
-      <c r="I23" s="20">
-        <v>1</v>
-      </c>
-      <c r="J23" s="20">
-        <v>1</v>
-      </c>
-      <c r="K23" s="20">
-        <v>1</v>
-      </c>
-      <c r="L23" s="21">
+      <c r="B23" s="17">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1</v>
+      </c>
+      <c r="L23" s="19">
         <v>10</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="19">
-        <v>1</v>
-      </c>
-      <c r="R23" s="20">
-        <v>1</v>
-      </c>
-      <c r="S23" s="20">
-        <v>1</v>
-      </c>
-      <c r="T23" s="20">
-        <v>1</v>
-      </c>
-      <c r="U23" s="20">
-        <v>1</v>
-      </c>
-      <c r="V23" s="20">
-        <v>1</v>
-      </c>
-      <c r="W23" s="20">
-        <v>1</v>
-      </c>
-      <c r="X23" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="21">
+      <c r="Q23" s="17">
+        <v>1</v>
+      </c>
+      <c r="R23" s="18">
+        <v>1</v>
+      </c>
+      <c r="S23" s="18">
+        <v>1</v>
+      </c>
+      <c r="T23" s="18">
+        <v>1</v>
+      </c>
+      <c r="U23" s="18">
+        <v>1</v>
+      </c>
+      <c r="V23" s="18">
+        <v>1</v>
+      </c>
+      <c r="W23" s="18">
+        <v>1</v>
+      </c>
+      <c r="X23" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8013,74 +8037,74 @@
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="19">
-        <v>1</v>
-      </c>
-      <c r="C24" s="20">
-        <v>1</v>
-      </c>
-      <c r="D24" s="20">
-        <v>1</v>
-      </c>
-      <c r="E24" s="20">
-        <v>1</v>
-      </c>
-      <c r="F24" s="20">
-        <v>1</v>
-      </c>
-      <c r="G24" s="20">
-        <v>1</v>
-      </c>
-      <c r="H24" s="20">
-        <v>1</v>
-      </c>
-      <c r="I24" s="20">
-        <v>1</v>
-      </c>
-      <c r="J24" s="20">
-        <v>1</v>
-      </c>
-      <c r="K24" s="20">
-        <v>1</v>
-      </c>
-      <c r="L24" s="21">
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18">
+        <v>1</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1</v>
+      </c>
+      <c r="L24" s="19">
         <v>10</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20">
-        <v>1</v>
-      </c>
-      <c r="S24" s="20">
-        <v>1</v>
-      </c>
-      <c r="T24" s="20">
-        <v>1</v>
-      </c>
-      <c r="U24" s="20">
-        <v>1</v>
-      </c>
-      <c r="V24" s="20">
-        <v>1</v>
-      </c>
-      <c r="W24" s="20">
-        <v>1</v>
-      </c>
-      <c r="X24" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="21">
+      <c r="Q24" s="17"/>
+      <c r="R24" s="18">
+        <v>1</v>
+      </c>
+      <c r="S24" s="18">
+        <v>1</v>
+      </c>
+      <c r="T24" s="18">
+        <v>1</v>
+      </c>
+      <c r="U24" s="18">
+        <v>1</v>
+      </c>
+      <c r="V24" s="18">
+        <v>1</v>
+      </c>
+      <c r="W24" s="18">
+        <v>1</v>
+      </c>
+      <c r="X24" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="19">
         <v>10</v>
       </c>
     </row>
@@ -8088,76 +8112,76 @@
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="19">
-        <v>1</v>
-      </c>
-      <c r="C25" s="20">
-        <v>1</v>
-      </c>
-      <c r="D25" s="20">
-        <v>1</v>
-      </c>
-      <c r="E25" s="20">
-        <v>1</v>
-      </c>
-      <c r="F25" s="20">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20">
-        <v>1</v>
-      </c>
-      <c r="H25" s="20">
-        <v>1</v>
-      </c>
-      <c r="I25" s="20">
-        <v>1</v>
-      </c>
-      <c r="J25" s="20">
-        <v>1</v>
-      </c>
-      <c r="K25" s="20">
-        <v>1</v>
-      </c>
-      <c r="L25" s="21">
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
+      <c r="L25" s="19">
         <v>10</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="19">
-        <v>1</v>
-      </c>
-      <c r="R25" s="20">
-        <v>1</v>
-      </c>
-      <c r="S25" s="20">
-        <v>1</v>
-      </c>
-      <c r="T25" s="20">
-        <v>1</v>
-      </c>
-      <c r="U25" s="20">
-        <v>1</v>
-      </c>
-      <c r="V25" s="20">
-        <v>1</v>
-      </c>
-      <c r="W25" s="20">
-        <v>1</v>
-      </c>
-      <c r="X25" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="21">
+      <c r="Q25" s="17">
+        <v>1</v>
+      </c>
+      <c r="R25" s="18">
+        <v>1</v>
+      </c>
+      <c r="S25" s="18">
+        <v>1</v>
+      </c>
+      <c r="T25" s="18">
+        <v>1</v>
+      </c>
+      <c r="U25" s="18">
+        <v>1</v>
+      </c>
+      <c r="V25" s="18">
+        <v>1</v>
+      </c>
+      <c r="W25" s="18">
+        <v>1</v>
+      </c>
+      <c r="X25" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8165,76 +8189,76 @@
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="19">
-        <v>1</v>
-      </c>
-      <c r="C26" s="20">
-        <v>1</v>
-      </c>
-      <c r="D26" s="20">
-        <v>1</v>
-      </c>
-      <c r="E26" s="20">
-        <v>1</v>
-      </c>
-      <c r="F26" s="20">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20">
-        <v>1</v>
-      </c>
-      <c r="H26" s="20">
-        <v>1</v>
-      </c>
-      <c r="I26" s="20">
-        <v>1</v>
-      </c>
-      <c r="J26" s="20">
-        <v>1</v>
-      </c>
-      <c r="K26" s="20">
-        <v>1</v>
-      </c>
-      <c r="L26" s="21">
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1</v>
+      </c>
+      <c r="L26" s="19">
         <v>10</v>
       </c>
       <c r="P26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="19">
-        <v>1</v>
-      </c>
-      <c r="R26" s="20">
-        <v>1</v>
-      </c>
-      <c r="S26" s="20">
-        <v>1</v>
-      </c>
-      <c r="T26" s="20">
-        <v>1</v>
-      </c>
-      <c r="U26" s="20">
-        <v>1</v>
-      </c>
-      <c r="V26" s="20">
-        <v>1</v>
-      </c>
-      <c r="W26" s="20">
-        <v>1</v>
-      </c>
-      <c r="X26" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="21">
+      <c r="Q26" s="17">
+        <v>1</v>
+      </c>
+      <c r="R26" s="18">
+        <v>1</v>
+      </c>
+      <c r="S26" s="18">
+        <v>1</v>
+      </c>
+      <c r="T26" s="18">
+        <v>1</v>
+      </c>
+      <c r="U26" s="18">
+        <v>1</v>
+      </c>
+      <c r="V26" s="18">
+        <v>1</v>
+      </c>
+      <c r="W26" s="18">
+        <v>1</v>
+      </c>
+      <c r="X26" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8242,76 +8266,76 @@
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="19">
-        <v>1</v>
-      </c>
-      <c r="C27" s="20">
-        <v>1</v>
-      </c>
-      <c r="D27" s="20">
-        <v>1</v>
-      </c>
-      <c r="E27" s="20">
-        <v>1</v>
-      </c>
-      <c r="F27" s="20">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20">
-        <v>1</v>
-      </c>
-      <c r="H27" s="20">
-        <v>1</v>
-      </c>
-      <c r="I27" s="20">
-        <v>1</v>
-      </c>
-      <c r="J27" s="20">
-        <v>1</v>
-      </c>
-      <c r="K27" s="20">
-        <v>1</v>
-      </c>
-      <c r="L27" s="21">
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18">
+        <v>1</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1</v>
+      </c>
+      <c r="L27" s="19">
         <v>10</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="19">
-        <v>1</v>
-      </c>
-      <c r="R27" s="20">
-        <v>1</v>
-      </c>
-      <c r="S27" s="20">
-        <v>1</v>
-      </c>
-      <c r="T27" s="20">
-        <v>1</v>
-      </c>
-      <c r="U27" s="20">
-        <v>1</v>
-      </c>
-      <c r="V27" s="20">
-        <v>1</v>
-      </c>
-      <c r="W27" s="20">
-        <v>1</v>
-      </c>
-      <c r="X27" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="21">
+      <c r="Q27" s="17">
+        <v>1</v>
+      </c>
+      <c r="R27" s="18">
+        <v>1</v>
+      </c>
+      <c r="S27" s="18">
+        <v>1</v>
+      </c>
+      <c r="T27" s="18">
+        <v>1</v>
+      </c>
+      <c r="U27" s="18">
+        <v>1</v>
+      </c>
+      <c r="V27" s="18">
+        <v>1</v>
+      </c>
+      <c r="W27" s="18">
+        <v>1</v>
+      </c>
+      <c r="X27" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8319,76 +8343,76 @@
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="19">
-        <v>1</v>
-      </c>
-      <c r="C28" s="20">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20">
-        <v>1</v>
-      </c>
-      <c r="E28" s="20">
-        <v>1</v>
-      </c>
-      <c r="F28" s="20">
-        <v>1</v>
-      </c>
-      <c r="G28" s="20">
-        <v>1</v>
-      </c>
-      <c r="H28" s="20">
-        <v>1</v>
-      </c>
-      <c r="I28" s="20">
-        <v>1</v>
-      </c>
-      <c r="J28" s="20">
-        <v>1</v>
-      </c>
-      <c r="K28" s="20">
-        <v>1</v>
-      </c>
-      <c r="L28" s="21">
+      <c r="B28" s="17">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18">
+        <v>1</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1</v>
+      </c>
+      <c r="L28" s="19">
         <v>10</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="19">
-        <v>1</v>
-      </c>
-      <c r="R28" s="20">
-        <v>1</v>
-      </c>
-      <c r="S28" s="20">
-        <v>1</v>
-      </c>
-      <c r="T28" s="20">
-        <v>1</v>
-      </c>
-      <c r="U28" s="20">
-        <v>1</v>
-      </c>
-      <c r="V28" s="20">
-        <v>1</v>
-      </c>
-      <c r="W28" s="20">
-        <v>1</v>
-      </c>
-      <c r="X28" s="20">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="20">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="20">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="20">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="21">
+      <c r="Q28" s="17">
+        <v>1</v>
+      </c>
+      <c r="R28" s="18">
+        <v>1</v>
+      </c>
+      <c r="S28" s="18">
+        <v>1</v>
+      </c>
+      <c r="T28" s="18">
+        <v>1</v>
+      </c>
+      <c r="U28" s="18">
+        <v>1</v>
+      </c>
+      <c r="V28" s="18">
+        <v>1</v>
+      </c>
+      <c r="W28" s="18">
+        <v>1</v>
+      </c>
+      <c r="X28" s="18">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="18">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8396,76 +8420,76 @@
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="19">
-        <v>1</v>
-      </c>
-      <c r="C29" s="20">
-        <v>1</v>
-      </c>
-      <c r="D29" s="20">
-        <v>1</v>
-      </c>
-      <c r="E29" s="20">
-        <v>1</v>
-      </c>
-      <c r="F29" s="20">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20">
-        <v>1</v>
-      </c>
-      <c r="I29" s="20">
-        <v>1</v>
-      </c>
-      <c r="J29" s="20">
-        <v>1</v>
-      </c>
-      <c r="K29" s="20">
-        <v>1</v>
-      </c>
-      <c r="L29" s="21">
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1</v>
+      </c>
+      <c r="L29" s="19">
         <v>10</v>
       </c>
       <c r="P29" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="Q29" s="22">
+      <c r="Q29" s="20">
         <v>17</v>
       </c>
-      <c r="R29" s="23">
+      <c r="R29" s="21">
         <v>24</v>
       </c>
-      <c r="S29" s="23">
+      <c r="S29" s="21">
         <v>24</v>
       </c>
-      <c r="T29" s="23">
+      <c r="T29" s="21">
         <v>24</v>
       </c>
-      <c r="U29" s="23">
+      <c r="U29" s="21">
         <v>24</v>
       </c>
-      <c r="V29" s="23">
+      <c r="V29" s="21">
         <v>24</v>
       </c>
-      <c r="W29" s="23">
+      <c r="W29" s="21">
         <v>24</v>
       </c>
-      <c r="X29" s="23">
+      <c r="X29" s="21">
         <v>24</v>
       </c>
-      <c r="Y29" s="23">
+      <c r="Y29" s="21">
         <v>24</v>
       </c>
-      <c r="Z29" s="23">
+      <c r="Z29" s="21">
         <v>24</v>
       </c>
-      <c r="AA29" s="23">
+      <c r="AA29" s="21">
         <v>24</v>
       </c>
-      <c r="AB29" s="24">
+      <c r="AB29" s="22">
         <v>257</v>
       </c>
     </row>
@@ -8473,37 +8497,37 @@
       <c r="A30" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <v>25</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="21">
         <v>25</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="21">
         <v>25</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <v>25</v>
       </c>
-      <c r="F30" s="23">
+      <c r="F30" s="21">
         <v>25</v>
       </c>
-      <c r="G30" s="23">
+      <c r="G30" s="21">
         <v>25</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="21">
         <v>25</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="21">
         <v>25</v>
       </c>
-      <c r="J30" s="23">
+      <c r="J30" s="21">
         <v>25</v>
       </c>
-      <c r="K30" s="23">
+      <c r="K30" s="21">
         <v>25</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="22">
         <v>250</v>
       </c>
     </row>
@@ -9487,30 +9511,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F904477C-6323-401B-B08E-7A01032FDF06}">
   <dimension ref="A3:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>426</v>
       </c>
       <c r="B4">
@@ -9551,1076 +9573,1097 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="25">
         <v>68</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="25">
         <v>347</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="25">
         <v>478</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="25">
         <v>273</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="25">
         <v>868</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="25">
         <v>267</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="25">
         <v>263</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="25">
         <v>716</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="25">
         <v>869</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="25">
         <v>785</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="25">
         <v>1269</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="25">
         <v>6203</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
+      <c r="B6" s="25">
+        <v>0</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
+        <v>0</v>
+      </c>
+      <c r="K6" s="25">
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26">
+        <v>1971</v>
+      </c>
+      <c r="D7" s="26">
+        <v>2071</v>
+      </c>
+      <c r="E7" s="26">
+        <v>2171</v>
+      </c>
+      <c r="F7" s="25">
         <v>1851</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="25">
         <v>2171</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="25">
         <v>1227</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="25">
         <v>2980</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="25">
         <v>4498</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="25">
         <v>4413</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="25">
         <v>4733</v>
       </c>
-      <c r="M7">
-        <v>21873</v>
+      <c r="M7" s="25">
+        <v>28086</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="25">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
         <v>230</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="25">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="25">
+        <v>0</v>
+      </c>
+      <c r="F8" s="25">
         <v>16</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="25">
         <v>72</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="25">
         <v>110</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="I8" s="25">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="25">
         <v>56</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="25">
         <v>20</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="25">
         <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="B9" s="25">
+        <v>0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
+        <v>0</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="25">
         <v>53</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="25">
         <v>113</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="25">
         <v>65</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="25">
         <v>62</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="25">
         <v>56</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="25">
         <v>260</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="25">
         <v>104</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="25">
         <v>289</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="25">
         <v>72</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="25">
         <v>84</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="25">
         <v>5387</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="25">
         <v>6545</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25">
         <v>173</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="25">
         <v>398</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="25">
         <v>770</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="25">
         <v>1924</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="25">
         <v>431</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="25">
         <v>1502</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="25">
         <v>5029</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="25">
         <v>1525</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="25">
         <v>3328</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="25">
         <v>1828</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="25">
         <v>16908</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25">
         <v>1990</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="25">
         <v>2547</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="25">
         <v>2109</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="25">
         <v>2465</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="25">
         <v>2236</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="25">
         <v>2065</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="25">
         <v>2259</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="25">
         <v>2350</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="25">
         <v>2382</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="25">
         <v>3525</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="25">
         <v>23928</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>0</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25">
         <v>2</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="25">
+        <v>1</v>
+      </c>
+      <c r="K13" s="25">
         <v>187</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="25">
         <v>226</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="25">
         <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
+      <c r="B14" s="25">
+        <v>0</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="25">
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
         <v>149</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="25">
         <v>120</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="25">
         <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25">
         <v>6301</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="25">
         <v>1489</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="25">
         <v>1732</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="25">
         <v>1831</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="25">
         <v>971</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="25">
         <v>612</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="25">
         <v>836</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="25">
         <v>1801</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="25">
         <v>213</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="25">
         <v>1165</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="25">
         <v>16951</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="B16" s="25">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="25">
         <v>10</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="25">
         <v>130</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="25">
         <v>848</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="25">
         <v>39</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="25">
         <v>30</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="25">
         <v>851</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="25">
         <v>1911</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25">
+        <v>0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0</v>
+      </c>
+      <c r="F17" s="25">
         <v>165</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="25">
         <v>725</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="25">
         <v>29</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="25">
         <v>114</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
+      <c r="J17" s="25">
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>0</v>
+      </c>
+      <c r="L17" s="25">
+        <v>0</v>
+      </c>
+      <c r="M17" s="25">
         <v>1033</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="25">
         <v>1175</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="25">
         <v>226</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="25">
         <v>797</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="25">
         <v>1185</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="25">
         <v>360</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="25">
         <v>2503</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="25">
         <v>488</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="25">
         <v>787</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="25">
         <v>1038</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="25">
         <v>705</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="25">
         <v>764</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="25">
         <v>10028</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="25">
         <v>129</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="25">
         <v>1968</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="25">
         <v>1968</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="25">
         <v>738</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="25">
         <v>12</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="25">
         <v>2740</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="25">
         <v>2183</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="25">
         <v>1625</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="25">
         <v>1834</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="25">
         <v>2076</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="25">
         <v>382</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="25">
         <v>15655</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25">
         <v>100</v>
       </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="25">
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
         <v>50</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="25">
         <v>454</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="25">
         <v>637</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="25">
         <v>117</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="25">
         <v>299</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="25">
         <v>2503</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="25">
         <v>830</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="25">
         <v>2458</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="25">
         <v>7448</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25">
         <v>119</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="25">
         <v>28</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="25">
         <v>80</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="25">
         <v>100</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="25">
         <v>114</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="25">
         <v>156</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="25">
         <v>144</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="25">
         <v>172</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="25">
         <v>166</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="25">
         <v>222</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="25">
         <v>1301</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="25">
         <v>5</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="25">
         <v>5</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="25">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="25">
         <v>5</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="25">
         <v>5</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="25">
         <v>5</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
         <v>10</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
+      <c r="J22" s="25">
+        <v>0</v>
+      </c>
+      <c r="K22" s="25">
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <v>0</v>
+      </c>
+      <c r="M22" s="25">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="25">
         <v>1610</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="25">
         <v>56</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="25">
         <v>544</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="25">
         <v>200</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="25">
         <v>500</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="25">
         <v>414</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="25">
         <v>558</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="25">
         <v>1092</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="25">
         <v>694</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="25">
         <v>530</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="25">
         <v>2007</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="25">
         <v>8205</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="B24" s="25">
+        <v>0</v>
+      </c>
+      <c r="C24" s="25">
+        <v>0</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="25">
+        <v>0</v>
+      </c>
+      <c r="J24" s="25">
+        <v>0</v>
+      </c>
+      <c r="K24" s="25">
         <v>19</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
+      <c r="L24" s="25">
+        <v>0</v>
+      </c>
+      <c r="M24" s="25">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="25">
         <v>195</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="25">
         <v>25</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="25">
         <v>10</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="25">
         <v>129</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="25">
         <v>371</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="25">
         <v>500</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="25">
         <v>2482</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="25">
         <v>3712</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="B26" s="25"/>
+      <c r="C26" s="27">
+        <v>0</v>
+      </c>
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <v>0</v>
+      </c>
+      <c r="J26" s="25">
         <v>17</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
+      <c r="K26" s="25">
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="B27" s="25">
+        <v>0</v>
+      </c>
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0</v>
+      </c>
+      <c r="I27" s="25">
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <v>0</v>
+      </c>
+      <c r="L27" s="25">
+        <v>0</v>
+      </c>
+      <c r="M27" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="25">
         <v>242</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="25">
         <v>318</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="25">
         <v>956</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="25">
         <v>533</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="25">
         <v>1599</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="25">
         <v>1572</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="25">
         <v>1039</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="25">
         <v>39</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="25">
         <v>1702</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="25">
         <v>1040</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="25">
         <v>88</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="25">
         <v>9128</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="25">
         <v>2791</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="25">
         <v>1018</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="25">
         <v>1986</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="25">
         <v>958</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="25">
         <v>1374</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="25">
         <v>1569</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="25">
         <v>3274</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="25">
         <v>3818</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="25">
         <v>4061</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="25">
         <v>3177</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="25">
         <v>1257</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="25">
         <v>25283</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="25">
         <v>313</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="25">
         <v>4568</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="25">
         <v>2251</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="25">
         <v>689</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="25">
         <v>2106</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="25">
         <v>516</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="25">
         <v>207</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="25">
         <v>950</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="25">
         <v>533</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="25">
         <v>1667</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="25">
         <v>2737</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="25">
         <v>16537</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="25">
         <v>6581</v>
       </c>
-      <c r="C31">
-        <v>17557</v>
-      </c>
-      <c r="D31">
-        <v>13532</v>
-      </c>
-      <c r="E31">
-        <v>9394</v>
-      </c>
-      <c r="F31">
+      <c r="C31" s="25">
+        <v>19528</v>
+      </c>
+      <c r="D31" s="25">
+        <v>15603</v>
+      </c>
+      <c r="E31" s="25">
+        <v>11565</v>
+      </c>
+      <c r="F31" s="25">
         <v>15689</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="25">
         <v>17213</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="25">
         <v>14064</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="25">
         <v>21966</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="25">
         <v>24080</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="25">
         <v>22337</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="25">
         <v>31521</v>
       </c>
-      <c r="M31">
-        <v>193934</v>
+      <c r="M31" s="25">
+        <v>200147</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:L30">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10632,8 +10675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1024"/>
   <sheetViews>
-    <sheetView topLeftCell="A201" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11031,36 +11074,42 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="24" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23">
+        <v>1971</v>
+      </c>
+      <c r="E24" s="23">
         <v>2014</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+    <row r="25" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23">
+        <v>2071</v>
+      </c>
+      <c r="E25" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23">
+        <v>2171</v>
+      </c>
+      <c r="E26" s="23">
         <v>2016</v>
       </c>
     </row>
@@ -11151,7 +11200,7 @@
       <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="11">
         <v>4413</v>
       </c>
       <c r="E32" s="1">
@@ -11168,7 +11217,7 @@
       <c r="C33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="11">
         <v>4733</v>
       </c>
       <c r="E33" s="1">
@@ -12502,7 +12551,7 @@
       <c r="C115" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D115" s="13">
+      <c r="D115" s="11">
         <v>1801</v>
       </c>
       <c r="E115" s="1">
@@ -12519,7 +12568,7 @@
       <c r="C116" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D116" s="13">
+      <c r="D116" s="11">
         <v>213</v>
       </c>
       <c r="E116" s="1">
@@ -12532,7 +12581,7 @@
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="13">
+      <c r="D117" s="11">
         <v>1165</v>
       </c>
       <c r="E117" s="1">
@@ -13994,36 +14043,42 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="11" t="s">
+    <row r="205" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="11">
+      <c r="B205" s="23"/>
+      <c r="C205" s="23"/>
+      <c r="D205" s="23">
+        <v>0</v>
+      </c>
+      <c r="E205" s="23">
         <v>2014</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="11" t="s">
+    <row r="206" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="11">
+      <c r="B206" s="23"/>
+      <c r="C206" s="23"/>
+      <c r="D206" s="23">
+        <v>0</v>
+      </c>
+      <c r="E206" s="23">
         <v>2015</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="11" t="s">
+    <row r="207" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="11">
+      <c r="B207" s="23"/>
+      <c r="C207" s="23"/>
+      <c r="D207" s="23">
+        <v>0</v>
+      </c>
+      <c r="E207" s="23">
         <v>2016</v>
       </c>
     </row>
@@ -14088,7 +14143,7 @@
       <c r="C211" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D211" s="13">
+      <c r="D211" s="11">
         <v>0</v>
       </c>
       <c r="E211" s="1">
@@ -14997,10 +15052,10 @@
       </c>
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="13" t="s">
+      <c r="A269" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D269" s="13">
+      <c r="D269" s="11">
         <v>0</v>
       </c>
       <c r="E269">
@@ -15008,10 +15063,10 @@
       </c>
     </row>
     <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="13" t="s">
+      <c r="A270" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D270" s="13">
+      <c r="D270" s="11">
         <v>0</v>
       </c>
       <c r="E270">
@@ -15019,10 +15074,10 @@
       </c>
     </row>
     <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="13" t="s">
+      <c r="A271" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D271" s="13">
+      <c r="D271" s="11">
         <v>0</v>
       </c>
       <c r="E271">
@@ -15030,10 +15085,10 @@
       </c>
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="13" t="s">
+      <c r="A272" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D272" s="13">
+      <c r="D272" s="11">
         <v>165</v>
       </c>
       <c r="E272">
@@ -15041,10 +15096,10 @@
       </c>
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="13" t="s">
+      <c r="A273" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D273" s="13">
+      <c r="D273" s="11">
         <v>725</v>
       </c>
       <c r="E273">
@@ -15052,10 +15107,10 @@
       </c>
     </row>
     <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="13" t="s">
+      <c r="A274" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D274" s="13">
+      <c r="D274" s="11">
         <v>29</v>
       </c>
       <c r="E274">
@@ -15063,10 +15118,10 @@
       </c>
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="13" t="s">
+      <c r="A275" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D275" s="13">
+      <c r="D275" s="11">
         <v>114</v>
       </c>
       <c r="E275">
@@ -15074,10 +15129,10 @@
       </c>
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="13" t="s">
+      <c r="A276" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D276" s="13">
+      <c r="D276" s="11">
         <v>0</v>
       </c>
       <c r="E276">
@@ -15085,10 +15140,10 @@
       </c>
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="13" t="s">
+      <c r="A277" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D277" s="13">
+      <c r="D277" s="11">
         <v>0</v>
       </c>
       <c r="E277">
@@ -15096,10 +15151,10 @@
       </c>
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="13" t="s">
+      <c r="A278" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D278" s="13">
+      <c r="D278" s="11">
         <v>0</v>
       </c>
       <c r="E278">
@@ -15107,7 +15162,7 @@
       </c>
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="13" t="s">
+      <c r="A279" s="11" t="s">
         <v>425</v>
       </c>
     </row>

--- a/Pdf_scraping_python/Licencni_prijmy/datalicence.xlsx
+++ b/Pdf_scraping_python/Licencni_prijmy/datalicence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beata\OneDrive\Dokumenty\IT\Digitální akademie Czechitas\Projekt_DA_patenty\Patenty_BI_zal\Pdf_scraping_python\Licencni_prijmy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beata\OneDrive\Dokumenty\IT\Digitální akademie Czechitas\Projekt_DA_patenty\Patenty_BI\Pdf_scraping_python\Licencni_prijmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82B8658-1938-4E55-ABF0-B0E5368832FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674D607C-A775-4D23-BDC9-3621D6875970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,13 +19,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data_licencni_prijmy!$A$1:$E$256</definedName>
-    <definedName name="_xlcn.WorksheetConnection_dataAE1" hidden="1">data_licencni_prijmy!$A:$E</definedName>
+    <definedName name="_xlcn.WorksheetConnection_dataAE" hidden="1">data_licencni_prijmy!$A:$E</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
-    <pivotCache cacheId="12" r:id="rId5"/>
-    <pivotCache cacheId="15" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="12" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{FCE2AD5D-F65C-4FA6-A056-5C36A1767C68}">
@@ -68,7 +68,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Range" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dataAE1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_dataAE"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="428">
   <si>
     <t>Count of ROK</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>A.1 PĹ™Ă­jmy z licenÄŤnĂ­ch smluv (2) 0 0 0</t>
-  </si>
-  <si>
-    <t>vz_o_hospodareni_2017_avu_komplet.pdf</t>
   </si>
   <si>
     <t>vz_o_hospodareni_2018_avu_final_komplet.pdf</t>
@@ -1551,7 +1548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
@@ -1568,6 +1565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1577,41 +1575,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1646,142 +1618,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Beata Motyková" refreshedDate="45610.542723148152" refreshedVersion="8" recordCount="257" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E258" sheet="data_licencni_prijmy"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Nazev podsloĹľky" numFmtId="0">
-      <sharedItems count="25">
-        <s v="01_AMU"/>
-        <s v="02_AVU"/>
-        <s v="03_CVUT"/>
-        <s v="04_CZU"/>
-        <s v="05_JAMU"/>
-        <s v="06_JU"/>
-        <s v="07_MU"/>
-        <s v="08_MENDELU"/>
-        <s v="09_OU"/>
-        <s v="10_SU"/>
-        <s v="11_TUL"/>
-        <s v="12_UHK"/>
-        <s v="14_UK"/>
-        <s v="15_UP"/>
-        <s v="16_UPCE"/>
-        <s v="18_VETUNI"/>
-        <s v="19_VSB-TUO"/>
-        <s v="20_VSE"/>
-        <s v="21_VSCHT"/>
-        <s v="22_VSPJ"/>
-        <s v="23_VSTE"/>
-        <s v="24_UMPRUM"/>
-        <s v="25_VUT"/>
-        <s v="26_ZCU"/>
-        <s v="17_UTB" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Nazev souboru" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Matching Line" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CASTKA" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6301"/>
-    </cacheField>
-    <cacheField name="ROK" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2023" count="11">
-        <n v="2013"/>
-        <n v="2014"/>
-        <n v="2015"/>
-        <n v="2016"/>
-        <n v="2017"/>
-        <n v="2018"/>
-        <n v="2019"/>
-        <n v="2020"/>
-        <n v="2021"/>
-        <n v="2022"/>
-        <n v="2023"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Beata Motyková" refreshedDate="45610.542723379629" refreshedVersion="8" recordCount="267" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E268" sheet="data_licencni_prijmy"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Nazev podsloĹľky" numFmtId="0">
-      <sharedItems count="25">
-        <s v="01_AMU"/>
-        <s v="02_AVU"/>
-        <s v="03_CVUT"/>
-        <s v="04_CZU"/>
-        <s v="05_JAMU"/>
-        <s v="06_JU"/>
-        <s v="07_MU"/>
-        <s v="08_MENDELU"/>
-        <s v="09_OU"/>
-        <s v="10_SU"/>
-        <s v="11_TUL"/>
-        <s v="12_UHK"/>
-        <s v="14_UK"/>
-        <s v="15_UP"/>
-        <s v="16_UPCE"/>
-        <s v="18_VETUNI"/>
-        <s v="19_VSB-TUO"/>
-        <s v="20_VSE"/>
-        <s v="21_VSCHT"/>
-        <s v="22_VSPJ"/>
-        <s v="23_VSTE"/>
-        <s v="24_UMPRUM"/>
-        <s v="25_VUT"/>
-        <s v="26_ZCU"/>
-        <s v="17_UTB"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Nazev souboru" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Matching Line" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="CASTKA" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="6301"/>
-    </cacheField>
-    <cacheField name="ROK" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2023" count="11">
-        <n v="2013"/>
-        <n v="2014"/>
-        <n v="2015"/>
-        <n v="2016"/>
-        <n v="2017"/>
-        <n v="2018"/>
-        <n v="2019"/>
-        <n v="2020"/>
-        <n v="2021"/>
-        <n v="2022"/>
-        <n v="2023"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Beata Motyková" refreshedDate="45610.543894907409" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{0E772BD3-29FF-4AA2-B06C-49DF7A1511B2}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="3">
@@ -1904,8 +1740,144 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Beata Motyková" refreshedDate="45612.385489930559" refreshedVersion="8" recordCount="267" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E268" sheet="data_licencni_prijmy"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Nazev podsloĹľky" numFmtId="0">
+      <sharedItems count="25">
+        <s v="01_AMU"/>
+        <s v="02_AVU"/>
+        <s v="03_CVUT"/>
+        <s v="04_CZU"/>
+        <s v="05_JAMU"/>
+        <s v="06_JU"/>
+        <s v="07_MU"/>
+        <s v="08_MENDELU"/>
+        <s v="09_OU"/>
+        <s v="10_SU"/>
+        <s v="11_TUL"/>
+        <s v="12_UHK"/>
+        <s v="14_UK"/>
+        <s v="15_UP"/>
+        <s v="16_UPCE"/>
+        <s v="18_VETUNI"/>
+        <s v="19_VSB-TUO"/>
+        <s v="20_VSE"/>
+        <s v="21_VSCHT"/>
+        <s v="22_VSPJ"/>
+        <s v="23_VSTE"/>
+        <s v="24_UMPRUM"/>
+        <s v="25_VUT"/>
+        <s v="26_ZCU"/>
+        <s v="17_UTB"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nazev souboru" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Matching Line" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CASTKA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6301"/>
+    </cacheField>
+    <cacheField name="ROK" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2023" count="11">
+        <n v="2013"/>
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Beata Motyková" refreshedDate="45612.385490046297" refreshedVersion="8" recordCount="257" xr:uid="{00000000-000A-0000-FFFF-FFFF01000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E258" sheet="data_licencni_prijmy"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Nazev podsloĹľky" numFmtId="0">
+      <sharedItems count="25">
+        <s v="01_AMU"/>
+        <s v="02_AVU"/>
+        <s v="03_CVUT"/>
+        <s v="04_CZU"/>
+        <s v="05_JAMU"/>
+        <s v="06_JU"/>
+        <s v="07_MU"/>
+        <s v="08_MENDELU"/>
+        <s v="09_OU"/>
+        <s v="10_SU"/>
+        <s v="11_TUL"/>
+        <s v="12_UHK"/>
+        <s v="14_UK"/>
+        <s v="15_UP"/>
+        <s v="16_UPCE"/>
+        <s v="18_VETUNI"/>
+        <s v="19_VSB-TUO"/>
+        <s v="20_VSE"/>
+        <s v="21_VSCHT"/>
+        <s v="22_VSPJ"/>
+        <s v="23_VSTE"/>
+        <s v="24_UMPRUM"/>
+        <s v="25_VUT"/>
+        <s v="26_ZCU"/>
+        <s v="17_UTB" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nazev souboru" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Matching Line" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="CASTKA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="6301"/>
+    </cacheField>
+    <cacheField name="ROK" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2013" maxValue="2023" count="11">
+        <n v="2013"/>
+        <n v="2014"/>
+        <n v="2015"/>
+        <n v="2016"/>
+        <n v="2017"/>
+        <n v="2018"/>
+        <n v="2019"/>
+        <n v="2020"/>
+        <n v="2021"/>
+        <n v="2022"/>
+        <n v="2023"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="257">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="267">
   <r>
     <x v="0"/>
     <s v="04_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2013.pdf"/>
@@ -2064,21 +2036,21 @@
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <n v="1971"/>
     <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <n v="2071"/>
     <x v="2"/>
   </r>
   <r>
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <n v="2171"/>
     <x v="3"/>
   </r>
   <r>
@@ -3331,21 +3303,21 @@
     <x v="19"/>
     <m/>
     <m/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="19"/>
     <m/>
     <m/>
-    <m/>
+    <n v="0"/>
     <x v="2"/>
   </r>
   <r>
     <x v="19"/>
     <m/>
     <m/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
   </r>
   <r>
@@ -3705,11 +3677,81 @@
     <n v="2737"/>
     <x v="10"/>
   </r>
+  <r>
+    <x v="24"/>
+    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ UTB za rok 2014.pdf"/>
+    <s v="v tom: vĂ˝nosy z licenÄŤnĂ­ch smluv 119 119"/>
+    <n v="119"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="UTB_VZ_hospodaĹ™enĂ­_2015_final_s_obalkou-1.pdf"/>
+    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv   28 28"/>
+    <n v="28"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="UTB_VZ_hospodareni_2016_final.pdf"/>
+    <s v="A.1 vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 80 80"/>
+    <n v="80"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="utb_vz_hospodareni_2017.pdf"/>
+    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 100 100"/>
+    <n v="100"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="utb_vz_hospodareni_2018_final_msmt.pdf"/>
+    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv   114 114"/>
+    <n v="114"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="utb_vz_hospodareni_2019_final_web_zari 2020.pdf"/>
+    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 156 156"/>
+    <n v="156"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="utb_vz_hospodareni_2020_final.pdf"/>
+    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 144 144"/>
+    <n v="144"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="utb_vz_hospodareni_2021_final_msmt_schvaleno.pdf"/>
+    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 172 172"/>
+    <n v="172"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="Vyrocni_Zprava_o_hospodareni_2022_UTB_2023.pdf"/>
+    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 166 166"/>
+    <n v="166"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="UTB zprava o hospodareni 2023_cz_full.pdf"/>
+    <s v="v tompĹ™Ă­jmy z licenÄŤnĂ­ch smluv (1) 65 157 222"/>
+    <n v="222"/>
+    <x v="10"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="267">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="257">
   <r>
     <x v="0"/>
     <s v="04_VĂ˝roÄŤnĂ­ zprĂˇva AMU_2013.pdf"/>
@@ -3868,21 +3910,21 @@
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <n v="1971"/>
     <x v="1"/>
   </r>
   <r>
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <n v="2071"/>
     <x v="2"/>
   </r>
   <r>
     <x v="2"/>
     <m/>
     <m/>
-    <m/>
+    <n v="2171"/>
     <x v="3"/>
   </r>
   <r>
@@ -5135,21 +5177,21 @@
     <x v="19"/>
     <m/>
     <m/>
-    <m/>
+    <n v="0"/>
     <x v="1"/>
   </r>
   <r>
     <x v="19"/>
     <m/>
     <m/>
-    <m/>
+    <n v="0"/>
     <x v="2"/>
   </r>
   <r>
     <x v="19"/>
     <m/>
     <m/>
-    <m/>
+    <n v="0"/>
     <x v="3"/>
   </r>
   <r>
@@ -5509,81 +5551,198 @@
     <n v="2737"/>
     <x v="10"/>
   </r>
-  <r>
-    <x v="24"/>
-    <s v="VĂ˝roÄŤnĂ­ zprĂˇva o hospodaĹ™enĂ­ UTB za rok 2014.pdf"/>
-    <s v="v tom: vĂ˝nosy z licenÄŤnĂ­ch smluv 119 119"/>
-    <n v="119"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="UTB_VZ_hospodaĹ™enĂ­_2015_final_s_obalkou-1.pdf"/>
-    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv   28 28"/>
-    <n v="28"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="UTB_VZ_hospodareni_2016_final.pdf"/>
-    <s v="A.1 vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 80 80"/>
-    <n v="80"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="utb_vz_hospodareni_2017.pdf"/>
-    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 100 100"/>
-    <n v="100"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="utb_vz_hospodareni_2018_final_msmt.pdf"/>
-    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv   114 114"/>
-    <n v="114"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="utb_vz_hospodareni_2019_final_web_zari 2020.pdf"/>
-    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 156 156"/>
-    <n v="156"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="utb_vz_hospodareni_2020_final.pdf"/>
-    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 144 144"/>
-    <n v="144"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="utb_vz_hospodareni_2021_final_msmt_schvaleno.pdf"/>
-    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 172 172"/>
-    <n v="172"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Vyrocni_Zprava_o_hospodareni_2022_UTB_2023.pdf"/>
-    <s v="v tom : vĂ˝nosy  z licenÄŤnĂ­ch smluv  0 166 166"/>
-    <n v="166"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="UTB zprava o hospodareni 2023_cz_full.pdf"/>
-    <s v="v tompĹ™Ă­jmy z licenÄŤnĂ­ch smluv (1) 65 157 222"/>
-    <n v="222"/>
-    <x v="10"/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="prehled 2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="prehled" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
+  <location ref="A3:L30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField name="Nazev podsloĹľky" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="26">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="24"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Nazev souboru" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="Matching Line" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="CASTKA" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="ROK" axis="axisCol" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="12">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="11">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of ROK" fld="4" subtotal="count" baseField="0"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="prehled 2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
   <location ref="P3:AB29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField name="Nazev podsloĹľky" axis="axisRow" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -5769,195 +5928,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000001000000}" name="prehled" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0">
-  <location ref="A3:L30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField name="Nazev podsloĹľky" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="26">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="24"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Nazev souboru" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="Matching Line" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="CASTKA" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="ROK" axis="axisCol" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="12">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="11">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of ROK" fld="4" subtotal="count" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B932626-3438-4BDA-B18E-32EA7748F8A3}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7B932626-3438-4BDA-B18E-32EA7748F8A3}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:M31" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -6138,7 +6110,7 @@
     <dataField name="Sum of CASTKA" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="1">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -6152,7 +6124,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -6488,7 +6460,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="4"/>
       <c r="P3" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>1</v>
@@ -6540,7 +6512,7 @@
         <v>2023</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>2</v>
@@ -6579,83 +6551,83 @@
         <v>2023</v>
       </c>
       <c r="AB4" s="7" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1</v>
-      </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15">
-        <v>1</v>
-      </c>
-      <c r="I5" s="15">
-        <v>1</v>
-      </c>
-      <c r="J5" s="15">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15">
-        <v>1</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16">
+        <v>1</v>
+      </c>
+      <c r="K5" s="16">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17">
         <v>10</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="14">
-        <v>1</v>
-      </c>
-      <c r="R5" s="15">
-        <v>1</v>
-      </c>
-      <c r="S5" s="15">
-        <v>1</v>
-      </c>
-      <c r="T5" s="15">
-        <v>1</v>
-      </c>
-      <c r="U5" s="15">
-        <v>1</v>
-      </c>
-      <c r="V5" s="15">
-        <v>1</v>
-      </c>
-      <c r="W5" s="15">
-        <v>1</v>
-      </c>
-      <c r="X5" s="15">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="15">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="15">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="16">
+      <c r="Q5" s="15">
+        <v>1</v>
+      </c>
+      <c r="R5" s="16">
+        <v>1</v>
+      </c>
+      <c r="S5" s="16">
+        <v>1</v>
+      </c>
+      <c r="T5" s="16">
+        <v>1</v>
+      </c>
+      <c r="U5" s="16">
+        <v>1</v>
+      </c>
+      <c r="V5" s="16">
+        <v>1</v>
+      </c>
+      <c r="W5" s="16">
+        <v>1</v>
+      </c>
+      <c r="X5" s="16">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="17">
         <v>11</v>
       </c>
     </row>
@@ -6663,76 +6635,76 @@
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="18">
-        <v>1</v>
-      </c>
-      <c r="D6" s="18">
-        <v>1</v>
-      </c>
-      <c r="E6" s="18">
-        <v>1</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1</v>
-      </c>
-      <c r="I6" s="18">
-        <v>1</v>
-      </c>
-      <c r="J6" s="18">
-        <v>1</v>
-      </c>
-      <c r="K6" s="18">
-        <v>1</v>
-      </c>
-      <c r="L6" s="19">
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>1</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1</v>
+      </c>
+      <c r="L6" s="20">
         <v>10</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q6" s="17">
-        <v>1</v>
-      </c>
-      <c r="R6" s="18">
-        <v>1</v>
-      </c>
-      <c r="S6" s="18">
-        <v>1</v>
-      </c>
-      <c r="T6" s="18">
-        <v>1</v>
-      </c>
-      <c r="U6" s="18">
-        <v>1</v>
-      </c>
-      <c r="V6" s="18">
-        <v>1</v>
-      </c>
-      <c r="W6" s="18">
-        <v>1</v>
-      </c>
-      <c r="X6" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB6" s="19">
+      <c r="Q6" s="18">
+        <v>1</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1</v>
+      </c>
+      <c r="S6" s="19">
+        <v>1</v>
+      </c>
+      <c r="T6" s="19">
+        <v>1</v>
+      </c>
+      <c r="U6" s="19">
+        <v>1</v>
+      </c>
+      <c r="V6" s="19">
+        <v>1</v>
+      </c>
+      <c r="W6" s="19">
+        <v>1</v>
+      </c>
+      <c r="X6" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="20">
         <v>11</v>
       </c>
     </row>
@@ -6740,74 +6712,74 @@
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18">
-        <v>1</v>
-      </c>
-      <c r="D7" s="18">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18">
-        <v>1</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1</v>
-      </c>
-      <c r="G7" s="18">
-        <v>1</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1</v>
-      </c>
-      <c r="I7" s="18">
-        <v>1</v>
-      </c>
-      <c r="J7" s="18">
-        <v>1</v>
-      </c>
-      <c r="K7" s="18">
-        <v>1</v>
-      </c>
-      <c r="L7" s="19">
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
+      <c r="L7" s="20">
         <v>10</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="18">
-        <v>1</v>
-      </c>
-      <c r="S7" s="18">
-        <v>1</v>
-      </c>
-      <c r="T7" s="18">
-        <v>1</v>
-      </c>
-      <c r="U7" s="18">
-        <v>1</v>
-      </c>
-      <c r="V7" s="18">
-        <v>1</v>
-      </c>
-      <c r="W7" s="18">
-        <v>1</v>
-      </c>
-      <c r="X7" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="19">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="19">
+        <v>1</v>
+      </c>
+      <c r="S7" s="19">
+        <v>1</v>
+      </c>
+      <c r="T7" s="19">
+        <v>1</v>
+      </c>
+      <c r="U7" s="19">
+        <v>1</v>
+      </c>
+      <c r="V7" s="19">
+        <v>1</v>
+      </c>
+      <c r="W7" s="19">
+        <v>1</v>
+      </c>
+      <c r="X7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="20">
         <v>10</v>
       </c>
     </row>
@@ -6815,76 +6787,76 @@
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17">
-        <v>1</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1</v>
-      </c>
-      <c r="E8" s="18">
-        <v>1</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1</v>
-      </c>
-      <c r="G8" s="18">
-        <v>1</v>
-      </c>
-      <c r="H8" s="18">
-        <v>1</v>
-      </c>
-      <c r="I8" s="18">
-        <v>1</v>
-      </c>
-      <c r="J8" s="18">
-        <v>1</v>
-      </c>
-      <c r="K8" s="18">
-        <v>1</v>
-      </c>
-      <c r="L8" s="19">
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <v>1</v>
+      </c>
+      <c r="H8" s="19">
+        <v>1</v>
+      </c>
+      <c r="I8" s="19">
+        <v>1</v>
+      </c>
+      <c r="J8" s="19">
+        <v>1</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1</v>
+      </c>
+      <c r="L8" s="20">
         <v>10</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="17">
-        <v>1</v>
-      </c>
-      <c r="R8" s="18">
-        <v>1</v>
-      </c>
-      <c r="S8" s="18">
-        <v>1</v>
-      </c>
-      <c r="T8" s="18">
-        <v>1</v>
-      </c>
-      <c r="U8" s="18">
-        <v>1</v>
-      </c>
-      <c r="V8" s="18">
-        <v>1</v>
-      </c>
-      <c r="W8" s="18">
-        <v>1</v>
-      </c>
-      <c r="X8" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="19">
+      <c r="Q8" s="18">
+        <v>1</v>
+      </c>
+      <c r="R8" s="19">
+        <v>1</v>
+      </c>
+      <c r="S8" s="19">
+        <v>1</v>
+      </c>
+      <c r="T8" s="19">
+        <v>1</v>
+      </c>
+      <c r="U8" s="19">
+        <v>1</v>
+      </c>
+      <c r="V8" s="19">
+        <v>1</v>
+      </c>
+      <c r="W8" s="19">
+        <v>1</v>
+      </c>
+      <c r="X8" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="20">
         <v>11</v>
       </c>
     </row>
@@ -6892,76 +6864,76 @@
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="17">
-        <v>1</v>
-      </c>
-      <c r="C9" s="18">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="18">
-        <v>1</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
-      <c r="H9" s="18">
-        <v>1</v>
-      </c>
-      <c r="I9" s="18">
-        <v>1</v>
-      </c>
-      <c r="J9" s="18">
-        <v>1</v>
-      </c>
-      <c r="K9" s="18">
-        <v>1</v>
-      </c>
-      <c r="L9" s="19">
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
+      <c r="L9" s="20">
         <v>10</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q9" s="17">
-        <v>1</v>
-      </c>
-      <c r="R9" s="18">
-        <v>1</v>
-      </c>
-      <c r="S9" s="18">
-        <v>1</v>
-      </c>
-      <c r="T9" s="18">
-        <v>1</v>
-      </c>
-      <c r="U9" s="18">
-        <v>1</v>
-      </c>
-      <c r="V9" s="18">
-        <v>1</v>
-      </c>
-      <c r="W9" s="18">
-        <v>1</v>
-      </c>
-      <c r="X9" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB9" s="19">
+      <c r="Q9" s="18">
+        <v>1</v>
+      </c>
+      <c r="R9" s="19">
+        <v>1</v>
+      </c>
+      <c r="S9" s="19">
+        <v>1</v>
+      </c>
+      <c r="T9" s="19">
+        <v>1</v>
+      </c>
+      <c r="U9" s="19">
+        <v>1</v>
+      </c>
+      <c r="V9" s="19">
+        <v>1</v>
+      </c>
+      <c r="W9" s="19">
+        <v>1</v>
+      </c>
+      <c r="X9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="20">
         <v>11</v>
       </c>
     </row>
@@ -6969,76 +6941,76 @@
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="17">
-        <v>1</v>
-      </c>
-      <c r="C10" s="18">
-        <v>1</v>
-      </c>
-      <c r="D10" s="18">
-        <v>1</v>
-      </c>
-      <c r="E10" s="18">
-        <v>1</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1</v>
-      </c>
-      <c r="G10" s="18">
-        <v>1</v>
-      </c>
-      <c r="H10" s="18">
-        <v>1</v>
-      </c>
-      <c r="I10" s="18">
-        <v>1</v>
-      </c>
-      <c r="J10" s="18">
-        <v>1</v>
-      </c>
-      <c r="K10" s="18">
-        <v>1</v>
-      </c>
-      <c r="L10" s="19">
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="19">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>1</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1</v>
+      </c>
+      <c r="L10" s="20">
         <v>10</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="17">
-        <v>1</v>
-      </c>
-      <c r="R10" s="18">
-        <v>1</v>
-      </c>
-      <c r="S10" s="18">
-        <v>1</v>
-      </c>
-      <c r="T10" s="18">
-        <v>1</v>
-      </c>
-      <c r="U10" s="18">
-        <v>1</v>
-      </c>
-      <c r="V10" s="18">
-        <v>1</v>
-      </c>
-      <c r="W10" s="18">
-        <v>1</v>
-      </c>
-      <c r="X10" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="19">
+      <c r="Q10" s="18">
+        <v>1</v>
+      </c>
+      <c r="R10" s="19">
+        <v>1</v>
+      </c>
+      <c r="S10" s="19">
+        <v>1</v>
+      </c>
+      <c r="T10" s="19">
+        <v>1</v>
+      </c>
+      <c r="U10" s="19">
+        <v>1</v>
+      </c>
+      <c r="V10" s="19">
+        <v>1</v>
+      </c>
+      <c r="W10" s="19">
+        <v>1</v>
+      </c>
+      <c r="X10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="20">
         <v>11</v>
       </c>
     </row>
@@ -7046,74 +7018,74 @@
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17">
-        <v>1</v>
-      </c>
-      <c r="C11" s="18">
-        <v>1</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1</v>
-      </c>
-      <c r="E11" s="18">
-        <v>1</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1</v>
-      </c>
-      <c r="G11" s="18">
-        <v>1</v>
-      </c>
-      <c r="H11" s="18">
-        <v>1</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1</v>
-      </c>
-      <c r="J11" s="18">
-        <v>1</v>
-      </c>
-      <c r="K11" s="18">
-        <v>1</v>
-      </c>
-      <c r="L11" s="19">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
+      </c>
+      <c r="L11" s="20">
         <v>10</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="18">
-        <v>1</v>
-      </c>
-      <c r="S11" s="18">
-        <v>1</v>
-      </c>
-      <c r="T11" s="18">
-        <v>1</v>
-      </c>
-      <c r="U11" s="18">
-        <v>1</v>
-      </c>
-      <c r="V11" s="18">
-        <v>1</v>
-      </c>
-      <c r="W11" s="18">
-        <v>1</v>
-      </c>
-      <c r="X11" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="19">
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19">
+        <v>1</v>
+      </c>
+      <c r="S11" s="19">
+        <v>1</v>
+      </c>
+      <c r="T11" s="19">
+        <v>1</v>
+      </c>
+      <c r="U11" s="19">
+        <v>1</v>
+      </c>
+      <c r="V11" s="19">
+        <v>1</v>
+      </c>
+      <c r="W11" s="19">
+        <v>1</v>
+      </c>
+      <c r="X11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="20">
         <v>10</v>
       </c>
     </row>
@@ -7121,74 +7093,74 @@
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="17">
-        <v>1</v>
-      </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="18">
-        <v>1</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1</v>
-      </c>
-      <c r="G12" s="18">
-        <v>1</v>
-      </c>
-      <c r="H12" s="18">
-        <v>1</v>
-      </c>
-      <c r="I12" s="18">
-        <v>1</v>
-      </c>
-      <c r="J12" s="18">
-        <v>1</v>
-      </c>
-      <c r="K12" s="18">
-        <v>1</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19">
+        <v>1</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="19">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1</v>
+      </c>
+      <c r="I12" s="19">
+        <v>1</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1</v>
+      </c>
+      <c r="K12" s="19">
+        <v>1</v>
+      </c>
+      <c r="L12" s="20">
         <v>10</v>
       </c>
       <c r="P12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="18">
-        <v>1</v>
-      </c>
-      <c r="S12" s="18">
-        <v>1</v>
-      </c>
-      <c r="T12" s="18">
-        <v>1</v>
-      </c>
-      <c r="U12" s="18">
-        <v>1</v>
-      </c>
-      <c r="V12" s="18">
-        <v>1</v>
-      </c>
-      <c r="W12" s="18">
-        <v>1</v>
-      </c>
-      <c r="X12" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="19">
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19">
+        <v>1</v>
+      </c>
+      <c r="S12" s="19">
+        <v>1</v>
+      </c>
+      <c r="T12" s="19">
+        <v>1</v>
+      </c>
+      <c r="U12" s="19">
+        <v>1</v>
+      </c>
+      <c r="V12" s="19">
+        <v>1</v>
+      </c>
+      <c r="W12" s="19">
+        <v>1</v>
+      </c>
+      <c r="X12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="20">
         <v>10</v>
       </c>
     </row>
@@ -7196,74 +7168,74 @@
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="17">
-        <v>1</v>
-      </c>
-      <c r="C13" s="18">
-        <v>1</v>
-      </c>
-      <c r="D13" s="18">
-        <v>1</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1</v>
-      </c>
-      <c r="G13" s="18">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
-        <v>1</v>
-      </c>
-      <c r="I13" s="18">
-        <v>1</v>
-      </c>
-      <c r="J13" s="18">
-        <v>1</v>
-      </c>
-      <c r="K13" s="18">
-        <v>1</v>
-      </c>
-      <c r="L13" s="19">
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
+      </c>
+      <c r="L13" s="20">
         <v>10</v>
       </c>
       <c r="P13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="18">
-        <v>1</v>
-      </c>
-      <c r="S13" s="18">
-        <v>1</v>
-      </c>
-      <c r="T13" s="18">
-        <v>1</v>
-      </c>
-      <c r="U13" s="18">
-        <v>1</v>
-      </c>
-      <c r="V13" s="18">
-        <v>1</v>
-      </c>
-      <c r="W13" s="18">
-        <v>1</v>
-      </c>
-      <c r="X13" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB13" s="19">
+      <c r="Q13" s="18"/>
+      <c r="R13" s="19">
+        <v>1</v>
+      </c>
+      <c r="S13" s="19">
+        <v>1</v>
+      </c>
+      <c r="T13" s="19">
+        <v>1</v>
+      </c>
+      <c r="U13" s="19">
+        <v>1</v>
+      </c>
+      <c r="V13" s="19">
+        <v>1</v>
+      </c>
+      <c r="W13" s="19">
+        <v>1</v>
+      </c>
+      <c r="X13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="20">
         <v>10</v>
       </c>
     </row>
@@ -7271,76 +7243,76 @@
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="17">
-        <v>1</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1</v>
-      </c>
-      <c r="D14" s="18">
-        <v>1</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
-      </c>
-      <c r="G14" s="18">
-        <v>1</v>
-      </c>
-      <c r="H14" s="18">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18">
-        <v>1</v>
-      </c>
-      <c r="J14" s="18">
-        <v>1</v>
-      </c>
-      <c r="K14" s="18">
-        <v>1</v>
-      </c>
-      <c r="L14" s="19">
+      <c r="B14" s="18">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+      <c r="D14" s="19">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <v>1</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1</v>
+      </c>
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1</v>
+      </c>
+      <c r="K14" s="19">
+        <v>1</v>
+      </c>
+      <c r="L14" s="20">
         <v>10</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="Q14" s="17">
-        <v>1</v>
-      </c>
-      <c r="R14" s="18">
-        <v>1</v>
-      </c>
-      <c r="S14" s="18">
-        <v>1</v>
-      </c>
-      <c r="T14" s="18">
-        <v>1</v>
-      </c>
-      <c r="U14" s="18">
-        <v>1</v>
-      </c>
-      <c r="V14" s="18">
-        <v>1</v>
-      </c>
-      <c r="W14" s="18">
-        <v>1</v>
-      </c>
-      <c r="X14" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="19">
+      <c r="Q14" s="18">
+        <v>1</v>
+      </c>
+      <c r="R14" s="19">
+        <v>1</v>
+      </c>
+      <c r="S14" s="19">
+        <v>1</v>
+      </c>
+      <c r="T14" s="19">
+        <v>1</v>
+      </c>
+      <c r="U14" s="19">
+        <v>1</v>
+      </c>
+      <c r="V14" s="19">
+        <v>1</v>
+      </c>
+      <c r="W14" s="19">
+        <v>1</v>
+      </c>
+      <c r="X14" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="20">
         <v>11</v>
       </c>
     </row>
@@ -7348,74 +7320,74 @@
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="17">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1</v>
-      </c>
-      <c r="D15" s="18">
-        <v>1</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="18">
-        <v>1</v>
-      </c>
-      <c r="G15" s="18">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18">
-        <v>1</v>
-      </c>
-      <c r="I15" s="18">
-        <v>1</v>
-      </c>
-      <c r="J15" s="18">
-        <v>1</v>
-      </c>
-      <c r="K15" s="18">
-        <v>1</v>
-      </c>
-      <c r="L15" s="19">
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="19">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
+      </c>
+      <c r="L15" s="20">
         <v>10</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="18">
-        <v>1</v>
-      </c>
-      <c r="S15" s="18">
-        <v>1</v>
-      </c>
-      <c r="T15" s="18">
-        <v>1</v>
-      </c>
-      <c r="U15" s="18">
-        <v>1</v>
-      </c>
-      <c r="V15" s="18">
-        <v>1</v>
-      </c>
-      <c r="W15" s="18">
-        <v>1</v>
-      </c>
-      <c r="X15" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="19">
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19">
+        <v>1</v>
+      </c>
+      <c r="S15" s="19">
+        <v>1</v>
+      </c>
+      <c r="T15" s="19">
+        <v>1</v>
+      </c>
+      <c r="U15" s="19">
+        <v>1</v>
+      </c>
+      <c r="V15" s="19">
+        <v>1</v>
+      </c>
+      <c r="W15" s="19">
+        <v>1</v>
+      </c>
+      <c r="X15" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="20">
         <v>10</v>
       </c>
     </row>
@@ -7423,76 +7395,76 @@
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="17">
-        <v>1</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1</v>
-      </c>
-      <c r="D16" s="18">
-        <v>1</v>
-      </c>
-      <c r="E16" s="18">
-        <v>1</v>
-      </c>
-      <c r="F16" s="18">
-        <v>1</v>
-      </c>
-      <c r="G16" s="18">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18">
-        <v>1</v>
-      </c>
-      <c r="I16" s="18">
-        <v>1</v>
-      </c>
-      <c r="J16" s="18">
-        <v>1</v>
-      </c>
-      <c r="K16" s="18">
-        <v>1</v>
-      </c>
-      <c r="L16" s="19">
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="19">
+        <v>1</v>
+      </c>
+      <c r="D16" s="19">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
+        <v>1</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1</v>
+      </c>
+      <c r="L16" s="20">
         <v>10</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q16" s="17">
-        <v>1</v>
-      </c>
-      <c r="R16" s="18">
-        <v>1</v>
-      </c>
-      <c r="S16" s="18">
-        <v>1</v>
-      </c>
-      <c r="T16" s="18">
-        <v>1</v>
-      </c>
-      <c r="U16" s="18">
-        <v>1</v>
-      </c>
-      <c r="V16" s="18">
-        <v>1</v>
-      </c>
-      <c r="W16" s="18">
-        <v>1</v>
-      </c>
-      <c r="X16" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="19">
+      <c r="Q16" s="18">
+        <v>1</v>
+      </c>
+      <c r="R16" s="19">
+        <v>1</v>
+      </c>
+      <c r="S16" s="19">
+        <v>1</v>
+      </c>
+      <c r="T16" s="19">
+        <v>1</v>
+      </c>
+      <c r="U16" s="19">
+        <v>1</v>
+      </c>
+      <c r="V16" s="19">
+        <v>1</v>
+      </c>
+      <c r="W16" s="19">
+        <v>1</v>
+      </c>
+      <c r="X16" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="20">
         <v>11</v>
       </c>
     </row>
@@ -7500,76 +7472,76 @@
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1</v>
-      </c>
-      <c r="D17" s="18">
-        <v>1</v>
-      </c>
-      <c r="E17" s="18">
-        <v>1</v>
-      </c>
-      <c r="F17" s="18">
-        <v>1</v>
-      </c>
-      <c r="G17" s="18">
-        <v>1</v>
-      </c>
-      <c r="H17" s="18">
-        <v>1</v>
-      </c>
-      <c r="I17" s="18">
-        <v>1</v>
-      </c>
-      <c r="J17" s="18">
-        <v>1</v>
-      </c>
-      <c r="K17" s="18">
-        <v>1</v>
-      </c>
-      <c r="L17" s="19">
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
+      </c>
+      <c r="L17" s="20">
         <v>10</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q17" s="17">
-        <v>1</v>
-      </c>
-      <c r="R17" s="18">
-        <v>1</v>
-      </c>
-      <c r="S17" s="18">
-        <v>1</v>
-      </c>
-      <c r="T17" s="18">
-        <v>1</v>
-      </c>
-      <c r="U17" s="18">
-        <v>1</v>
-      </c>
-      <c r="V17" s="18">
-        <v>1</v>
-      </c>
-      <c r="W17" s="18">
-        <v>1</v>
-      </c>
-      <c r="X17" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="19">
+      <c r="Q17" s="18">
+        <v>1</v>
+      </c>
+      <c r="R17" s="19">
+        <v>1</v>
+      </c>
+      <c r="S17" s="19">
+        <v>1</v>
+      </c>
+      <c r="T17" s="19">
+        <v>1</v>
+      </c>
+      <c r="U17" s="19">
+        <v>1</v>
+      </c>
+      <c r="V17" s="19">
+        <v>1</v>
+      </c>
+      <c r="W17" s="19">
+        <v>1</v>
+      </c>
+      <c r="X17" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="20">
         <v>11</v>
       </c>
     </row>
@@ -7577,76 +7549,76 @@
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="17">
-        <v>1</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1</v>
-      </c>
-      <c r="D18" s="18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18">
-        <v>1</v>
-      </c>
-      <c r="G18" s="18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="19">
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1</v>
+      </c>
+      <c r="I18" s="19">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1</v>
+      </c>
+      <c r="L18" s="20">
         <v>10</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="17">
-        <v>1</v>
-      </c>
-      <c r="R18" s="18">
-        <v>1</v>
-      </c>
-      <c r="S18" s="18">
-        <v>1</v>
-      </c>
-      <c r="T18" s="18">
-        <v>1</v>
-      </c>
-      <c r="U18" s="18">
-        <v>1</v>
-      </c>
-      <c r="V18" s="18">
-        <v>1</v>
-      </c>
-      <c r="W18" s="18">
-        <v>1</v>
-      </c>
-      <c r="X18" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="19">
+      <c r="Q18" s="18">
+        <v>1</v>
+      </c>
+      <c r="R18" s="19">
+        <v>1</v>
+      </c>
+      <c r="S18" s="19">
+        <v>1</v>
+      </c>
+      <c r="T18" s="19">
+        <v>1</v>
+      </c>
+      <c r="U18" s="19">
+        <v>1</v>
+      </c>
+      <c r="V18" s="19">
+        <v>1</v>
+      </c>
+      <c r="W18" s="19">
+        <v>1</v>
+      </c>
+      <c r="X18" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="20">
         <v>11</v>
       </c>
     </row>
@@ -7654,74 +7626,74 @@
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="17">
-        <v>1</v>
-      </c>
-      <c r="C19" s="18">
-        <v>1</v>
-      </c>
-      <c r="D19" s="18">
-        <v>1</v>
-      </c>
-      <c r="E19" s="18">
-        <v>1</v>
-      </c>
-      <c r="F19" s="18">
-        <v>1</v>
-      </c>
-      <c r="G19" s="18">
-        <v>1</v>
-      </c>
-      <c r="H19" s="18">
-        <v>1</v>
-      </c>
-      <c r="I19" s="18">
-        <v>1</v>
-      </c>
-      <c r="J19" s="18">
-        <v>1</v>
-      </c>
-      <c r="K19" s="18">
-        <v>1</v>
-      </c>
-      <c r="L19" s="19">
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="20">
         <v>10</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="18">
-        <v>1</v>
-      </c>
-      <c r="S19" s="18">
-        <v>1</v>
-      </c>
-      <c r="T19" s="18">
-        <v>1</v>
-      </c>
-      <c r="U19" s="18">
-        <v>1</v>
-      </c>
-      <c r="V19" s="18">
-        <v>1</v>
-      </c>
-      <c r="W19" s="18">
-        <v>1</v>
-      </c>
-      <c r="X19" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="19">
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19">
+        <v>1</v>
+      </c>
+      <c r="S19" s="19">
+        <v>1</v>
+      </c>
+      <c r="T19" s="19">
+        <v>1</v>
+      </c>
+      <c r="U19" s="19">
+        <v>1</v>
+      </c>
+      <c r="V19" s="19">
+        <v>1</v>
+      </c>
+      <c r="W19" s="19">
+        <v>1</v>
+      </c>
+      <c r="X19" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="20">
         <v>10</v>
       </c>
     </row>
@@ -7729,76 +7701,76 @@
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="17">
-        <v>1</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1</v>
-      </c>
-      <c r="D20" s="18">
-        <v>1</v>
-      </c>
-      <c r="E20" s="18">
-        <v>1</v>
-      </c>
-      <c r="F20" s="18">
-        <v>1</v>
-      </c>
-      <c r="G20" s="18">
-        <v>1</v>
-      </c>
-      <c r="H20" s="18">
-        <v>1</v>
-      </c>
-      <c r="I20" s="18">
-        <v>1</v>
-      </c>
-      <c r="J20" s="18">
-        <v>1</v>
-      </c>
-      <c r="K20" s="18">
-        <v>1</v>
-      </c>
-      <c r="L20" s="19">
+      <c r="B20" s="18">
+        <v>1</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20" s="19">
+        <v>1</v>
+      </c>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="19">
+        <v>1</v>
+      </c>
+      <c r="I20" s="19">
+        <v>1</v>
+      </c>
+      <c r="J20" s="19">
+        <v>1</v>
+      </c>
+      <c r="K20" s="19">
+        <v>1</v>
+      </c>
+      <c r="L20" s="20">
         <v>10</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="17">
-        <v>1</v>
-      </c>
-      <c r="R20" s="18">
-        <v>1</v>
-      </c>
-      <c r="S20" s="18">
-        <v>1</v>
-      </c>
-      <c r="T20" s="18">
-        <v>1</v>
-      </c>
-      <c r="U20" s="18">
-        <v>1</v>
-      </c>
-      <c r="V20" s="18">
-        <v>1</v>
-      </c>
-      <c r="W20" s="18">
-        <v>1</v>
-      </c>
-      <c r="X20" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="19">
+      <c r="Q20" s="18">
+        <v>1</v>
+      </c>
+      <c r="R20" s="19">
+        <v>1</v>
+      </c>
+      <c r="S20" s="19">
+        <v>1</v>
+      </c>
+      <c r="T20" s="19">
+        <v>1</v>
+      </c>
+      <c r="U20" s="19">
+        <v>1</v>
+      </c>
+      <c r="V20" s="19">
+        <v>1</v>
+      </c>
+      <c r="W20" s="19">
+        <v>1</v>
+      </c>
+      <c r="X20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="20">
         <v>11</v>
       </c>
     </row>
@@ -7806,76 +7778,76 @@
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="17">
-        <v>1</v>
-      </c>
-      <c r="C21" s="18">
-        <v>1</v>
-      </c>
-      <c r="D21" s="18">
-        <v>1</v>
-      </c>
-      <c r="E21" s="18">
-        <v>1</v>
-      </c>
-      <c r="F21" s="18">
-        <v>1</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>1</v>
-      </c>
-      <c r="I21" s="18">
-        <v>1</v>
-      </c>
-      <c r="J21" s="18">
-        <v>1</v>
-      </c>
-      <c r="K21" s="18">
-        <v>1</v>
-      </c>
-      <c r="L21" s="19">
+      <c r="B21" s="18">
+        <v>1</v>
+      </c>
+      <c r="C21" s="19">
+        <v>1</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="J21" s="19">
+        <v>1</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1</v>
+      </c>
+      <c r="L21" s="20">
         <v>10</v>
       </c>
       <c r="P21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" s="17">
-        <v>1</v>
-      </c>
-      <c r="R21" s="18">
-        <v>1</v>
-      </c>
-      <c r="S21" s="18">
-        <v>1</v>
-      </c>
-      <c r="T21" s="18">
-        <v>1</v>
-      </c>
-      <c r="U21" s="18">
-        <v>1</v>
-      </c>
-      <c r="V21" s="18">
-        <v>1</v>
-      </c>
-      <c r="W21" s="18">
-        <v>1</v>
-      </c>
-      <c r="X21" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="19">
+      <c r="Q21" s="18">
+        <v>1</v>
+      </c>
+      <c r="R21" s="19">
+        <v>1</v>
+      </c>
+      <c r="S21" s="19">
+        <v>1</v>
+      </c>
+      <c r="T21" s="19">
+        <v>1</v>
+      </c>
+      <c r="U21" s="19">
+        <v>1</v>
+      </c>
+      <c r="V21" s="19">
+        <v>1</v>
+      </c>
+      <c r="W21" s="19">
+        <v>1</v>
+      </c>
+      <c r="X21" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="20">
         <v>11</v>
       </c>
     </row>
@@ -7883,76 +7855,76 @@
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="17">
-        <v>1</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1</v>
-      </c>
-      <c r="D22" s="18">
-        <v>1</v>
-      </c>
-      <c r="E22" s="18">
-        <v>1</v>
-      </c>
-      <c r="F22" s="18">
-        <v>1</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1</v>
-      </c>
-      <c r="I22" s="18">
-        <v>1</v>
-      </c>
-      <c r="J22" s="18">
-        <v>1</v>
-      </c>
-      <c r="K22" s="18">
-        <v>1</v>
-      </c>
-      <c r="L22" s="19">
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="19">
+        <v>1</v>
+      </c>
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="19">
+        <v>1</v>
+      </c>
+      <c r="K22" s="19">
+        <v>1</v>
+      </c>
+      <c r="L22" s="20">
         <v>10</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" s="17">
-        <v>1</v>
-      </c>
-      <c r="R22" s="18">
-        <v>1</v>
-      </c>
-      <c r="S22" s="18">
-        <v>1</v>
-      </c>
-      <c r="T22" s="18">
-        <v>1</v>
-      </c>
-      <c r="U22" s="18">
-        <v>1</v>
-      </c>
-      <c r="V22" s="18">
-        <v>1</v>
-      </c>
-      <c r="W22" s="18">
-        <v>1</v>
-      </c>
-      <c r="X22" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="19">
+      <c r="Q22" s="18">
+        <v>1</v>
+      </c>
+      <c r="R22" s="19">
+        <v>1</v>
+      </c>
+      <c r="S22" s="19">
+        <v>1</v>
+      </c>
+      <c r="T22" s="19">
+        <v>1</v>
+      </c>
+      <c r="U22" s="19">
+        <v>1</v>
+      </c>
+      <c r="V22" s="19">
+        <v>1</v>
+      </c>
+      <c r="W22" s="19">
+        <v>1</v>
+      </c>
+      <c r="X22" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="20">
         <v>11</v>
       </c>
     </row>
@@ -7960,76 +7932,76 @@
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="17">
-        <v>1</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1</v>
-      </c>
-      <c r="D23" s="18">
-        <v>1</v>
-      </c>
-      <c r="E23" s="18">
-        <v>1</v>
-      </c>
-      <c r="F23" s="18">
-        <v>1</v>
-      </c>
-      <c r="G23" s="18">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18">
-        <v>1</v>
-      </c>
-      <c r="I23" s="18">
-        <v>1</v>
-      </c>
-      <c r="J23" s="18">
-        <v>1</v>
-      </c>
-      <c r="K23" s="18">
-        <v>1</v>
-      </c>
-      <c r="L23" s="19">
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
+      <c r="C23" s="19">
+        <v>1</v>
+      </c>
+      <c r="D23" s="19">
+        <v>1</v>
+      </c>
+      <c r="E23" s="19">
+        <v>1</v>
+      </c>
+      <c r="F23" s="19">
+        <v>1</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1</v>
+      </c>
+      <c r="I23" s="19">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19">
+        <v>1</v>
+      </c>
+      <c r="K23" s="19">
+        <v>1</v>
+      </c>
+      <c r="L23" s="20">
         <v>10</v>
       </c>
       <c r="P23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" s="17">
-        <v>1</v>
-      </c>
-      <c r="R23" s="18">
-        <v>1</v>
-      </c>
-      <c r="S23" s="18">
-        <v>1</v>
-      </c>
-      <c r="T23" s="18">
-        <v>1</v>
-      </c>
-      <c r="U23" s="18">
-        <v>1</v>
-      </c>
-      <c r="V23" s="18">
-        <v>1</v>
-      </c>
-      <c r="W23" s="18">
-        <v>1</v>
-      </c>
-      <c r="X23" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB23" s="19">
+      <c r="Q23" s="18">
+        <v>1</v>
+      </c>
+      <c r="R23" s="19">
+        <v>1</v>
+      </c>
+      <c r="S23" s="19">
+        <v>1</v>
+      </c>
+      <c r="T23" s="19">
+        <v>1</v>
+      </c>
+      <c r="U23" s="19">
+        <v>1</v>
+      </c>
+      <c r="V23" s="19">
+        <v>1</v>
+      </c>
+      <c r="W23" s="19">
+        <v>1</v>
+      </c>
+      <c r="X23" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="20">
         <v>11</v>
       </c>
     </row>
@@ -8037,74 +8009,74 @@
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="17">
-        <v>1</v>
-      </c>
-      <c r="C24" s="18">
-        <v>1</v>
-      </c>
-      <c r="D24" s="18">
-        <v>1</v>
-      </c>
-      <c r="E24" s="18">
-        <v>1</v>
-      </c>
-      <c r="F24" s="18">
-        <v>1</v>
-      </c>
-      <c r="G24" s="18">
-        <v>1</v>
-      </c>
-      <c r="H24" s="18">
-        <v>1</v>
-      </c>
-      <c r="I24" s="18">
-        <v>1</v>
-      </c>
-      <c r="J24" s="18">
-        <v>1</v>
-      </c>
-      <c r="K24" s="18">
-        <v>1</v>
-      </c>
-      <c r="L24" s="19">
+      <c r="B24" s="18">
+        <v>1</v>
+      </c>
+      <c r="C24" s="19">
+        <v>1</v>
+      </c>
+      <c r="D24" s="19">
+        <v>1</v>
+      </c>
+      <c r="E24" s="19">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1</v>
+      </c>
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1</v>
+      </c>
+      <c r="K24" s="19">
+        <v>1</v>
+      </c>
+      <c r="L24" s="20">
         <v>10</v>
       </c>
       <c r="P24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="18">
-        <v>1</v>
-      </c>
-      <c r="S24" s="18">
-        <v>1</v>
-      </c>
-      <c r="T24" s="18">
-        <v>1</v>
-      </c>
-      <c r="U24" s="18">
-        <v>1</v>
-      </c>
-      <c r="V24" s="18">
-        <v>1</v>
-      </c>
-      <c r="W24" s="18">
-        <v>1</v>
-      </c>
-      <c r="X24" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="19">
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19">
+        <v>1</v>
+      </c>
+      <c r="S24" s="19">
+        <v>1</v>
+      </c>
+      <c r="T24" s="19">
+        <v>1</v>
+      </c>
+      <c r="U24" s="19">
+        <v>1</v>
+      </c>
+      <c r="V24" s="19">
+        <v>1</v>
+      </c>
+      <c r="W24" s="19">
+        <v>1</v>
+      </c>
+      <c r="X24" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="20">
         <v>10</v>
       </c>
     </row>
@@ -8112,76 +8084,76 @@
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="17">
-        <v>1</v>
-      </c>
-      <c r="C25" s="18">
-        <v>1</v>
-      </c>
-      <c r="D25" s="18">
-        <v>1</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
-      <c r="F25" s="18">
-        <v>1</v>
-      </c>
-      <c r="G25" s="18">
-        <v>1</v>
-      </c>
-      <c r="H25" s="18">
-        <v>1</v>
-      </c>
-      <c r="I25" s="18">
-        <v>1</v>
-      </c>
-      <c r="J25" s="18">
-        <v>1</v>
-      </c>
-      <c r="K25" s="18">
-        <v>1</v>
-      </c>
-      <c r="L25" s="19">
+      <c r="B25" s="18">
+        <v>1</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1</v>
+      </c>
+      <c r="D25" s="19">
+        <v>1</v>
+      </c>
+      <c r="E25" s="19">
+        <v>1</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="19">
+        <v>1</v>
+      </c>
+      <c r="I25" s="19">
+        <v>1</v>
+      </c>
+      <c r="J25" s="19">
+        <v>1</v>
+      </c>
+      <c r="K25" s="19">
+        <v>1</v>
+      </c>
+      <c r="L25" s="20">
         <v>10</v>
       </c>
       <c r="P25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" s="17">
-        <v>1</v>
-      </c>
-      <c r="R25" s="18">
-        <v>1</v>
-      </c>
-      <c r="S25" s="18">
-        <v>1</v>
-      </c>
-      <c r="T25" s="18">
-        <v>1</v>
-      </c>
-      <c r="U25" s="18">
-        <v>1</v>
-      </c>
-      <c r="V25" s="18">
-        <v>1</v>
-      </c>
-      <c r="W25" s="18">
-        <v>1</v>
-      </c>
-      <c r="X25" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="19">
+      <c r="Q25" s="18">
+        <v>1</v>
+      </c>
+      <c r="R25" s="19">
+        <v>1</v>
+      </c>
+      <c r="S25" s="19">
+        <v>1</v>
+      </c>
+      <c r="T25" s="19">
+        <v>1</v>
+      </c>
+      <c r="U25" s="19">
+        <v>1</v>
+      </c>
+      <c r="V25" s="19">
+        <v>1</v>
+      </c>
+      <c r="W25" s="19">
+        <v>1</v>
+      </c>
+      <c r="X25" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="20">
         <v>11</v>
       </c>
     </row>
@@ -8189,76 +8161,76 @@
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="17">
-        <v>1</v>
-      </c>
-      <c r="C26" s="18">
-        <v>1</v>
-      </c>
-      <c r="D26" s="18">
-        <v>1</v>
-      </c>
-      <c r="E26" s="18">
-        <v>1</v>
-      </c>
-      <c r="F26" s="18">
-        <v>1</v>
-      </c>
-      <c r="G26" s="18">
-        <v>1</v>
-      </c>
-      <c r="H26" s="18">
-        <v>1</v>
-      </c>
-      <c r="I26" s="18">
-        <v>1</v>
-      </c>
-      <c r="J26" s="18">
-        <v>1</v>
-      </c>
-      <c r="K26" s="18">
-        <v>1</v>
-      </c>
-      <c r="L26" s="19">
+      <c r="B26" s="18">
+        <v>1</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1</v>
+      </c>
+      <c r="D26" s="19">
+        <v>1</v>
+      </c>
+      <c r="E26" s="19">
+        <v>1</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="19">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19">
+        <v>1</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
+      <c r="L26" s="20">
         <v>10</v>
       </c>
       <c r="P26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" s="17">
-        <v>1</v>
-      </c>
-      <c r="R26" s="18">
-        <v>1</v>
-      </c>
-      <c r="S26" s="18">
-        <v>1</v>
-      </c>
-      <c r="T26" s="18">
-        <v>1</v>
-      </c>
-      <c r="U26" s="18">
-        <v>1</v>
-      </c>
-      <c r="V26" s="18">
-        <v>1</v>
-      </c>
-      <c r="W26" s="18">
-        <v>1</v>
-      </c>
-      <c r="X26" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="19">
+      <c r="Q26" s="18">
+        <v>1</v>
+      </c>
+      <c r="R26" s="19">
+        <v>1</v>
+      </c>
+      <c r="S26" s="19">
+        <v>1</v>
+      </c>
+      <c r="T26" s="19">
+        <v>1</v>
+      </c>
+      <c r="U26" s="19">
+        <v>1</v>
+      </c>
+      <c r="V26" s="19">
+        <v>1</v>
+      </c>
+      <c r="W26" s="19">
+        <v>1</v>
+      </c>
+      <c r="X26" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="20">
         <v>11</v>
       </c>
     </row>
@@ -8266,76 +8238,76 @@
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="17">
-        <v>1</v>
-      </c>
-      <c r="C27" s="18">
-        <v>1</v>
-      </c>
-      <c r="D27" s="18">
-        <v>1</v>
-      </c>
-      <c r="E27" s="18">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="18">
-        <v>1</v>
-      </c>
-      <c r="I27" s="18">
-        <v>1</v>
-      </c>
-      <c r="J27" s="18">
-        <v>1</v>
-      </c>
-      <c r="K27" s="18">
-        <v>1</v>
-      </c>
-      <c r="L27" s="19">
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1</v>
+      </c>
+      <c r="D27" s="19">
+        <v>1</v>
+      </c>
+      <c r="E27" s="19">
+        <v>1</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19">
+        <v>1</v>
+      </c>
+      <c r="J27" s="19">
+        <v>1</v>
+      </c>
+      <c r="K27" s="19">
+        <v>1</v>
+      </c>
+      <c r="L27" s="20">
         <v>10</v>
       </c>
       <c r="P27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" s="17">
-        <v>1</v>
-      </c>
-      <c r="R27" s="18">
-        <v>1</v>
-      </c>
-      <c r="S27" s="18">
-        <v>1</v>
-      </c>
-      <c r="T27" s="18">
-        <v>1</v>
-      </c>
-      <c r="U27" s="18">
-        <v>1</v>
-      </c>
-      <c r="V27" s="18">
-        <v>1</v>
-      </c>
-      <c r="W27" s="18">
-        <v>1</v>
-      </c>
-      <c r="X27" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="19">
+      <c r="Q27" s="18">
+        <v>1</v>
+      </c>
+      <c r="R27" s="19">
+        <v>1</v>
+      </c>
+      <c r="S27" s="19">
+        <v>1</v>
+      </c>
+      <c r="T27" s="19">
+        <v>1</v>
+      </c>
+      <c r="U27" s="19">
+        <v>1</v>
+      </c>
+      <c r="V27" s="19">
+        <v>1</v>
+      </c>
+      <c r="W27" s="19">
+        <v>1</v>
+      </c>
+      <c r="X27" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="20">
         <v>11</v>
       </c>
     </row>
@@ -8343,76 +8315,76 @@
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="17">
-        <v>1</v>
-      </c>
-      <c r="C28" s="18">
-        <v>1</v>
-      </c>
-      <c r="D28" s="18">
-        <v>1</v>
-      </c>
-      <c r="E28" s="18">
-        <v>1</v>
-      </c>
-      <c r="F28" s="18">
-        <v>1</v>
-      </c>
-      <c r="G28" s="18">
-        <v>1</v>
-      </c>
-      <c r="H28" s="18">
-        <v>1</v>
-      </c>
-      <c r="I28" s="18">
-        <v>1</v>
-      </c>
-      <c r="J28" s="18">
-        <v>1</v>
-      </c>
-      <c r="K28" s="18">
-        <v>1</v>
-      </c>
-      <c r="L28" s="19">
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="19">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19">
+        <v>1</v>
+      </c>
+      <c r="E28" s="19">
+        <v>1</v>
+      </c>
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1</v>
+      </c>
+      <c r="H28" s="19">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19">
+        <v>1</v>
+      </c>
+      <c r="J28" s="19">
+        <v>1</v>
+      </c>
+      <c r="K28" s="19">
+        <v>1</v>
+      </c>
+      <c r="L28" s="20">
         <v>10</v>
       </c>
       <c r="P28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="17">
-        <v>1</v>
-      </c>
-      <c r="R28" s="18">
-        <v>1</v>
-      </c>
-      <c r="S28" s="18">
-        <v>1</v>
-      </c>
-      <c r="T28" s="18">
-        <v>1</v>
-      </c>
-      <c r="U28" s="18">
-        <v>1</v>
-      </c>
-      <c r="V28" s="18">
-        <v>1</v>
-      </c>
-      <c r="W28" s="18">
-        <v>1</v>
-      </c>
-      <c r="X28" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="19">
+      <c r="Q28" s="18">
+        <v>1</v>
+      </c>
+      <c r="R28" s="19">
+        <v>1</v>
+      </c>
+      <c r="S28" s="19">
+        <v>1</v>
+      </c>
+      <c r="T28" s="19">
+        <v>1</v>
+      </c>
+      <c r="U28" s="19">
+        <v>1</v>
+      </c>
+      <c r="V28" s="19">
+        <v>1</v>
+      </c>
+      <c r="W28" s="19">
+        <v>1</v>
+      </c>
+      <c r="X28" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="20">
         <v>11</v>
       </c>
     </row>
@@ -8420,114 +8392,114 @@
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="17">
-        <v>1</v>
-      </c>
-      <c r="C29" s="18">
-        <v>1</v>
-      </c>
-      <c r="D29" s="18">
-        <v>1</v>
-      </c>
-      <c r="E29" s="18">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18">
-        <v>1</v>
-      </c>
-      <c r="G29" s="18">
-        <v>1</v>
-      </c>
-      <c r="H29" s="18">
-        <v>1</v>
-      </c>
-      <c r="I29" s="18">
-        <v>1</v>
-      </c>
-      <c r="J29" s="18">
-        <v>1</v>
-      </c>
-      <c r="K29" s="18">
-        <v>1</v>
-      </c>
-      <c r="L29" s="19">
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19">
+        <v>1</v>
+      </c>
+      <c r="E29" s="19">
+        <v>1</v>
+      </c>
+      <c r="F29" s="19">
+        <v>1</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="H29" s="19">
+        <v>1</v>
+      </c>
+      <c r="I29" s="19">
+        <v>1</v>
+      </c>
+      <c r="J29" s="19">
+        <v>1</v>
+      </c>
+      <c r="K29" s="19">
+        <v>1</v>
+      </c>
+      <c r="L29" s="20">
         <v>10</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q29" s="20">
+        <v>423</v>
+      </c>
+      <c r="Q29" s="21">
         <v>17</v>
       </c>
-      <c r="R29" s="21">
+      <c r="R29" s="22">
         <v>24</v>
       </c>
-      <c r="S29" s="21">
+      <c r="S29" s="22">
         <v>24</v>
       </c>
-      <c r="T29" s="21">
+      <c r="T29" s="22">
         <v>24</v>
       </c>
-      <c r="U29" s="21">
+      <c r="U29" s="22">
         <v>24</v>
       </c>
-      <c r="V29" s="21">
+      <c r="V29" s="22">
         <v>24</v>
       </c>
-      <c r="W29" s="21">
+      <c r="W29" s="22">
         <v>24</v>
       </c>
-      <c r="X29" s="21">
+      <c r="X29" s="22">
         <v>24</v>
       </c>
-      <c r="Y29" s="21">
+      <c r="Y29" s="22">
         <v>24</v>
       </c>
-      <c r="Z29" s="21">
+      <c r="Z29" s="22">
         <v>24</v>
       </c>
-      <c r="AA29" s="21">
+      <c r="AA29" s="22">
         <v>24</v>
       </c>
-      <c r="AB29" s="22">
+      <c r="AB29" s="23">
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="B30" s="20">
+        <v>423</v>
+      </c>
+      <c r="B30" s="21">
         <v>25</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="22">
         <v>25</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="22">
         <v>25</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="22">
         <v>25</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="22">
         <v>25</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="22">
         <v>25</v>
       </c>
-      <c r="H30" s="21">
+      <c r="H30" s="22">
         <v>25</v>
       </c>
-      <c r="I30" s="21">
+      <c r="I30" s="22">
         <v>25</v>
       </c>
-      <c r="J30" s="21">
+      <c r="J30" s="22">
         <v>25</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="22">
         <v>25</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="23">
         <v>250</v>
       </c>
     </row>
@@ -9525,15 +9497,15 @@
   <sheetData>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B4">
         <v>2013</v>
@@ -9569,47 +9541,47 @@
         <v>2023</v>
       </c>
       <c r="M4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5">
         <v>68</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5">
         <v>347</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5">
         <v>478</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5">
         <v>273</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5">
         <v>868</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5">
         <v>267</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5">
         <v>263</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5">
         <v>716</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5">
         <v>869</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5">
         <v>785</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5">
         <v>1269</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5">
         <v>6203</v>
       </c>
     </row>
@@ -9617,40 +9589,40 @@
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="25">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0</v>
-      </c>
-      <c r="D6" s="25">
-        <v>0</v>
-      </c>
-      <c r="E6" s="25">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="25">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <v>0</v>
-      </c>
-      <c r="J6" s="25">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-      <c r="M6" s="25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0</v>
       </c>
     </row>
@@ -9658,38 +9630,37 @@
       <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26">
+      <c r="C7" s="14">
         <v>1971</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="14">
         <v>2071</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="14">
         <v>2171</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7">
         <v>1851</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7">
         <v>2171</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7">
         <v>1227</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7">
         <v>2980</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7">
         <v>4498</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7">
         <v>4413</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7">
         <v>4733</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7">
         <v>28086</v>
       </c>
     </row>
@@ -9697,40 +9668,40 @@
       <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25">
-        <v>0</v>
-      </c>
-      <c r="C8" s="25">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>230</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="E8" s="25">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>16</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8">
         <v>72</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8">
         <v>110</v>
       </c>
-      <c r="I8" s="25">
-        <v>0</v>
-      </c>
-      <c r="J8" s="25">
-        <v>0</v>
-      </c>
-      <c r="K8" s="25">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>56</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8">
         <v>20</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8">
         <v>524</v>
       </c>
     </row>
@@ -9738,40 +9709,40 @@
       <c r="A9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="25">
-        <v>0</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="25">
-        <v>0</v>
-      </c>
-      <c r="E9" s="25">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0</v>
-      </c>
-      <c r="G9" s="25">
-        <v>0</v>
-      </c>
-      <c r="H9" s="25">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
-        <v>0</v>
-      </c>
-      <c r="J9" s="25">
-        <v>0</v>
-      </c>
-      <c r="K9" s="25">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
-        <v>0</v>
-      </c>
-      <c r="M9" s="25">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
     </row>
@@ -9779,40 +9750,40 @@
       <c r="A10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10">
         <v>53</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10">
         <v>113</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10">
         <v>65</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10">
         <v>62</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10">
         <v>56</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10">
         <v>260</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10">
         <v>104</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10">
         <v>289</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10">
         <v>72</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10">
         <v>84</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10">
         <v>5387</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10">
         <v>6545</v>
       </c>
     </row>
@@ -9820,38 +9791,37 @@
       <c r="A11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25">
+      <c r="C11">
         <v>173</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11">
         <v>398</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11">
         <v>770</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11">
         <v>1924</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11">
         <v>431</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11">
         <v>1502</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11">
         <v>5029</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11">
         <v>1525</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11">
         <v>3328</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11">
         <v>1828</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11">
         <v>16908</v>
       </c>
     </row>
@@ -9859,38 +9829,37 @@
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25">
+      <c r="C12">
         <v>1990</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12">
         <v>2547</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12">
         <v>2109</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12">
         <v>2465</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12">
         <v>2236</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12">
         <v>2065</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12">
         <v>2259</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12">
         <v>2350</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12">
         <v>2382</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12">
         <v>3525</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12">
         <v>23928</v>
       </c>
     </row>
@@ -9898,38 +9867,37 @@
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25">
-        <v>0</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25">
-        <v>0</v>
-      </c>
-      <c r="G13" s="25">
-        <v>0</v>
-      </c>
-      <c r="H13" s="25">
-        <v>0</v>
-      </c>
-      <c r="I13" s="25">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>2</v>
       </c>
-      <c r="J13" s="25">
-        <v>1</v>
-      </c>
-      <c r="K13" s="25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>187</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13">
         <v>226</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13">
         <v>416</v>
       </c>
     </row>
@@ -9937,40 +9905,40 @@
       <c r="A14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25">
-        <v>0</v>
-      </c>
-      <c r="C14" s="25">
-        <v>0</v>
-      </c>
-      <c r="D14" s="25">
-        <v>0</v>
-      </c>
-      <c r="E14" s="25">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-      <c r="G14" s="25">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25">
-        <v>0</v>
-      </c>
-      <c r="J14" s="25">
-        <v>0</v>
-      </c>
-      <c r="K14" s="25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>149</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14">
         <v>120</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14">
         <v>269</v>
       </c>
     </row>
@@ -9978,38 +9946,37 @@
       <c r="A15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25">
+      <c r="C15">
         <v>6301</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15">
         <v>1489</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15">
         <v>1732</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15">
         <v>1831</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15">
         <v>971</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15">
         <v>612</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15">
         <v>836</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15">
         <v>1801</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15">
         <v>213</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15">
         <v>1165</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15">
         <v>16951</v>
       </c>
     </row>
@@ -10017,79 +9984,78 @@
       <c r="A16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="25">
-        <v>0</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="25">
-        <v>0</v>
-      </c>
-      <c r="E16" s="25">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16">
         <v>10</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16">
         <v>130</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16">
         <v>848</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16">
         <v>39</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16">
         <v>30</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16">
         <v>851</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16">
         <v>1911</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25">
-        <v>0</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
+        <v>424</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>165</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17">
         <v>725</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17">
         <v>29</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17">
         <v>114</v>
       </c>
-      <c r="J17" s="25">
-        <v>0</v>
-      </c>
-      <c r="K17" s="25">
-        <v>0</v>
-      </c>
-      <c r="L17" s="25">
-        <v>0</v>
-      </c>
-      <c r="M17" s="25">
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
         <v>1033</v>
       </c>
     </row>
@@ -10097,40 +10063,40 @@
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18">
         <v>1175</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18">
         <v>226</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18">
         <v>797</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18">
         <v>1185</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18">
         <v>360</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18">
         <v>2503</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18">
         <v>488</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18">
         <v>787</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18">
         <v>1038</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18">
         <v>705</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18">
         <v>764</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18">
         <v>10028</v>
       </c>
     </row>
@@ -10138,40 +10104,40 @@
       <c r="A19" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19">
         <v>129</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19">
         <v>1968</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19">
         <v>1968</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19">
         <v>738</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19">
         <v>12</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19">
         <v>2740</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19">
         <v>2183</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19">
         <v>1625</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19">
         <v>1834</v>
       </c>
-      <c r="K19" s="25">
+      <c r="K19">
         <v>2076</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19">
         <v>382</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19">
         <v>15655</v>
       </c>
     </row>
@@ -10179,38 +10145,37 @@
       <c r="A20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25">
+      <c r="C20">
         <v>100</v>
       </c>
-      <c r="D20" s="25">
-        <v>0</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
         <v>50</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20">
         <v>454</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20">
         <v>637</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20">
         <v>117</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20">
         <v>299</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20">
         <v>2503</v>
       </c>
-      <c r="K20" s="25">
+      <c r="K20">
         <v>830</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20">
         <v>2458</v>
       </c>
-      <c r="M20" s="25">
+      <c r="M20">
         <v>7448</v>
       </c>
     </row>
@@ -10218,38 +10183,37 @@
       <c r="A21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25">
+      <c r="C21">
         <v>119</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21">
         <v>28</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21">
         <v>80</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21">
         <v>100</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21">
         <v>114</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21">
         <v>156</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21">
         <v>144</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21">
         <v>172</v>
       </c>
-      <c r="K21" s="25">
+      <c r="K21">
         <v>166</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21">
         <v>222</v>
       </c>
-      <c r="M21" s="25">
+      <c r="M21">
         <v>1301</v>
       </c>
     </row>
@@ -10257,40 +10221,40 @@
       <c r="A22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22">
         <v>5</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22">
         <v>5</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22">
         <v>5</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="25">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>10</v>
       </c>
-      <c r="J22" s="25">
-        <v>0</v>
-      </c>
-      <c r="K22" s="25">
-        <v>0</v>
-      </c>
-      <c r="L22" s="25">
-        <v>0</v>
-      </c>
-      <c r="M22" s="25">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>40</v>
       </c>
     </row>
@@ -10298,40 +10262,40 @@
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23">
         <v>1610</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23">
         <v>56</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23">
         <v>544</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23">
         <v>200</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23">
         <v>500</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23">
         <v>414</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23">
         <v>558</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23">
         <v>1092</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23">
         <v>694</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23">
         <v>530</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23">
         <v>2007</v>
       </c>
-      <c r="M23" s="25">
+      <c r="M23">
         <v>8205</v>
       </c>
     </row>
@@ -10339,40 +10303,40 @@
       <c r="A24" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="25">
-        <v>0</v>
-      </c>
-      <c r="C24" s="25">
-        <v>0</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0</v>
-      </c>
-      <c r="H24" s="25">
-        <v>0</v>
-      </c>
-      <c r="I24" s="25">
-        <v>0</v>
-      </c>
-      <c r="J24" s="25">
-        <v>0</v>
-      </c>
-      <c r="K24" s="25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>19</v>
       </c>
-      <c r="L24" s="25">
-        <v>0</v>
-      </c>
-      <c r="M24" s="25">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>19</v>
       </c>
     </row>
@@ -10380,40 +10344,40 @@
       <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25">
         <v>195</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25">
         <v>25</v>
       </c>
-      <c r="D25" s="25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
         <v>10</v>
       </c>
-      <c r="F25" s="25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="25">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>129</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25">
         <v>371</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25">
         <v>500</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25">
         <v>2482</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25">
         <v>3712</v>
       </c>
     </row>
@@ -10421,38 +10385,37 @@
       <c r="A26" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="27">
-        <v>0</v>
-      </c>
-      <c r="D26" s="27">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="25">
-        <v>0</v>
-      </c>
-      <c r="J26" s="25">
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>17</v>
       </c>
-      <c r="K26" s="25">
-        <v>0</v>
-      </c>
-      <c r="L26" s="25">
-        <v>0</v>
-      </c>
-      <c r="M26" s="25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>17</v>
       </c>
     </row>
@@ -10460,40 +10423,40 @@
       <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="25">
-        <v>0</v>
-      </c>
-      <c r="C27" s="25">
-        <v>0</v>
-      </c>
-      <c r="D27" s="25">
-        <v>0</v>
-      </c>
-      <c r="E27" s="25">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25">
-        <v>0</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="25">
-        <v>0</v>
-      </c>
-      <c r="I27" s="25">
-        <v>0</v>
-      </c>
-      <c r="J27" s="25">
-        <v>0</v>
-      </c>
-      <c r="K27" s="25">
-        <v>0</v>
-      </c>
-      <c r="L27" s="25">
-        <v>0</v>
-      </c>
-      <c r="M27" s="25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
     </row>
@@ -10501,40 +10464,40 @@
       <c r="A28" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28">
         <v>242</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28">
         <v>318</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28">
         <v>956</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28">
         <v>533</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28">
         <v>1599</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28">
         <v>1572</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28">
         <v>1039</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28">
         <v>39</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28">
         <v>1702</v>
       </c>
-      <c r="K28" s="25">
+      <c r="K28">
         <v>1040</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28">
         <v>88</v>
       </c>
-      <c r="M28" s="25">
+      <c r="M28">
         <v>9128</v>
       </c>
     </row>
@@ -10542,40 +10505,40 @@
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29">
         <v>2791</v>
       </c>
-      <c r="C29" s="25">
+      <c r="C29">
         <v>1018</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29">
         <v>1986</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29">
         <v>958</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29">
         <v>1374</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29">
         <v>1569</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29">
         <v>3274</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29">
         <v>3818</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29">
         <v>4061</v>
       </c>
-      <c r="K29" s="25">
+      <c r="K29">
         <v>3177</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29">
         <v>1257</v>
       </c>
-      <c r="M29" s="25">
+      <c r="M29">
         <v>25283</v>
       </c>
     </row>
@@ -10583,87 +10546,87 @@
       <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30">
         <v>313</v>
       </c>
-      <c r="C30" s="25">
+      <c r="C30">
         <v>4568</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30">
         <v>2251</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30">
         <v>689</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30">
         <v>2106</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30">
         <v>516</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30">
         <v>207</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30">
         <v>950</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30">
         <v>533</v>
       </c>
-      <c r="K30" s="25">
+      <c r="K30">
         <v>1667</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30">
         <v>2737</v>
       </c>
-      <c r="M30" s="25">
+      <c r="M30">
         <v>16537</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="B31" s="25">
+        <v>423</v>
+      </c>
+      <c r="B31">
         <v>6581</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31">
         <v>19528</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31">
         <v>15603</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31">
         <v>11565</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31">
         <v>15689</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31">
         <v>17213</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31">
         <v>14064</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31">
         <v>21966</v>
       </c>
-      <c r="J31" s="25">
+      <c r="J31">
         <v>24080</v>
       </c>
-      <c r="K31" s="25">
+      <c r="K31">
         <v>22337</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31">
         <v>31521</v>
       </c>
-      <c r="M31" s="25">
+      <c r="M31">
         <v>200147</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting pivot="1" sqref="B5:L30">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10676,7 +10639,7 @@
   <dimension ref="A1:E1024"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:D26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10963,9 +10926,7 @@
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
@@ -10981,7 +10942,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>54</v>
@@ -10998,7 +10959,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>54</v>
@@ -11015,10 +10976,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -11032,10 +10993,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -11062,10 +11023,10 @@
         <v>4</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -11074,42 +11035,42 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23" t="s">
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
         <v>1971</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
         <v>2071</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1">
         <v>2171</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="1">
         <v>2016</v>
       </c>
     </row>
@@ -11118,10 +11079,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D27" s="1">
         <v>1851</v>
@@ -11135,10 +11096,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D28" s="1">
         <v>2171</v>
@@ -11152,10 +11113,10 @@
         <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D29" s="1">
         <v>1227</v>
@@ -11195,10 +11156,10 @@
         <v>5</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="11">
         <v>4413</v>
@@ -11212,10 +11173,10 @@
         <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="11">
         <v>4733</v>
@@ -11229,10 +11190,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -11246,10 +11207,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D35" s="1">
         <v>230</v>
@@ -11289,10 +11250,10 @@
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D38" s="1">
         <v>16</v>
@@ -11306,10 +11267,10 @@
         <v>6</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D39" s="1">
         <v>72</v>
@@ -11323,10 +11284,10 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D40" s="1">
         <v>110</v>
@@ -11340,10 +11301,10 @@
         <v>6</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -11357,10 +11318,10 @@
         <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="1">
         <v>0</v>
@@ -11374,10 +11335,10 @@
         <v>6</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D43" s="1">
         <v>56</v>
@@ -11391,10 +11352,10 @@
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D44" s="1">
         <v>20</v>
@@ -11408,10 +11369,10 @@
         <v>7</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="1">
         <v>0</v>
@@ -11451,10 +11412,10 @@
         <v>7</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D48" s="1">
         <v>0</v>
@@ -11468,10 +11429,10 @@
         <v>7</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -11511,10 +11472,10 @@
         <v>7</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -11528,10 +11489,10 @@
         <v>7</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="D53" s="1">
         <v>0</v>
@@ -11571,10 +11532,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="D56" s="1">
         <v>53</v>
@@ -11588,10 +11549,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="D57" s="1">
         <v>113</v>
@@ -11605,10 +11566,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D58" s="1">
         <v>65</v>
@@ -11622,10 +11583,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="D59" s="1">
         <v>62</v>
@@ -11639,10 +11600,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="D60" s="1">
         <v>56</v>
@@ -11656,10 +11617,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="D61" s="1">
         <v>260</v>
@@ -11673,10 +11634,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="D62" s="1">
         <v>104</v>
@@ -11690,10 +11651,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63" s="10">
         <v>289</v>
@@ -11707,10 +11668,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="10">
         <v>72</v>
@@ -11724,10 +11685,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" s="10">
         <v>84</v>
@@ -11754,10 +11715,10 @@
         <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D67" s="1">
         <v>173</v>
@@ -11771,10 +11732,10 @@
         <v>9</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D68" s="1">
         <v>398</v>
@@ -11788,10 +11749,10 @@
         <v>9</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D69" s="1">
         <v>770</v>
@@ -11805,10 +11766,10 @@
         <v>9</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D70" s="1">
         <v>1924</v>
@@ -11822,10 +11783,10 @@
         <v>9</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D71" s="1">
         <v>431</v>
@@ -11839,10 +11800,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D72" s="1">
         <v>1502</v>
@@ -11856,10 +11817,10 @@
         <v>9</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D73" s="1">
         <v>5029</v>
@@ -11873,10 +11834,10 @@
         <v>9</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D74" s="1">
         <v>1525</v>
@@ -11890,10 +11851,10 @@
         <v>9</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D75" s="1">
         <v>3328</v>
@@ -11907,10 +11868,10 @@
         <v>9</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D76" s="1">
         <v>1828</v>
@@ -11950,10 +11911,10 @@
         <v>10</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D79" s="1">
         <v>2109</v>
@@ -11967,10 +11928,10 @@
         <v>10</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D80" s="1">
         <v>2465</v>
@@ -11984,10 +11945,10 @@
         <v>10</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D81" s="1">
         <v>2236</v>
@@ -12001,10 +11962,10 @@
         <v>10</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D82" s="1">
         <v>2065</v>
@@ -12044,10 +12005,10 @@
         <v>10</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D85" s="1">
         <v>2382</v>
@@ -12061,10 +12022,10 @@
         <v>10</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D86" s="1">
         <v>3525</v>
@@ -12078,10 +12039,10 @@
         <v>11</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -12108,10 +12069,10 @@
         <v>11</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D89" s="1">
         <v>0</v>
@@ -12125,10 +12086,10 @@
         <v>11</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D90" s="1">
         <v>0</v>
@@ -12142,10 +12103,10 @@
         <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D91" s="1">
         <v>0</v>
@@ -12159,10 +12120,10 @@
         <v>11</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D92" s="1">
         <v>0</v>
@@ -12176,10 +12137,10 @@
         <v>11</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D93" s="1">
         <v>2</v>
@@ -12193,10 +12154,10 @@
         <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -12210,10 +12171,10 @@
         <v>11</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D95" s="1">
         <v>187</v>
@@ -12227,10 +12188,10 @@
         <v>11</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D96" s="1">
         <v>226</v>
@@ -12244,10 +12205,10 @@
         <v>12</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D97" s="1">
         <v>0</v>
@@ -12261,10 +12222,10 @@
         <v>12</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D98" s="1">
         <v>0</v>
@@ -12278,10 +12239,10 @@
         <v>12</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
@@ -12295,10 +12256,10 @@
         <v>12</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
@@ -12312,10 +12273,10 @@
         <v>12</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
@@ -12329,10 +12290,10 @@
         <v>12</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -12346,10 +12307,10 @@
         <v>12</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -12363,10 +12324,10 @@
         <v>12</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -12380,10 +12341,10 @@
         <v>12</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -12410,10 +12371,10 @@
         <v>12</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="D107" s="1">
         <v>120</v>
@@ -12427,10 +12388,10 @@
         <v>13</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="D108" s="1">
         <v>6301</v>
@@ -12444,10 +12405,10 @@
         <v>13</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D109" s="1">
         <v>1489</v>
@@ -12461,10 +12422,10 @@
         <v>13</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D110" s="1">
         <v>1732</v>
@@ -12478,10 +12439,10 @@
         <v>13</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D111" s="1">
         <v>1831</v>
@@ -12495,10 +12456,10 @@
         <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="D112" s="1">
         <v>971</v>
@@ -12512,10 +12473,10 @@
         <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="D113" s="1">
         <v>612</v>
@@ -12529,10 +12490,10 @@
         <v>13</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D114" s="1">
         <v>836</v>
@@ -12546,10 +12507,10 @@
         <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D115" s="11">
         <v>1801</v>
@@ -12563,10 +12524,10 @@
         <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D116" s="11">
         <v>213</v>
@@ -12593,10 +12554,10 @@
         <v>14</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D118" s="1">
         <v>0</v>
@@ -12610,10 +12571,10 @@
         <v>14</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D119" s="1">
         <v>0</v>
@@ -12627,10 +12588,10 @@
         <v>14</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -12644,10 +12605,10 @@
         <v>14</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -12661,10 +12622,10 @@
         <v>14</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D122" s="1">
         <v>3</v>
@@ -12678,10 +12639,10 @@
         <v>14</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D123" s="1">
         <v>10</v>
@@ -12695,10 +12656,10 @@
         <v>14</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="D124" s="1">
         <v>130</v>
@@ -12712,10 +12673,10 @@
         <v>14</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="D125" s="1">
         <v>848</v>
@@ -12729,10 +12690,10 @@
         <v>14</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D126" s="1">
         <v>39</v>
@@ -12746,10 +12707,10 @@
         <v>14</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D127" s="1">
         <v>30</v>
@@ -12763,10 +12724,10 @@
         <v>14</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="D128" s="1">
         <v>851</v>
@@ -12780,10 +12741,10 @@
         <v>15</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D129" s="1">
         <v>1175</v>
@@ -12797,10 +12758,10 @@
         <v>15</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D130" s="1">
         <v>226</v>
@@ -12814,10 +12775,10 @@
         <v>15</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="D131" s="1">
         <v>797</v>
@@ -12831,10 +12792,10 @@
         <v>15</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="D132" s="1">
         <v>1185</v>
@@ -12848,10 +12809,10 @@
         <v>15</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D133" s="1">
         <v>360</v>
@@ -12865,10 +12826,10 @@
         <v>15</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D134" s="1">
         <v>2503</v>
@@ -12882,10 +12843,10 @@
         <v>15</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D135" s="1">
         <v>488</v>
@@ -12899,10 +12860,10 @@
         <v>15</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D136" s="1">
         <v>787</v>
@@ -12916,10 +12877,10 @@
         <v>15</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D137" s="1">
         <v>1038</v>
@@ -12933,10 +12894,10 @@
         <v>15</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D138" s="1">
         <v>705</v>
@@ -12950,10 +12911,10 @@
         <v>15</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D139" s="1">
         <v>764</v>
@@ -12967,10 +12928,10 @@
         <v>16</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D140" s="1">
         <v>129</v>
@@ -12997,10 +12958,10 @@
         <v>16</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D142" s="1">
         <v>1968</v>
@@ -13014,10 +12975,10 @@
         <v>16</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="D143" s="1">
         <v>738</v>
@@ -13031,10 +12992,10 @@
         <v>16</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="D144" s="1">
         <v>12</v>
@@ -13048,10 +13009,10 @@
         <v>16</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="D145" s="1">
         <v>2740</v>
@@ -13065,10 +13026,10 @@
         <v>16</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D146" s="1">
         <v>2183</v>
@@ -13082,10 +13043,10 @@
         <v>16</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="D147" s="1">
         <v>1625</v>
@@ -13099,10 +13060,10 @@
         <v>16</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="D148" s="1">
         <v>1834</v>
@@ -13116,10 +13077,10 @@
         <v>16</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="D149" s="1">
         <v>2076</v>
@@ -13133,10 +13094,10 @@
         <v>16</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="D150" s="1">
         <v>382</v>
@@ -13150,10 +13111,10 @@
         <v>17</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="D151" s="1">
         <v>100</v>
@@ -13167,10 +13128,10 @@
         <v>17</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="D152" s="1">
         <v>0</v>
@@ -13184,10 +13145,10 @@
         <v>17</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="D153" s="1">
         <v>50</v>
@@ -13201,10 +13162,10 @@
         <v>17</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="D154" s="1">
         <v>454</v>
@@ -13218,10 +13179,10 @@
         <v>17</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="D155" s="1">
         <v>637</v>
@@ -13235,10 +13196,10 @@
         <v>17</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="D156" s="1">
         <v>117</v>
@@ -13274,10 +13235,10 @@
         <v>17</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D159" s="1">
         <v>830</v>
@@ -13291,10 +13252,10 @@
         <v>17</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D160" s="1">
         <v>2458</v>
@@ -13308,10 +13269,10 @@
         <v>19</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>276</v>
       </c>
       <c r="D161" s="1">
         <v>5</v>
@@ -13325,10 +13286,10 @@
         <v>19</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D162" s="1">
         <v>5</v>
@@ -13342,10 +13303,10 @@
         <v>19</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D163" s="1">
         <v>5</v>
@@ -13359,10 +13320,10 @@
         <v>19</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D164" s="1">
         <v>5</v>
@@ -13376,10 +13337,10 @@
         <v>19</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="D165" s="1">
         <v>5</v>
@@ -13393,10 +13354,10 @@
         <v>19</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D166" s="1">
         <v>5</v>
@@ -13410,10 +13371,10 @@
         <v>19</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D167" s="1">
         <v>0</v>
@@ -13427,10 +13388,10 @@
         <v>19</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D168" s="1">
         <v>10</v>
@@ -13444,10 +13405,10 @@
         <v>19</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>287</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>288</v>
       </c>
       <c r="D169" s="1">
         <v>0</v>
@@ -13461,10 +13422,10 @@
         <v>19</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D170" s="1">
         <v>0</v>
@@ -13478,10 +13439,10 @@
         <v>19</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D171" s="1">
         <v>0</v>
@@ -13495,10 +13456,10 @@
         <v>20</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D172" s="1">
         <v>1610</v>
@@ -13512,10 +13473,10 @@
         <v>20</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="D173" s="1">
         <v>56</v>
@@ -13529,10 +13490,10 @@
         <v>20</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="D174" s="1">
         <v>544</v>
@@ -13546,10 +13507,10 @@
         <v>20</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="D175" s="1">
         <v>200</v>
@@ -13563,10 +13524,10 @@
         <v>20</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="D176" s="1">
         <v>500</v>
@@ -13580,10 +13541,10 @@
         <v>20</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="D177" s="1">
         <v>414</v>
@@ -13597,10 +13558,10 @@
         <v>20</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="D178" s="1">
         <v>558</v>
@@ -13614,10 +13575,10 @@
         <v>20</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D179" s="1">
         <v>1092</v>
@@ -13631,10 +13592,10 @@
         <v>20</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D180" s="1">
         <v>694</v>
@@ -13648,10 +13609,10 @@
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D181" s="1">
         <v>530</v>
@@ -13665,10 +13626,10 @@
         <v>20</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D182" s="1">
         <v>2007</v>
@@ -13682,10 +13643,10 @@
         <v>21</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D183" s="1">
         <v>0</v>
@@ -13699,10 +13660,10 @@
         <v>21</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D184" s="1">
         <v>0</v>
@@ -13716,10 +13677,10 @@
         <v>21</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D185" s="1">
         <v>0</v>
@@ -13733,10 +13694,10 @@
         <v>21</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D186" s="1">
         <v>0</v>
@@ -13750,10 +13711,10 @@
         <v>21</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D187" s="1">
         <v>0</v>
@@ -13767,10 +13728,10 @@
         <v>21</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D188" s="1">
         <v>0</v>
@@ -13784,10 +13745,10 @@
         <v>21</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D189" s="1">
         <v>0</v>
@@ -13801,10 +13762,10 @@
         <v>21</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D190" s="1">
         <v>0</v>
@@ -13818,10 +13779,10 @@
         <v>21</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D191" s="1">
         <v>0</v>
@@ -13835,10 +13796,10 @@
         <v>21</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D192" s="1">
         <v>19</v>
@@ -13852,10 +13813,10 @@
         <v>21</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D193" s="1">
         <v>0</v>
@@ -13869,10 +13830,10 @@
         <v>22</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="D194" s="1">
         <v>195</v>
@@ -13886,10 +13847,10 @@
         <v>22</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="D195" s="1">
         <v>25</v>
@@ -13929,10 +13890,10 @@
         <v>22</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="D198" s="1">
         <v>0</v>
@@ -13946,10 +13907,10 @@
         <v>22</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D199" s="1">
         <v>0</v>
@@ -13963,10 +13924,10 @@
         <v>22</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="D200" s="1">
         <v>0</v>
@@ -13980,10 +13941,10 @@
         <v>22</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D201" s="1">
         <v>129</v>
@@ -13997,10 +13958,10 @@
         <v>22</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="D202" s="1">
         <v>371</v>
@@ -14014,10 +13975,10 @@
         <v>22</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D203" s="1">
         <v>500</v>
@@ -14031,10 +13992,10 @@
         <v>22</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="D204" s="1">
         <v>2482</v>
@@ -14043,42 +14004,42 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="205" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="23" t="s">
+    <row r="205" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B205" s="23"/>
-      <c r="C205" s="23"/>
-      <c r="D205" s="23">
-        <v>0</v>
-      </c>
-      <c r="E205" s="23">
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1">
+        <v>0</v>
+      </c>
+      <c r="E205" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="206" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="23" t="s">
+    <row r="206" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B206" s="23"/>
-      <c r="C206" s="23"/>
-      <c r="D206" s="23">
-        <v>0</v>
-      </c>
-      <c r="E206" s="23">
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1">
+        <v>0</v>
+      </c>
+      <c r="E206" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="207" spans="1:5" s="24" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="23" t="s">
+    <row r="207" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B207" s="23"/>
-      <c r="C207" s="23"/>
-      <c r="D207" s="23">
-        <v>0</v>
-      </c>
-      <c r="E207" s="23">
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1">
+        <v>0</v>
+      </c>
+      <c r="E207" s="1">
         <v>2016</v>
       </c>
     </row>
@@ -14087,10 +14048,10 @@
         <v>23</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -14104,10 +14065,10 @@
         <v>23</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -14121,7 +14082,7 @@
         <v>23</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>54</v>
@@ -14138,10 +14099,10 @@
         <v>23</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D211" s="11">
         <v>0</v>
@@ -14155,10 +14116,10 @@
         <v>23</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D212">
         <v>17</v>
@@ -14172,10 +14133,10 @@
         <v>23</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -14189,10 +14150,10 @@
         <v>23</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -14206,10 +14167,10 @@
         <v>24</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="D215" s="1">
         <v>0</v>
@@ -14223,10 +14184,10 @@
         <v>24</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="D216" s="1">
         <v>0</v>
@@ -14240,10 +14201,10 @@
         <v>24</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D217" s="1">
         <v>0</v>
@@ -14257,10 +14218,10 @@
         <v>24</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D218" s="1">
         <v>0</v>
@@ -14274,10 +14235,10 @@
         <v>24</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D219" s="1">
         <v>0</v>
@@ -14291,10 +14252,10 @@
         <v>24</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="D220" s="1">
         <v>0</v>
@@ -14308,10 +14269,10 @@
         <v>24</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D221" s="1">
         <v>0</v>
@@ -14325,10 +14286,10 @@
         <v>24</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="D222" s="1">
         <v>0</v>
@@ -14364,10 +14325,10 @@
         <v>24</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D225" s="1">
         <v>0</v>
@@ -14381,10 +14342,10 @@
         <v>25</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="D226" s="1">
         <v>242</v>
@@ -14398,10 +14359,10 @@
         <v>25</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="D227" s="1">
         <v>318</v>
@@ -14415,10 +14376,10 @@
         <v>25</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D228" s="1">
         <v>956</v>
@@ -14432,10 +14393,10 @@
         <v>25</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="D229" s="1">
         <v>533</v>
@@ -14449,10 +14410,10 @@
         <v>25</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="D230" s="1">
         <v>1599</v>
@@ -14466,10 +14427,10 @@
         <v>25</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="D231" s="1">
         <v>1572</v>
@@ -14494,10 +14455,10 @@
         <v>25</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="D233" s="1">
         <v>39</v>
@@ -14511,10 +14472,10 @@
         <v>25</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="D234" s="1">
         <v>1702</v>
@@ -14528,10 +14489,10 @@
         <v>25</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="D235" s="1">
         <v>1040</v>
@@ -14545,10 +14506,10 @@
         <v>25</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="D236" s="1">
         <v>88</v>
@@ -14562,10 +14523,10 @@
         <v>26</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="D237" s="1">
         <v>2791</v>
@@ -14579,10 +14540,10 @@
         <v>26</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="D238" s="1">
         <v>1018</v>
@@ -14596,10 +14557,10 @@
         <v>26</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="D239" s="1">
         <v>1986</v>
@@ -14613,10 +14574,10 @@
         <v>26</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="D240" s="1">
         <v>958</v>
@@ -14630,10 +14591,10 @@
         <v>26</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="D241" s="1">
         <v>1374</v>
@@ -14647,10 +14608,10 @@
         <v>26</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D242" s="1">
         <v>1569</v>
@@ -14675,10 +14636,10 @@
         <v>26</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="D244" s="1">
         <v>3818</v>
@@ -14714,10 +14675,10 @@
         <v>26</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>394</v>
       </c>
       <c r="D247" s="1">
         <v>1257</v>
@@ -14731,10 +14692,10 @@
         <v>27</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="D248" s="1">
         <v>313</v>
@@ -14759,10 +14720,10 @@
         <v>27</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="D250" s="1">
         <v>2251</v>
@@ -14787,10 +14748,10 @@
         <v>27</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="D252" s="1">
         <v>2106</v>
@@ -14837,10 +14798,10 @@
         <v>27</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="D256" s="1">
         <v>533</v>
@@ -14876,10 +14837,10 @@
         <v>18</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="D259" s="1">
         <v>119</v>
@@ -14894,10 +14855,10 @@
         <v>18</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="D260" s="1">
         <v>28</v>
@@ -14912,10 +14873,10 @@
         <v>18</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="D261" s="1">
         <v>80</v>
@@ -14930,10 +14891,10 @@
         <v>18</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="C262" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="D262" s="1">
         <v>100</v>
@@ -14948,10 +14909,10 @@
         <v>18</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="D263" s="1">
         <v>114</v>
@@ -14966,10 +14927,10 @@
         <v>18</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="D264" s="1">
         <v>156</v>
@@ -14984,10 +14945,10 @@
         <v>18</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D265" s="1">
         <v>144</v>
@@ -15002,10 +14963,10 @@
         <v>18</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="D266" s="1">
         <v>172</v>
@@ -15020,10 +14981,10 @@
         <v>18</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="D267" s="1">
         <v>166</v>
@@ -15038,10 +14999,10 @@
         <v>18</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="D268" s="1">
         <v>222</v>
@@ -15053,7 +15014,7 @@
     </row>
     <row r="269" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D269" s="11">
         <v>0</v>
@@ -15064,7 +15025,7 @@
     </row>
     <row r="270" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D270" s="11">
         <v>0</v>
@@ -15075,7 +15036,7 @@
     </row>
     <row r="271" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D271" s="11">
         <v>0</v>
@@ -15086,7 +15047,7 @@
     </row>
     <row r="272" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D272" s="11">
         <v>165</v>
@@ -15097,7 +15058,7 @@
     </row>
     <row r="273" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D273" s="11">
         <v>725</v>
@@ -15108,7 +15069,7 @@
     </row>
     <row r="274" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D274" s="11">
         <v>29</v>
@@ -15119,7 +15080,7 @@
     </row>
     <row r="275" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D275" s="11">
         <v>114</v>
@@ -15130,7 +15091,7 @@
     </row>
     <row r="276" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D276" s="11">
         <v>0</v>
@@ -15141,7 +15102,7 @@
     </row>
     <row r="277" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D277" s="11">
         <v>0</v>
@@ -15152,7 +15113,7 @@
     </row>
     <row r="278" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D278" s="11">
         <v>0</v>
@@ -15163,7 +15124,7 @@
     </row>
     <row r="279" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
